--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40313946-CA84-EF45-8AF0-DC27154C8443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBFDC55-3514-2344-B2CE-6D76CF594D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="10960" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="10460" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t>4o-mini</t>
   </si>
@@ -101,24 +101,9 @@
     <t>qwen</t>
   </si>
   <si>
-    <t>zs-comb</t>
-  </si>
-  <si>
-    <t>fs-comb</t>
-  </si>
-  <si>
-    <t>models</t>
-  </si>
-  <si>
-    <t>min_angle thresholds</t>
-  </si>
-  <si>
     <t>llm results</t>
   </si>
   <si>
-    <t>external correction results</t>
-  </si>
-  <si>
     <t>noisy finetuning results</t>
   </si>
   <si>
@@ -225,6 +210,18 @@
   </si>
   <si>
     <t>comb (d, m)</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>heuristics</t>
+  </si>
+  <si>
+    <t>4o_mini</t>
+  </si>
+  <si>
+    <t>single heuristic (min_angle)</t>
   </si>
 </sst>
 </file>
@@ -298,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -449,12 +446,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,12 +537,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,9 +605,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -580,18 +620,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,11 +681,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +713,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,6 +722,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,29 +749,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,40 +791,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1189,7 @@
   <dimension ref="B2:AT37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1139,161 +1215,161 @@
   <sheetData>
     <row r="2" spans="2:46" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:46" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="73" t="s">
+      <c r="C3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
-      <c r="N3" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="80" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="N3" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT3" s="26" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="71" t="s">
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="71" t="s">
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="71" t="s">
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="71" t="s">
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="72"/>
-      <c r="AP4" s="33" t="s">
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="70"/>
+      <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AQ4" s="28">
+      <c r="AQ4" s="26">
         <f>MIN($D$4:$D$8)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AR4" s="28">
+      <c r="AR4" s="26">
         <f>MAX($D$4:$D$8)</f>
         <v>0.94799999999999995</v>
       </c>
-      <c r="AS4" s="28">
+      <c r="AS4" s="26">
         <f>AVERAGE($D$4:$D$8)</f>
         <v>0.92059999999999997</v>
       </c>
-      <c r="AT4" s="29">
+      <c r="AT4" s="27">
         <f>STDEV($D$4:$D$8)</f>
         <v>3.3938179090811559E-2</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1306,12 +1382,12 @@
       <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="25">
         <v>5</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1324,7 +1400,7 @@
       <c r="S5" s="1">
         <v>4</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="25">
         <v>5</v>
       </c>
       <c r="U5" s="1">
@@ -1339,7 +1415,7 @@
       <c r="X5" s="1">
         <v>4</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="25">
         <v>5</v>
       </c>
       <c r="Z5" s="1">
@@ -1354,7 +1430,7 @@
       <c r="AC5" s="1">
         <v>4</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="25">
         <v>5</v>
       </c>
       <c r="AE5" s="1">
@@ -1369,7 +1445,7 @@
       <c r="AH5" s="1">
         <v>4</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AI5" s="25">
         <v>5</v>
       </c>
       <c r="AJ5" s="1">
@@ -1384,667 +1460,667 @@
       <c r="AM5" s="1">
         <v>4</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="AN5" s="25">
         <v>5</v>
       </c>
-      <c r="AP5" s="33" t="s">
+      <c r="AP5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AQ5" s="28">
+      <c r="AQ5" s="26">
         <f>MIN($D$9:$D$13)</f>
         <v>0.83499999999999996</v>
       </c>
-      <c r="AR5" s="28">
+      <c r="AR5" s="26">
         <f>MAX($D$9:$D$13)</f>
         <v>0.85199999999999998</v>
       </c>
-      <c r="AS5" s="28">
+      <c r="AS5" s="26">
         <f>AVERAGE($D$9:$D$13)</f>
         <v>0.84460000000000002</v>
       </c>
-      <c r="AT5" s="29">
+      <c r="AT5" s="27">
         <f>STDEV($D$9:$D$13)</f>
         <v>7.7006493232713892E-3</v>
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="67"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="64" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>0.85923753665689095</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>0.85988921472792401</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <v>0.85858585858585801</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>0.85337243401759499</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <v>0.83740632127728898</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="64" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <v>0.88400000000000001</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <v>0.88400000000000001</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="26">
         <v>0.88200000000000001</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="26">
         <v>0.88100000000000001</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <v>0.86299999999999999</v>
       </c>
-      <c r="U6" s="47">
+      <c r="U6" s="40">
         <v>0.88800000000000001</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="40">
         <v>0.88800000000000001</v>
       </c>
-      <c r="W6" s="47">
+      <c r="W6" s="40">
         <v>0.88600000000000001</v>
       </c>
-      <c r="X6" s="47">
+      <c r="X6" s="40">
         <v>0.88500000000000001</v>
       </c>
-      <c r="Y6" s="48">
+      <c r="Y6" s="41">
         <v>0.86699999999999999</v>
       </c>
-      <c r="Z6" s="57">
+      <c r="Z6" s="50">
         <v>0.88700000000000001</v>
       </c>
-      <c r="AA6" s="57">
+      <c r="AA6" s="50">
         <v>0.88700000000000001</v>
       </c>
-      <c r="AB6" s="57">
+      <c r="AB6" s="50">
         <v>0.88500000000000001</v>
       </c>
-      <c r="AC6" s="57">
+      <c r="AC6" s="50">
         <v>0.88400000000000001</v>
       </c>
-      <c r="AD6" s="58">
+      <c r="AD6" s="51">
         <v>0.86599999999999999</v>
       </c>
-      <c r="AE6" s="57">
+      <c r="AE6" s="50">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AF6" s="57">
+      <c r="AF6" s="50">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AG6" s="57">
+      <c r="AG6" s="50">
         <v>0.86</v>
       </c>
-      <c r="AH6" s="57">
+      <c r="AH6" s="50">
         <v>0.85899999999999999</v>
       </c>
-      <c r="AI6" s="58">
+      <c r="AI6" s="51">
         <v>0.84199999999999997</v>
       </c>
-      <c r="AJ6" s="57">
+      <c r="AJ6" s="50">
         <v>0.73299999999999998</v>
       </c>
-      <c r="AK6" s="57">
+      <c r="AK6" s="50">
         <v>0.73299999999999998</v>
       </c>
-      <c r="AL6" s="57">
+      <c r="AL6" s="50">
         <v>0.73099999999999998</v>
       </c>
-      <c r="AM6" s="57">
+      <c r="AM6" s="50">
         <v>0.73</v>
       </c>
-      <c r="AN6" s="58">
+      <c r="AN6" s="51">
         <v>0.71499999999999997</v>
       </c>
-      <c r="AP6" s="33" t="s">
+      <c r="AP6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AQ6" s="28">
+      <c r="AQ6" s="26">
         <f>MIN($D$14:$D$18)</f>
         <v>0.65400000000000003</v>
       </c>
-      <c r="AR6" s="28">
+      <c r="AR6" s="26">
         <f>MAX($D$14:$D$18)</f>
         <v>0.753</v>
       </c>
-      <c r="AS6" s="28">
+      <c r="AS6" s="26">
         <f>AVERAGE($D$14:$D$18)</f>
         <v>0.6996</v>
       </c>
-      <c r="AT6" s="29">
+      <c r="AT6" s="27">
         <f>STDEV($D$14:$D$18)</f>
         <v>4.5208406297944176E-2</v>
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="67"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>0.90648399999999996</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <v>0.90713600000000005</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <v>0.90550699999999995</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>0.89996699999999996</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <v>0.88302400000000003</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="67"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="40">
         <v>0.93200000000000005</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="40">
         <v>0.93200000000000005</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="40">
         <v>0.93</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="40">
         <v>0.92900000000000005</v>
       </c>
-      <c r="T7" s="48">
+      <c r="T7" s="41">
         <v>0.90700000000000003</v>
       </c>
-      <c r="U7" s="47">
+      <c r="U7" s="40">
         <v>0.93700000000000006</v>
       </c>
-      <c r="V7" s="47">
+      <c r="V7" s="40">
         <v>0.93700000000000006</v>
       </c>
-      <c r="W7" s="47">
+      <c r="W7" s="40">
         <v>0.93500000000000005</v>
       </c>
-      <c r="X7" s="47">
+      <c r="X7" s="40">
         <v>0.93400000000000005</v>
       </c>
-      <c r="Y7" s="48">
+      <c r="Y7" s="41">
         <v>0.91200000000000003</v>
       </c>
-      <c r="Z7" s="57">
+      <c r="Z7" s="50">
         <v>0.93600000000000005</v>
       </c>
-      <c r="AA7" s="57">
+      <c r="AA7" s="50">
         <v>0.93600000000000005</v>
       </c>
-      <c r="AB7" s="57">
+      <c r="AB7" s="50">
         <v>0.93400000000000005</v>
       </c>
-      <c r="AC7" s="57">
+      <c r="AC7" s="50">
         <v>0.93300000000000005</v>
       </c>
-      <c r="AD7" s="58">
+      <c r="AD7" s="51">
         <v>0.91100000000000003</v>
       </c>
-      <c r="AE7" s="57">
+      <c r="AE7" s="50">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AF7" s="57">
+      <c r="AF7" s="50">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AG7" s="57">
+      <c r="AG7" s="50">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AH7" s="57">
+      <c r="AH7" s="50">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AI7" s="51">
         <v>0.88</v>
       </c>
-      <c r="AJ7" s="57">
+      <c r="AJ7" s="50">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AK7" s="57">
+      <c r="AK7" s="50">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AL7" s="57">
+      <c r="AL7" s="50">
         <v>0.76100000000000001</v>
       </c>
-      <c r="AM7" s="57">
+      <c r="AM7" s="50">
         <v>0.76</v>
       </c>
-      <c r="AN7" s="58">
+      <c r="AN7" s="51">
         <v>0.74099999999999999</v>
       </c>
-      <c r="AP7" s="33" t="s">
+      <c r="AP7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AQ7" s="28">
+      <c r="AQ7" s="26">
         <f>MIN($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>0.73499999999999999</v>
       </c>
-      <c r="AR7" s="28">
+      <c r="AR7" s="26">
         <f>MAX($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AS7" s="28">
+      <c r="AS7" s="26">
         <f>AVERAGE($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>0.90839581820354054</v>
       </c>
-      <c r="AT7" s="29">
+      <c r="AT7" s="27">
         <f>STDEV($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>6.1842067504213186E-2</v>
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
-      <c r="C8" s="18">
+      <c r="B8" s="65"/>
+      <c r="C8" s="16">
         <v>20</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>0.942326</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>0.94330400000000003</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <v>0.94167500000000004</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <v>0.91756300000000002</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="67"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="40">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="40">
         <v>0.97199999999999998</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="40">
         <v>0.97</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="40">
         <v>0.96899999999999997</v>
       </c>
-      <c r="T8" s="48">
+      <c r="T8" s="41">
         <v>0.94599999999999995</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="40">
         <v>0.98</v>
       </c>
-      <c r="V8" s="47">
+      <c r="V8" s="40">
         <v>0.98</v>
       </c>
-      <c r="W8" s="47">
+      <c r="W8" s="40">
         <v>0.97799999999999998</v>
       </c>
-      <c r="X8" s="47">
+      <c r="X8" s="40">
         <v>0.97699999999999998</v>
       </c>
-      <c r="Y8" s="48">
+      <c r="Y8" s="41">
         <v>0.95399999999999996</v>
       </c>
-      <c r="Z8" s="57">
+      <c r="Z8" s="50">
         <v>0.97799999999999998</v>
       </c>
-      <c r="AA8" s="57">
+      <c r="AA8" s="50">
         <v>0.97799999999999998</v>
       </c>
-      <c r="AB8" s="57">
+      <c r="AB8" s="50">
         <v>0.97599999999999998</v>
       </c>
-      <c r="AC8" s="57">
+      <c r="AC8" s="50">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD8" s="58">
+      <c r="AD8" s="51">
         <v>0.95199999999999996</v>
       </c>
-      <c r="AE8" s="57">
+      <c r="AE8" s="50">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AF8" s="57">
+      <c r="AF8" s="50">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AG8" s="57">
+      <c r="AG8" s="50">
         <v>0.94</v>
       </c>
-      <c r="AH8" s="57">
+      <c r="AH8" s="50">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AI8" s="58">
+      <c r="AI8" s="51">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AJ8" s="57">
+      <c r="AJ8" s="50">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AK8" s="57">
+      <c r="AK8" s="50">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AL8" s="57">
+      <c r="AL8" s="50">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AM8" s="57">
+      <c r="AM8" s="50">
         <v>0.77600000000000002</v>
       </c>
-      <c r="AN8" s="58">
+      <c r="AN8" s="51">
         <v>0.75600000000000001</v>
       </c>
-      <c r="AP8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ8" s="30">
+      <c r="AP8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ8" s="28">
         <f>MIN($P$6:$AN$10)</f>
         <v>0.71499999999999997</v>
       </c>
-      <c r="AR8" s="30">
+      <c r="AR8" s="28">
         <f>MAX($P$6:$AN$10)</f>
         <v>0.99</v>
       </c>
-      <c r="AS8" s="30">
+      <c r="AS8" s="28">
         <f>AVERAGE($P$6:$AN$10)</f>
         <v>0.90371999999999941</v>
       </c>
-      <c r="AT8" s="31">
+      <c r="AT8" s="29">
         <f>STDEV($P$6:$AN$10)</f>
         <v>8.0260020980198674E-2</v>
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>0.95047199999999998</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <v>0.95145000000000002</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <v>0.94982100000000003</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>0.94362999999999997</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <v>0.92538299999999996</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="67"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="40">
         <v>0.97699999999999998</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="40">
         <v>0.97699999999999998</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="40">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S9" s="47">
+      <c r="S9" s="40">
         <v>0.97399999999999998</v>
       </c>
-      <c r="T9" s="48">
+      <c r="T9" s="41">
         <v>0.95099999999999996</v>
       </c>
-      <c r="U9" s="47">
+      <c r="U9" s="40">
         <v>0.98699999999999999</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="40">
         <v>0.98699999999999999</v>
       </c>
-      <c r="W9" s="47">
+      <c r="W9" s="40">
         <v>0.98499999999999999</v>
       </c>
-      <c r="X9" s="47">
+      <c r="X9" s="40">
         <v>0.98399999999999999</v>
       </c>
-      <c r="Y9" s="48">
+      <c r="Y9" s="41">
         <v>0.96099999999999997</v>
       </c>
-      <c r="Z9" s="57">
+      <c r="Z9" s="50">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AA9" s="57">
+      <c r="AA9" s="50">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AB9" s="57">
+      <c r="AB9" s="50">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AC9" s="57">
+      <c r="AC9" s="50">
         <v>0.98399999999999999</v>
       </c>
-      <c r="AD9" s="58">
+      <c r="AD9" s="51">
         <v>0.96099999999999997</v>
       </c>
-      <c r="AE9" s="57">
+      <c r="AE9" s="50">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AF9" s="57">
+      <c r="AF9" s="50">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AG9" s="57">
+      <c r="AG9" s="50">
         <v>0.94899999999999995</v>
       </c>
-      <c r="AH9" s="57">
+      <c r="AH9" s="50">
         <v>0.94799999999999995</v>
       </c>
-      <c r="AI9" s="58">
+      <c r="AI9" s="51">
         <v>0.92600000000000005</v>
       </c>
-      <c r="AJ9" s="57">
+      <c r="AJ9" s="50">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AK9" s="57">
+      <c r="AK9" s="50">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AL9" s="57">
+      <c r="AL9" s="50">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AM9" s="57">
+      <c r="AM9" s="50">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AN9" s="58">
+      <c r="AN9" s="51">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="18">
+      <c r="F10" s="65"/>
+      <c r="G10" s="16">
         <v>20</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="28">
         <v>0.94525899999999996</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>0.94688799999999995</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="28">
         <v>0.94525899999999996</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="28">
         <v>0.93906800000000001</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <v>0.92049499999999995</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="18">
+      <c r="M10" s="26"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="16">
         <v>20</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="42">
         <v>0.96899999999999997</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="42">
         <v>0.96899999999999997</v>
       </c>
-      <c r="R10" s="49">
+      <c r="R10" s="42">
         <v>0.96699999999999997</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="42">
         <v>0.96599999999999997</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="43">
         <v>0.94299999999999995</v>
       </c>
-      <c r="U10" s="49">
+      <c r="U10" s="42">
         <v>0.98499999999999999</v>
       </c>
-      <c r="V10" s="49">
+      <c r="V10" s="42">
         <v>0.98499999999999999</v>
       </c>
-      <c r="W10" s="49">
+      <c r="W10" s="42">
         <v>0.98299999999999998</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X10" s="42">
         <v>0.98199999999999998</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="43">
         <v>0.95899999999999996</v>
       </c>
-      <c r="Z10" s="59">
+      <c r="Z10" s="52">
         <v>0.99</v>
       </c>
-      <c r="AA10" s="59">
+      <c r="AA10" s="52">
         <v>0.99</v>
       </c>
-      <c r="AB10" s="59">
+      <c r="AB10" s="52">
         <v>0.98799999999999999</v>
       </c>
-      <c r="AC10" s="59">
+      <c r="AC10" s="52">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AD10" s="60">
+      <c r="AD10" s="53">
         <v>0.96399999999999997</v>
       </c>
-      <c r="AE10" s="59">
+      <c r="AE10" s="52">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AF10" s="59">
+      <c r="AF10" s="52">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AG10" s="59">
+      <c r="AG10" s="52">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AH10" s="59">
+      <c r="AH10" s="52">
         <v>0.95</v>
       </c>
-      <c r="AI10" s="60">
+      <c r="AI10" s="53">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AJ10" s="59">
+      <c r="AJ10" s="52">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AK10" s="59">
+      <c r="AK10" s="52">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AL10" s="59">
+      <c r="AL10" s="52">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AM10" s="59">
+      <c r="AM10" s="52">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AN10" s="60">
+      <c r="AN10" s="53">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="67"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71" t="s">
+      <c r="F11" s="71"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="52"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="45"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2057,7 +2133,7 @@
       <c r="K12" s="1">
         <v>0.4</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="25">
         <v>0.5</v>
       </c>
       <c r="M12" s="5"/>
@@ -2065,187 +2141,187 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="18">
+      <c r="B13" s="65"/>
+      <c r="C13" s="16">
         <v>5</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="64" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="40">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="40">
         <v>0.88900000000000001</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="40">
         <v>0.88800000000000001</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="40">
         <v>0.86399999999999999</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="41">
         <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="23">
         <v>0.1</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="40">
         <v>0.93</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="40">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="40">
         <v>0.93700000000000006</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="40">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="41">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="67"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="40">
         <v>0.97</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="40">
         <v>0.98099999999999998</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="40">
         <v>0.97899999999999998</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="40">
         <v>0.94399999999999995</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="41">
         <v>0.78100000000000003</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="67"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="40">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="40">
         <v>0.98699999999999999</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="40">
         <v>0.98699999999999999</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="40">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="41">
         <v>0.78200000000000003</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="18">
+      <c r="F17" s="65"/>
+      <c r="G17" s="16">
         <v>20</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="42">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="42">
         <v>0.98099999999999998</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="42">
         <v>0.98599999999999999</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="42">
         <v>0.95</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="43">
         <v>0.78100000000000003</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="N17" s="45"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="18">
+      <c r="B18" s="65"/>
+      <c r="C18" s="16">
         <v>0.5</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85" t="s">
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="88"/>
-      <c r="N18" s="52"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="78"/>
+      <c r="N18" s="45"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2258,289 +2334,301 @@
       <c r="K19" s="1">
         <v>0.4</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="25">
         <v>0.5</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="N19" s="45"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="47">
         <v>1</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="40">
         <v>0.89</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="40">
         <v>0.93</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="40">
         <v>0.95799999999999996</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="40">
         <v>0.93799999999999994</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="41">
         <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="81"/>
-      <c r="G21" s="54">
+      <c r="F21" s="61"/>
+      <c r="G21" s="47">
         <v>2</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="48">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="48">
         <v>0.90700000000000003</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="48">
         <v>0.90600000000000003</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="48">
         <v>0.9</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="49">
         <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F22" s="81"/>
-      <c r="G22" s="54">
+      <c r="F22" s="61"/>
+      <c r="G22" s="47">
         <v>3</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="40">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="40">
         <v>0.94299999999999995</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="40">
         <v>0.97099999999999997</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="40">
         <v>0.94599999999999995</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="41">
         <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D23" s="52"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="54">
+      <c r="D23" s="45"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="47">
         <v>4</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="40">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="40">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="40">
         <v>0.97199999999999998</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="40">
         <v>0.94699999999999995</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="41">
         <v>0.77700000000000002</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="52"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="53">
+      <c r="D24" s="45"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="46">
         <v>5</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="42">
         <v>0.88700000000000001</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="42">
         <v>0.92600000000000005</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="42">
         <v>0.95399999999999996</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="42">
         <v>0.92600000000000005</v>
       </c>
-      <c r="L24" s="50">
+      <c r="L24" s="43">
         <v>0.75800000000000001</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D25" s="52"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="W25" s="52"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
+      <c r="D25" s="45"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="W25" s="45"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D26" s="52"/>
-      <c r="F26" s="28"/>
-      <c r="K26" s="52"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="W26" s="52"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="26"/>
+      <c r="K26" s="45"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="W26" s="45"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D27" s="52"/>
-      <c r="F27" s="28"/>
-      <c r="K27" s="52"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="W27" s="52"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
+      <c r="D27" s="45"/>
+      <c r="F27" s="26"/>
+      <c r="K27" s="45"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="W27" s="45"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D28" s="52"/>
-      <c r="F28" s="28"/>
-      <c r="K28" s="52"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="W28" s="52"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
+      <c r="D28" s="45"/>
+      <c r="F28" s="26"/>
+      <c r="K28" s="45"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="W28" s="45"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D29" s="52"/>
-      <c r="F29" s="28"/>
-      <c r="W29" s="52"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
+      <c r="D29" s="45"/>
+      <c r="F29" s="26"/>
+      <c r="W29" s="45"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D30" s="52"/>
-      <c r="F30" s="28"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
+      <c r="D30" s="45"/>
+      <c r="F30" s="26"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D31" s="52"/>
-      <c r="F31" s="28"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
+      <c r="D31" s="45"/>
+      <c r="F31" s="26"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D32" s="52"/>
-      <c r="F32" s="28"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
+      <c r="D32" s="45"/>
+      <c r="F32" s="26"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
     </row>
     <row r="33" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D33" s="52"/>
-      <c r="F33" s="28"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
+      <c r="D33" s="45"/>
+      <c r="F33" s="26"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
     </row>
     <row r="34" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D34" s="52"/>
-      <c r="F34" s="28"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
+      <c r="D34" s="45"/>
+      <c r="F34" s="26"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
     </row>
     <row r="35" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D35" s="52"/>
-      <c r="F35" s="28"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
+      <c r="D35" s="45"/>
+      <c r="F35" s="26"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
     </row>
     <row r="36" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D36" s="52"/>
-      <c r="F36" s="28"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
+      <c r="D36" s="45"/>
+      <c r="F36" s="26"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
     </row>
     <row r="37" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D37" s="52"/>
-      <c r="F37" s="28"/>
+      <c r="D37" s="45"/>
+      <c r="F37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2554,18 +2642,6 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L24 H13:L17">
     <cfRule type="colorScale" priority="1">
@@ -2612,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
   <dimension ref="B1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2642,237 +2718,237 @@
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="B2" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="89" t="s">
+      <c r="B3" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="94"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="85">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="89"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="H6" s="87">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="89"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="85">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="89"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="87">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="89"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="85">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="89"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="101">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="62" t="s">
+      <c r="H10" s="87">
+        <v>0.753</v>
+      </c>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="89"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="103">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="H11" s="85">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="89"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="101">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="62" t="s">
+      <c r="H12" s="87">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="89"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="103">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="H13" s="85">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="84"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="101">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="103">
-        <v>0.753</v>
-      </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="101">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="103">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="101">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="105">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="H14" s="99">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="58">
         <v>0.52</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="58">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="59">
         <v>0.60299999999999998</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2884,16 +2960,16 @@
       <c r="I16" s="6">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>0.64500000000000002</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2903,31 +2979,35 @@
       <c r="I17" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>0.60899999999999999</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="17"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="I18" s="6">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6">
         <v>0.49299999999999999</v>
@@ -2935,61 +3015,69 @@
       <c r="I19" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>0.67600000000000005</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.63</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="17">
         <v>0.54900000000000004</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="17">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J22" s="20">
-        <v>0.69599999999999995</v>
+      <c r="J22" s="18">
+        <v>0.69</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3001,16 +3089,16 @@
       <c r="I23" s="6">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <v>0.94599999999999995</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3020,7 +3108,7 @@
       <c r="I24" s="6">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <v>0.73199999999999998</v>
       </c>
       <c r="L24" s="7"/>
@@ -3028,25 +3116,29 @@
       <c r="N24" s="11"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="6">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.60099999999999998</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H26" s="6">
         <v>0.52300000000000002</v>
@@ -3054,7 +3146,7 @@
       <c r="I26" s="6">
         <v>0.877</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <v>0.95</v>
       </c>
       <c r="L26" s="7"/>
@@ -3062,69 +3154,77 @@
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="6">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.95099999999999996</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="17"/>
+      <c r="I28" s="6">
+        <v>0.745</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.73299999999999998</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="96"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="96"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H29" s="6">
         <v>0.58299999999999996</v>
       </c>
       <c r="I29" s="6">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0.94799999999999995</v>
+        <v>0.748</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.95199999999999996</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
     </row>
     <row r="30" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="96"/>
-      <c r="E30" s="100" t="s">
+      <c r="D30" s="89"/>
+      <c r="E30" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="36"/>
+      <c r="G30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="58">
         <v>0.495</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="58">
         <v>0.495</v>
       </c>
-      <c r="J30" s="66">
+      <c r="J30" s="59">
         <v>0.63300000000000001</v>
       </c>
       <c r="L30" s="7"/>
@@ -3132,9 +3232,9 @@
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96" t="s">
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3146,7 +3246,7 @@
       <c r="I31" s="6">
         <v>0.58899999999999997</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <v>0.68200000000000005</v>
       </c>
       <c r="L31" s="7"/>
@@ -3154,9 +3254,9 @@
       <c r="N31" s="11"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3166,7 +3266,7 @@
       <c r="I32" s="6">
         <v>0.51200000000000001</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <v>0.67900000000000005</v>
       </c>
       <c r="L32" s="7"/>
@@ -3174,25 +3274,29 @@
       <c r="N32" s="11"/>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
       <c r="G33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="6">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0.64200000000000002</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H34" s="6">
         <v>0.51600000000000001</v>
@@ -3200,7 +3304,7 @@
       <c r="I34" s="6">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <v>0.66300000000000003</v>
       </c>
       <c r="L34" s="7"/>
@@ -3208,47 +3312,55 @@
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="17"/>
+      <c r="I35" s="6">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0.67100000000000004</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="17"/>
+      <c r="I36" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0.64300000000000002</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="19">
-        <v>0.52</v>
-      </c>
-      <c r="J37" s="20">
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="J37" s="18">
         <v>0.66300000000000003</v>
       </c>
       <c r="L37" s="7"/>
@@ -3256,9 +3368,9 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96" t="s">
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3270,7 +3382,7 @@
       <c r="I38" s="6">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="15">
         <v>0.93600000000000005</v>
       </c>
       <c r="L38" s="7"/>
@@ -3278,9 +3390,9 @@
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3290,33 +3402,37 @@
       <c r="I39" s="6">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J39" s="17">
-        <v>0.94499999999999995</v>
+      <c r="J39" s="15">
+        <v>0.84499999999999997</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="17"/>
+      <c r="I40" s="6">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
       <c r="G41" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H41" s="6">
         <v>0.51700000000000002</v>
@@ -3324,7 +3440,7 @@
       <c r="I41" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="15">
         <v>0.94099999999999995</v>
       </c>
       <c r="L41" s="7"/>
@@ -3332,48 +3448,56 @@
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
       <c r="G42" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="17"/>
+      <c r="I42" s="6">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0.96099999999999997</v>
+      </c>
       <c r="L42" s="7"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
       <c r="G43" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="17"/>
+      <c r="I43" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0.94699999999999995</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="19">
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="17">
         <v>0.50600000000000001</v>
       </c>
-      <c r="I44" s="19">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="J44" s="20">
-        <v>0.94499999999999995</v>
+      <c r="I44" s="17">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J44" s="18">
+        <v>0.97799999999999998</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="6"/>
@@ -3414,7 +3538,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
@@ -3422,7 +3546,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
@@ -3432,16 +3556,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="D15:D44"/>
-    <mergeCell ref="E15:E29"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="E30:E44"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="H3:J3"/>
@@ -3458,9 +3572,19 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:D44"/>
+    <mergeCell ref="E15:E29"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="E30:E44"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="F38:F44"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="H1 J1">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3471,31 +3595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I44">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J7 J15:J44 H5:H44">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1 H1">
+  <conditionalFormatting sqref="I1">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3508,7 +3608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M56">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3520,7 +3620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N25 N34:N56">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3531,6 +3631,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H5:J44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3538,527 +3650,499 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="C1:X15"/>
+  <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-    </row>
-    <row r="3" spans="3:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-    </row>
-    <row r="4" spans="3:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7"/>
-      <c r="D4" s="73" t="s">
+    <row r="1" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C3" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="110">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="69">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C4" s="108"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="25"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="108"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="102"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="25"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+    </row>
+    <row r="6" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="108"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="113"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="108"/>
+      <c r="D7" s="114">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="108"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="108"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="108"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="102"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="108"/>
+      <c r="D11" s="114">
+        <v>5</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="69">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="108"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="108"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="108"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="113"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="108"/>
+      <c r="D15" s="114">
+        <v>10</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="69">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="108"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="102"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="108"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="102"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="108"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="101"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="113"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="108"/>
+      <c r="D19" s="114">
+        <v>20</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="69">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="108"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="102"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="108"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="102"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="109"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="102"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="69">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="102"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="101"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="113"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="108"/>
+      <c r="D27" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="69">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="102"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="102"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="101"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="113"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="13" t="s">
+      <c r="D31" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D6" s="96" t="s">
+      <c r="E31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="69">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="102"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="102"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="101"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="113"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="108"/>
+      <c r="D35" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="76">
-        <v>1</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="105">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="5">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="16"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="3"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-    </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D7" s="96"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="5">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="16"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D8" s="96"/>
-      <c r="E8" s="76">
-        <v>2</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="105">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="5">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="16"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-    </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D9" s="96"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="5">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="16"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D10" s="96"/>
-      <c r="E10" s="76">
-        <v>5</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="105">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="5">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="16"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-    </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D11" s="96"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="5">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="16"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-    </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D12" s="96"/>
-      <c r="E12" s="76">
-        <v>10</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="105">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="16"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-    </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="96"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="5">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="16"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-    </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D14" s="96"/>
-      <c r="E14" s="76">
-        <v>20</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="105">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="5">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0.94</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="16"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-    </row>
-    <row r="15" spans="3:24" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="98"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
+      <c r="E35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="85">
+        <v>0.99</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="106"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="106"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="87"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="D6:D15"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
+  <mergeCells count="22">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1:J3">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="2"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:M15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="2"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P12">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q12 O1:O12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W14">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X14 V1:V14">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4085,35 +4169,35 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="5">
@@ -4125,30 +4209,30 @@
       <c r="E4" s="1">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>10</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>0.94799999999999995</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>0.92</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -4157,7 +4241,7 @@
       <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -4169,7 +4253,7 @@
       <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -4178,7 +4262,7 @@
       <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -4225,28 +4309,28 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="4"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="2"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBFDC55-3514-2344-B2CE-6D76CF594D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057506B3-9D38-4F41-BC83-201D288778F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="10460" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>4o-mini</t>
   </si>
@@ -125,9 +125,6 @@
     <t>fs</t>
   </si>
   <si>
-    <t>0..509</t>
-  </si>
-  <si>
     <t>zs-all</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>single heuristic (min_angle)</t>
+  </si>
+  <si>
+    <t>llama3 (7b)</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,6 +686,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -803,22 +815,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,25 +830,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1186,7 @@
   <dimension ref="B2:AT37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1219,57 +1216,57 @@
         <v>3</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="N3" s="66" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="N3" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="67" t="s">
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="82" t="s">
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="79" t="s">
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="23" t="s">
         <v>22</v>
@@ -1281,11 +1278,11 @@
         <v>24</v>
       </c>
       <c r="AT3" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23">
@@ -1294,52 +1291,52 @@
       <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="69" t="s">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="69" t="s">
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="69" t="s">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="69" t="s">
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="70"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="73"/>
       <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1361,15 +1358,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1386,8 +1383,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1484,14 +1481,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="64"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1513,7 +1510,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1615,14 +1612,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="26"/>
-      <c r="N7" s="64"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1742,14 +1739,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="64"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="N8" s="64"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1869,7 +1866,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="23">
@@ -1878,7 +1875,7 @@
       <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="26"/>
-      <c r="N9" s="64"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1979,14 +1976,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="16">
         <v>20</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="65"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="16">
         <v>20</v>
       </c>
@@ -2087,22 +2084,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="64"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="70"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="26"/>
       <c r="N11" s="45"/>
       <c r="P11" s="26"/>
@@ -2112,15 +2109,15 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2141,14 +2138,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="65"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2171,7 +2168,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23">
@@ -2180,7 +2177,7 @@
       <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2204,14 +2201,14 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="64"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2233,14 +2230,14 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="64"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2262,14 +2259,14 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="64"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="16">
         <v>20</v>
       </c>
@@ -2296,22 +2293,22 @@
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="16">
         <v>0.5</v>
       </c>
       <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75" t="s">
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="81"/>
       <c r="N18" s="45"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
@@ -2320,8 +2317,8 @@
       <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2345,7 +2342,7 @@
       <c r="T19" s="26"/>
     </row>
     <row r="20" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="64" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="47">
@@ -2368,7 +2365,7 @@
       </c>
     </row>
     <row r="21" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="61"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="47">
         <v>2</v>
       </c>
@@ -2389,7 +2386,7 @@
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F22" s="61"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="47">
         <v>3</v>
       </c>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D23" s="45"/>
-      <c r="F23" s="61"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="47">
         <v>4</v>
       </c>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="24" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="46">
         <v>5</v>
       </c>
@@ -2686,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
-  <dimension ref="B1:N56"/>
+  <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2700,7 +2697,7 @@
     <col min="4" max="5" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
@@ -2708,7 +2705,7 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -2717,48 +2714,48 @@
       <c r="J1" s="6"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="D3" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="97"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="94"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>0</v>
@@ -2768,165 +2765,163 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="83" t="s">
+    <row r="5" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="99"/>
+      <c r="F5" s="86" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="88">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="92"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="85">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="89"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="55" t="s">
+      <c r="H6" s="90">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="92"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="87">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="89"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="88">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="92"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="85">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="89"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="55" t="s">
+      <c r="H8" s="90">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="92"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="87">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="89"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="88">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="92"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="85">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="89"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="55" t="s">
+      <c r="H10" s="90">
+        <v>0.753</v>
+      </c>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="92"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="87">
-        <v>0.753</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="89"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="88">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="92"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="85">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="89"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="90">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="92"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="87">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="89"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="88">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="87"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="85">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="84"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="99">
+      <c r="H14" s="102">
         <v>0.99</v>
       </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="89" t="s">
+    </row>
+    <row r="15" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="86" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="36"/>
@@ -2942,13 +2937,11 @@
       <c r="J15" s="59">
         <v>0.60299999999999998</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89" t="s">
+    </row>
+    <row r="16" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2963,13 +2956,11 @@
       <c r="J16" s="15">
         <v>0.64500000000000002</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2982,32 +2973,30 @@
       <c r="J17" s="15">
         <v>0.60899999999999999</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.54100000000000004</v>
+      </c>
       <c r="I18" s="6">
         <v>0.55600000000000005</v>
       </c>
       <c r="J18" s="15">
         <v>0.60299999999999998</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="6">
         <v>0.49299999999999999</v>
@@ -3018,47 +3007,45 @@
       <c r="J19" s="15">
         <v>0.67600000000000005</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.53300000000000003</v>
+      </c>
       <c r="I20" s="6">
         <v>0.45600000000000002</v>
       </c>
       <c r="J20" s="15">
         <v>0.67400000000000004</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.53</v>
+      </c>
       <c r="I21" s="6">
         <v>0.45600000000000002</v>
       </c>
       <c r="J21" s="15">
         <v>0.63</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="84"/>
+    </row>
+    <row r="22" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
@@ -3071,13 +3058,11 @@
       <c r="J22" s="18">
         <v>0.69</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89" t="s">
+    </row>
+    <row r="23" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3092,13 +3077,11 @@
       <c r="J23" s="15">
         <v>0.94599999999999995</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3112,17 +3095,17 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.54700000000000004</v>
+      </c>
       <c r="I25" s="6">
         <v>0.60299999999999998</v>
       </c>
@@ -3130,15 +3113,13 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="6">
         <v>0.52300000000000002</v>
@@ -3150,17 +3131,17 @@
         <v>0.95</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.55200000000000005</v>
+      </c>
       <c r="I27" s="6">
         <v>0.81299999999999994</v>
       </c>
@@ -3168,17 +3149,17 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="I28" s="6">
         <v>0.745</v>
       </c>
@@ -3186,18 +3167,16 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="89"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="89"/>
+    </row>
+    <row r="29" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="92"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="6">
-        <v>0.58299999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="I29" s="6">
         <v>0.748</v>
@@ -3206,12 +3185,10 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="89"/>
-      <c r="E30" s="83" t="s">
+    </row>
+    <row r="30" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="92"/>
+      <c r="E30" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="36"/>
@@ -3228,13 +3205,11 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89" t="s">
+    </row>
+    <row r="31" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3250,13 +3225,11 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3270,17 +3243,17 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="L32" s="7"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="I33" s="6">
         <v>0.60599999999999998</v>
       </c>
@@ -3288,15 +3261,13 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="6">
         <v>0.51600000000000001</v>
@@ -3308,17 +3279,17 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="I35" s="6">
         <v>0.57299999999999995</v>
       </c>
@@ -3326,17 +3297,17 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.47899999999999998</v>
+      </c>
       <c r="I36" s="6">
         <v>0.55400000000000005</v>
       </c>
@@ -3344,18 +3315,16 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="L36" s="7"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="84"/>
+    </row>
+    <row r="37" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>28</v>
+      <c r="H37" s="17">
+        <v>0.51200000000000001</v>
       </c>
       <c r="I37" s="17">
         <v>0.52800000000000002</v>
@@ -3364,13 +3333,11 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89" t="s">
+    </row>
+    <row r="38" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3386,13 +3353,11 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="L38" s="7"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3406,17 +3371,17 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="I40" s="6">
         <v>0.63800000000000001</v>
       </c>
@@ -3424,15 +3389,13 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="L40" s="7"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H41" s="6">
         <v>0.51700000000000002</v>
@@ -3444,17 +3407,17 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="L41" s="7"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.51</v>
+      </c>
       <c r="I42" s="6">
         <v>0.88600000000000001</v>
       </c>
@@ -3462,17 +3425,17 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="L42" s="7"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.52800000000000002</v>
+      </c>
       <c r="I43" s="6">
         <v>0.82199999999999995</v>
       </c>
@@ -3480,18 +3443,16 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="L43" s="7"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
+    </row>
+    <row r="44" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
       <c r="G44" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="17">
-        <v>0.50600000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I44" s="17">
         <v>0.84299999999999997</v>
@@ -3500,59 +3461,15 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="L44" s="7"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="L45" s="7"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="L46" s="7"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="L47" s="7"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="13:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="13:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3584,43 +3501,7 @@
     <mergeCell ref="F38:F44"/>
   </mergeCells>
   <conditionalFormatting sqref="H1 J1">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M56">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22:N25 N34:N56">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3632,7 +3513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J44">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3643,6 +3524,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3650,10 +3543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:P38"/>
+  <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3661,15 +3554,21 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="12" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3680,468 +3579,395 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="66"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="116" t="s">
+    <row r="2" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="G2" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="H2" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="110">
+      <c r="D3" s="104">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="76">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="K3" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="69">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="108"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="60" t="s">
+      <c r="N3" s="72">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="111"/>
+    </row>
+    <row r="4" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="107"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="109"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="62"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="25"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="108"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="60" t="s">
+      <c r="N4" s="114"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="111"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C5" s="107"/>
+      <c r="D5" s="104">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="72">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="88">
+        <v>0.99</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="111"/>
+    </row>
+    <row r="6" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="107"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="25"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-    </row>
-    <row r="6" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="108"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="113"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="108"/>
-      <c r="D7" s="114">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="69">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C8" s="108"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="60" t="s">
+      <c r="H6" s="62"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="108"/>
-      <c r="D9" s="114"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="111"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="107"/>
+      <c r="D7" s="104">
+        <v>5</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="76">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+    </row>
+    <row r="8" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="107"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="109"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="62"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="107"/>
+      <c r="D9" s="104">
+        <v>10</v>
+      </c>
       <c r="E9" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="76">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+    </row>
+    <row r="10" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="107"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="108"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="108"/>
-      <c r="D11" s="114">
-        <v>5</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="69">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F10" s="109"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="62"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="107"/>
+      <c r="D11" s="104">
+        <v>20</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="76">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="108"/>
-      <c r="D12" s="114"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="104"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="76"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="108"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="60" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="72">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="108"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="113"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="108"/>
-      <c r="D15" s="114">
-        <v>10</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="69">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H14" s="62"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="107"/>
+      <c r="D15" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="76">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="108"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="108"/>
-      <c r="D17" s="114"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="109"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="76">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="108"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="101"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="113"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="108"/>
-      <c r="D19" s="114">
-        <v>20</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="69">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="62"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="107"/>
+      <c r="D19" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="102">
+        <v>0.99</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="108"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="108"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="60" t="s">
+      <c r="D20" s="108"/>
+      <c r="E20" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="109"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="69">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="113"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="108"/>
-      <c r="D27" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="69">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="102"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="113"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="69">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="101"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="113"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="108"/>
-      <c r="D35" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="85">
-        <v>0.99</v>
-      </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="106"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="106"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="113"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="62"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="111"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="111"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="28">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4169,13 +3995,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057506B3-9D38-4F41-BC83-201D288778F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005F024-ADEF-8A40-B8F2-51EC047BE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="10460" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
   <si>
     <t>4o-mini</t>
   </si>
@@ -506,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,6 +695,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -821,32 +824,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,52 +1209,52 @@
       <c r="D3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="N3" s="69" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="N3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="70" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="85" t="s">
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="82" t="s">
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="82" t="s">
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="23" t="s">
         <v>22</v>
@@ -1282,7 +1270,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23">
@@ -1291,52 +1279,52 @@
       <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="72" t="s">
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="72" t="s">
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="72" t="s">
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="72" t="s">
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="74"/>
       <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1358,15 +1346,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1383,8 +1371,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1481,14 +1469,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="68" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1510,7 +1498,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="68" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1612,14 +1600,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1639,7 +1627,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="26"/>
-      <c r="N7" s="67"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1739,14 +1727,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1766,7 +1754,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="N8" s="67"/>
+      <c r="N8" s="68"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1866,7 +1854,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="23">
@@ -1875,7 +1863,7 @@
       <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1895,7 +1883,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="26"/>
-      <c r="N9" s="67"/>
+      <c r="N9" s="68"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1976,14 +1964,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="16">
         <v>20</v>
       </c>
@@ -2003,7 +1991,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="68"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="16">
         <v>20</v>
       </c>
@@ -2084,22 +2072,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72" t="s">
+      <c r="F11" s="75"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="26"/>
       <c r="N11" s="45"/>
       <c r="P11" s="26"/>
@@ -2109,15 +2097,15 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2138,14 +2126,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="68" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2168,7 +2156,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23">
@@ -2177,7 +2165,7 @@
       <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2201,14 +2189,14 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2230,14 +2218,14 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2259,14 +2247,14 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="16">
         <v>20</v>
       </c>
@@ -2293,22 +2281,22 @@
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="16">
         <v>0.5</v>
       </c>
       <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="81"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="82"/>
       <c r="N18" s="45"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
@@ -2317,8 +2305,8 @@
       <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2342,7 +2330,7 @@
       <c r="T19" s="26"/>
     </row>
     <row r="20" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="65" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="47">
@@ -2365,7 +2353,7 @@
       </c>
     </row>
     <row r="21" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="64"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="47">
         <v>2</v>
       </c>
@@ -2386,7 +2374,7 @@
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F22" s="64"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="47">
         <v>3</v>
       </c>
@@ -2408,7 +2396,7 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D23" s="45"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="47">
         <v>4</v>
       </c>
@@ -2432,7 +2420,7 @@
     </row>
     <row r="24" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
-      <c r="F24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="46">
         <v>5</v>
       </c>
@@ -2683,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
-  <dimension ref="B1:L47"/>
+  <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2702,10 +2690,16 @@
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="16" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -2714,46 +2708,66 @@
       <c r="J1" s="6"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="97"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="98"/>
       <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="95"/>
+      <c r="T3" s="98"/>
+    </row>
+    <row r="4" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2764,164 +2778,299 @@
         <v>19</v>
       </c>
       <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="98" t="s">
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="87" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="89">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="92"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="87"/>
+      <c r="N5" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="100"/>
+      <c r="P5" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="89">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
+    </row>
+    <row r="6" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="93"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="91">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
       <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="92"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="86" t="s">
+      <c r="N6" s="93"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="91">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S6" s="91"/>
+      <c r="T6" s="92"/>
+    </row>
+    <row r="7" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="93"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="87" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="89">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="92"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="87"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="S7" s="89"/>
+      <c r="T7" s="90"/>
+    </row>
+    <row r="8" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="93"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="91">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
       <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="92"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="86" t="s">
+      <c r="N8" s="93"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="91">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="S8" s="91"/>
+      <c r="T8" s="92"/>
+    </row>
+    <row r="9" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="93"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="87" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="89">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
       <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="92"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="87"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="89">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="S9" s="89"/>
+      <c r="T9" s="90"/>
+    </row>
+    <row r="10" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="93"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="91">
         <v>0.753</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
       <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="92"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="86" t="s">
+      <c r="N10" s="93"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="91">
+        <v>0.753</v>
+      </c>
+      <c r="S10" s="91"/>
+      <c r="T10" s="92"/>
+    </row>
+    <row r="11" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="93"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="87" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="89">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="92"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="87"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S11" s="89"/>
+      <c r="T11" s="90"/>
+    </row>
+    <row r="12" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="93"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="91">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
       <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="92"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="86" t="s">
+      <c r="N12" s="93"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="91">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="S12" s="91"/>
+      <c r="T12" s="92"/>
+    </row>
+    <row r="13" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="93"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="87" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="89">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
       <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="87"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="89">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="S13" s="89"/>
+      <c r="T13" s="90"/>
+    </row>
+    <row r="14" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="88"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="103">
         <v>0.99</v>
       </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
       <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="92" t="s">
+      <c r="N14" s="88"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="103">
+        <v>0.99</v>
+      </c>
+      <c r="S14" s="103"/>
+      <c r="T14" s="104"/>
+    </row>
+    <row r="15" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="36"/>
@@ -2937,11 +3086,30 @@
       <c r="J15" s="59">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92" t="s">
+      <c r="N15" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="58">
+        <v>0.52</v>
+      </c>
+      <c r="S15" s="58">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="T15" s="59">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2956,11 +3124,28 @@
       <c r="J16" s="15">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2973,11 +3158,26 @@
       <c r="J17" s="15">
         <v>0.60899999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2990,11 +3190,20 @@
       <c r="J18" s="15">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3007,11 +3216,26 @@
       <c r="J19" s="15">
         <v>0.67600000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3024,11 +3248,20 @@
       <c r="J20" s="15">
         <v>0.67400000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
@@ -3041,11 +3274,20 @@
       <c r="J21" s="15">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="22" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="87"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="15"/>
+    </row>
+    <row r="22" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
@@ -3058,11 +3300,20 @@
       <c r="J22" s="18">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="23" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92" t="s">
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="18"/>
+    </row>
+    <row r="23" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3077,11 +3328,28 @@
       <c r="J23" s="15">
         <v>0.94599999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3095,11 +3363,26 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
@@ -3113,11 +3396,20 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3131,11 +3423,26 @@
         <v>0.95</v>
       </c>
       <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0.877</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3149,11 +3456,20 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="15"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3167,11 +3483,20 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="92"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="92"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="15"/>
+    </row>
+    <row r="29" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="93"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3185,10 +3510,19 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="92"/>
-      <c r="E30" s="86" t="s">
+      <c r="N29" s="93"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="15"/>
+    </row>
+    <row r="30" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="93"/>
+      <c r="E30" s="87" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="36"/>
@@ -3205,11 +3539,28 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92" t="s">
+      <c r="N30" s="93"/>
+      <c r="O30" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="58">
+        <v>0.495</v>
+      </c>
+      <c r="S30" s="58">
+        <v>0.495</v>
+      </c>
+      <c r="T30" s="59">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3225,11 +3576,28 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3243,11 +3611,26 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3261,11 +3644,20 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="15"/>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="1" t="s">
         <v>53</v>
       </c>
@@ -3279,11 +3671,26 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="1" t="s">
         <v>54</v>
       </c>
@@ -3297,11 +3704,20 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="15"/>
+    </row>
+    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="1" t="s">
         <v>55</v>
       </c>
@@ -3315,11 +3731,20 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="87"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="15"/>
+    </row>
+    <row r="37" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
@@ -3333,11 +3758,20 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92" t="s">
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+    </row>
+    <row r="38" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3353,11 +3787,28 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3371,11 +3822,26 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
@@ -3389,11 +3855,20 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="15"/>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
       <c r="G41" s="1" t="s">
         <v>53</v>
       </c>
@@ -3407,11 +3882,26 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="T41" s="15">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="1" t="s">
         <v>54</v>
       </c>
@@ -3425,11 +3915,20 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="15"/>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
       <c r="G43" s="1" t="s">
         <v>55</v>
       </c>
@@ -3443,11 +3942,20 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="15"/>
+    </row>
+    <row r="44" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
       <c r="G44" s="16" t="s">
         <v>25</v>
       </c>
@@ -3461,18 +3969,53 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
       <c r="L47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="52">
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="N15:N44"/>
+    <mergeCell ref="O15:O29"/>
+    <mergeCell ref="P16:P22"/>
+    <mergeCell ref="P23:P29"/>
+    <mergeCell ref="O30:O44"/>
+    <mergeCell ref="P31:P37"/>
+    <mergeCell ref="P38:P44"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="N3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="N5:O14"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="H3:J3"/>
@@ -3501,6 +4044,30 @@
     <mergeCell ref="F38:F44"/>
   </mergeCells>
   <conditionalFormatting sqref="H1 J1">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:J44">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3512,8 +4079,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J44">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="R5:T44">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3524,18 +4091,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3543,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:Q27"/>
+  <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3568,7 +4123,7 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3579,9 +4134,9 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
+    <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="70"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="63" t="s">
         <v>61</v>
       </c>
@@ -3594,8 +4149,8 @@
       <c r="H2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="71"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="63" t="s">
         <v>56</v>
       </c>
@@ -3608,41 +4163,39 @@
       <c r="P2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="111"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="105">
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="77">
         <v>0.86699999999999999</v>
       </c>
       <c r="H3" s="25"/>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="106" t="s">
+      <c r="L3" s="110" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="73">
         <v>0.71499999999999997</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="24"/>
-      <c r="Q3" s="111"/>
-    </row>
-    <row r="4" spans="2:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="107"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="61" t="s">
         <v>29</v>
       </c>
@@ -3654,20 +4207,18 @@
       <c r="M4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="114"/>
-      <c r="O4" s="111"/>
+      <c r="N4" s="77"/>
       <c r="P4" s="25"/>
-      <c r="Q4" s="111"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C5" s="107"/>
-      <c r="D5" s="104">
+      <c r="D5" s="105">
         <v>2</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="73">
         <v>0.90800000000000003</v>
       </c>
       <c r="G5" s="23"/>
@@ -3679,16 +4230,15 @@
       <c r="M5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="88">
+      <c r="N5" s="89">
         <v>0.99</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="24"/>
-      <c r="Q5" s="111"/>
-    </row>
-    <row r="6" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="107"/>
-      <c r="D6" s="104"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="61" t="s">
         <v>29</v>
       </c>
@@ -3700,108 +4250,99 @@
       <c r="M6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="90"/>
+      <c r="N6" s="91"/>
       <c r="O6" s="16"/>
       <c r="P6" s="62"/>
-      <c r="Q6" s="111"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C7" s="107"/>
-      <c r="D7" s="104">
+      <c r="D7" s="105">
         <v>5</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="77">
         <v>0.94599999999999995</v>
       </c>
       <c r="H7" s="25"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-    </row>
-    <row r="8" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="107"/>
-      <c r="D8" s="104"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="61" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="109"/>
       <c r="G8" s="16"/>
       <c r="H8" s="62"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" s="107"/>
-      <c r="D9" s="104">
+      <c r="D9" s="105">
         <v>10</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="77">
         <v>0.94799999999999995</v>
       </c>
       <c r="H9" s="25"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-    </row>
-    <row r="10" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="107"/>
-      <c r="D10" s="104"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="61" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="109"/>
       <c r="G10" s="16"/>
       <c r="H10" s="62"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" s="107"/>
-      <c r="D11" s="104">
+      <c r="D11" s="105">
         <v>20</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="77">
         <v>0.93400000000000005</v>
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="108"/>
-      <c r="D12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C13" s="107" t="s">
         <v>13</v>
       </c>
@@ -3811,13 +4352,13 @@
       <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="73">
         <v>0.73499999999999999</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
       <c r="E14" s="61" t="s">
@@ -3827,7 +4368,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="62"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C15" s="107"/>
       <c r="D15" s="107" t="s">
         <v>23</v>
@@ -3835,12 +4376,12 @@
       <c r="E15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="77">
         <v>0.98699999999999999</v>
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
       <c r="E16" s="61" t="s">
@@ -3850,7 +4391,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="62"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="107" t="s">
         <v>25</v>
       </c>
@@ -3860,12 +4401,12 @@
       <c r="E17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="77">
         <v>0.71499999999999997</v>
       </c>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="107"/>
       <c r="D18" s="107"/>
       <c r="E18" s="61" t="s">
@@ -3875,7 +4416,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="62"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="107"/>
       <c r="D19" s="107" t="s">
         <v>23</v>
@@ -3883,60 +4424,53 @@
       <c r="E19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="103">
         <v>0.99</v>
       </c>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
       <c r="E20" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="16"/>
       <c r="H20" s="62"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="111"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="111"/>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3995,13 +4529,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005F024-ADEF-8A40-B8F2-51EC047BE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC81535-315F-1D45-9927-2F9012BD32CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
   <si>
     <t>4o-mini</t>
   </si>
@@ -698,6 +698,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -707,36 +749,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,41 +762,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,17 +812,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -833,15 +830,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1171,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF7E40-9809-314A-8B08-230973DFDCC8}">
-  <dimension ref="B2:AT37"/>
+  <dimension ref="B2:AT53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1209,52 +1280,52 @@
       <c r="D3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="N3" s="70" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="N3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="71" t="s">
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="86" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="83" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="83" t="s">
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="77"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="23" t="s">
         <v>22</v>
@@ -1270,7 +1341,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23">
@@ -1279,52 +1350,52 @@
       <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="73" t="s">
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="73" t="s">
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="73" t="s">
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="73" t="s">
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="74"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="70"/>
       <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1346,15 +1417,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="68"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1371,8 +1442,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1469,14 +1540,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="68"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1498,7 +1569,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1600,14 +1671,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1627,7 +1698,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="26"/>
-      <c r="N7" s="68"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1727,14 +1798,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="69"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1754,7 +1825,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="N8" s="68"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1854,7 +1925,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="81" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="23">
@@ -1863,7 +1934,7 @@
       <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1883,7 +1954,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="26"/>
-      <c r="N9" s="68"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1964,14 +2035,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="16">
         <v>20</v>
       </c>
@@ -1991,7 +2062,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="69"/>
+      <c r="N10" s="66"/>
       <c r="O10" s="16">
         <v>20</v>
       </c>
@@ -2072,22 +2143,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="68"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73" t="s">
+      <c r="F11" s="72"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="26"/>
       <c r="N11" s="45"/>
       <c r="P11" s="26"/>
@@ -2097,15 +2168,15 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="68"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2126,14 +2197,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="65" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2156,7 +2227,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23">
@@ -2165,7 +2236,7 @@
       <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2189,14 +2260,14 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="68"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2218,14 +2289,14 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="68"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="68"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2246,15 +2317,15 @@
       </c>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
+    <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="65"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="69"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="16">
         <v>20</v>
       </c>
@@ -2280,23 +2351,23 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
     </row>
-    <row r="18" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
+    <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="66"/>
       <c r="C18" s="16">
         <v>0.5</v>
       </c>
       <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79" t="s">
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="86"/>
       <c r="N18" s="45"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
@@ -2304,9 +2375,9 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2329,8 +2400,8 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="65" t="s">
+    <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="79" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="47">
@@ -2352,8 +2423,8 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="65"/>
+    <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="79"/>
       <c r="G21" s="47">
         <v>2</v>
       </c>
@@ -2373,8 +2444,8 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F22" s="65"/>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F22" s="79"/>
       <c r="G22" s="47">
         <v>3</v>
       </c>
@@ -2394,9 +2465,9 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="45"/>
-      <c r="F23" s="65"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="47">
         <v>4</v>
       </c>
@@ -2418,9 +2489,9 @@
       <c r="Q23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
-      <c r="F24" s="66"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="46">
         <v>5</v>
       </c>
@@ -2445,7 +2516,7 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D25" s="45"/>
       <c r="F25" s="54"/>
       <c r="G25" s="47"/>
@@ -2466,7 +2537,7 @@
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D26" s="45"/>
       <c r="F26" s="26"/>
       <c r="K26" s="45"/>
@@ -2482,7 +2553,7 @@
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D27" s="45"/>
       <c r="F27" s="26"/>
       <c r="K27" s="45"/>
@@ -2498,7 +2569,7 @@
       <c r="AB27" s="40"/>
       <c r="AC27" s="40"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D28" s="45"/>
       <c r="F28" s="26"/>
       <c r="K28" s="45"/>
@@ -2514,106 +2585,1213 @@
       <c r="AB28" s="40"/>
       <c r="AC28" s="40"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D29" s="45"/>
-      <c r="F29" s="26"/>
-      <c r="W29" s="45"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D30" s="45"/>
-      <c r="F30" s="26"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D31" s="45"/>
-      <c r="F31" s="26"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="D32" s="45"/>
-      <c r="F32" s="26"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-    </row>
-    <row r="33" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D33" s="45"/>
-      <c r="F33" s="26"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-    </row>
-    <row r="34" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D34" s="45"/>
-      <c r="F34" s="26"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-    </row>
-    <row r="35" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D35" s="45"/>
-      <c r="F35" s="26"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-    </row>
-    <row r="36" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D36" s="45"/>
-      <c r="F36" s="26"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40"/>
-    </row>
-    <row r="37" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D37" s="45"/>
-      <c r="F37" s="26"/>
+    <row r="29" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
+      <c r="N30" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="77"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B31" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="70"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B32" s="65"/>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+      <c r="L32" s="25">
+        <v>5</v>
+      </c>
+      <c r="M32" s="26"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>4</v>
+      </c>
+      <c r="T32" s="25">
+        <v>5</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>2</v>
+      </c>
+      <c r="W32" s="1">
+        <v>3</v>
+      </c>
+      <c r="X32" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="25">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="25">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN32" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B33" s="65"/>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.85923753665689095</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.85988921472792401</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0.85858585858585801</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0.85337243401759499</v>
+      </c>
+      <c r="L33" s="27">
+        <v>0.83740632127728898</v>
+      </c>
+      <c r="M33" s="26"/>
+      <c r="N33" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="26">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="S33" s="26">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="T33" s="27">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="U33" s="40">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="V33" s="40">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="W33" s="40">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="X33" s="40">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="Y33" s="41">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Z33" s="50">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AA33" s="50">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AB33" s="50">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AC33" s="50">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AD33" s="51">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="AE33" s="50">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AF33" s="50">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AG33" s="50">
+        <v>0.86</v>
+      </c>
+      <c r="AH33" s="50">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AI33" s="51">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AJ33" s="50">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AK33" s="50">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AL33" s="50">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AM33" s="50">
+        <v>0.73</v>
+      </c>
+      <c r="AN33" s="51">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B34" s="65"/>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0.90648399999999996</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0.90713600000000005</v>
+      </c>
+      <c r="J34" s="26">
+        <v>0.90550699999999995</v>
+      </c>
+      <c r="K34" s="26">
+        <v>0.89996699999999996</v>
+      </c>
+      <c r="L34" s="27">
+        <v>0.88302400000000003</v>
+      </c>
+      <c r="M34" s="26"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="40">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="Q34" s="40">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="R34" s="40">
+        <v>0.93</v>
+      </c>
+      <c r="S34" s="40">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="T34" s="41">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="U34" s="40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="V34" s="40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="W34" s="40">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="X34" s="40">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Y34" s="41">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="Z34" s="50">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AA34" s="50">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AB34" s="50">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AC34" s="50">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="AD34" s="51">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AE34" s="50">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AF34" s="50">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AG34" s="50">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="AH34" s="50">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="AI34" s="51">
+        <v>0.88</v>
+      </c>
+      <c r="AJ34" s="50">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AK34" s="50">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AL34" s="50">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AM34" s="50">
+        <v>0.76</v>
+      </c>
+      <c r="AN34" s="51">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="66"/>
+      <c r="C35" s="16">
+        <v>20</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0.942326</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="J35" s="26">
+        <v>0.94167500000000004</v>
+      </c>
+      <c r="K35" s="26">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="L35" s="27">
+        <v>0.91756300000000002</v>
+      </c>
+      <c r="M35" s="26"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="1">
+        <v>5</v>
+      </c>
+      <c r="P35" s="40">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="R35" s="40">
+        <v>0.97</v>
+      </c>
+      <c r="S35" s="40">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="T35" s="41">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="U35" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="V35" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="W35" s="40">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="X35" s="40">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="Y35" s="41">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Z35" s="50">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AA35" s="50">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AB35" s="50">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AC35" s="50">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD35" s="51">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AE35" s="50">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="AF35" s="50">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="AG35" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="AH35" s="50">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AI35" s="51">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AJ35" s="50">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AK35" s="50">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AL35" s="50">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AM35" s="50">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AN35" s="51">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B36" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="44">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F36" s="65"/>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0.95047199999999998</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0.95145000000000002</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.94982100000000003</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0.94362999999999997</v>
+      </c>
+      <c r="L36" s="27">
+        <v>0.92538299999999996</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="1">
+        <v>10</v>
+      </c>
+      <c r="P36" s="40">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="R36" s="40">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S36" s="40">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="T36" s="41">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="U36" s="40">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="V36" s="40">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="W36" s="40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="X36" s="40">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="Y36" s="41">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Z36" s="50">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AA36" s="50">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AB36" s="50">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AC36" s="50">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AD36" s="51">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AE36" s="50">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AF36" s="50">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AG36" s="50">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AH36" s="50">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AI36" s="51">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AJ36" s="50">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AK36" s="50">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AL36" s="50">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AM36" s="50">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AN36" s="51">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="65"/>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="16">
+        <v>20</v>
+      </c>
+      <c r="H37" s="28">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0.94688799999999995</v>
+      </c>
+      <c r="J37" s="28">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="K37" s="28">
+        <v>0.93906800000000001</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0.92049499999999995</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="16">
+        <v>20</v>
+      </c>
+      <c r="P37" s="42">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="Q37" s="42">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R37" s="42">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="S37" s="42">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="T37" s="43">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="U37" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="V37" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="W37" s="42">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="X37" s="42">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="Y37" s="43">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Z37" s="52">
+        <v>0.99</v>
+      </c>
+      <c r="AA37" s="52">
+        <v>0.99</v>
+      </c>
+      <c r="AB37" s="52">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AC37" s="52">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AD37" s="53">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AE37" s="52">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AF37" s="52">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AG37" s="52">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AH37" s="52">
+        <v>0.95</v>
+      </c>
+      <c r="AI37" s="53">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="AJ37" s="52">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AK37" s="52">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AL37" s="52">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AM37" s="52">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AN37" s="53">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B38" s="65"/>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="45"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B39" s="65"/>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L39" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="Y39" s="1">
+        <f>34/125</f>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="16">
+        <v>5</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I40" s="40">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L40" s="41">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B41" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="44">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F41" s="65"/>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="40">
+        <v>0.93</v>
+      </c>
+      <c r="I41" s="40">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J41" s="40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K41" s="40">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L41" s="41">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B42" s="65"/>
+      <c r="C42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="27">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="40">
+        <v>0.97</v>
+      </c>
+      <c r="I42" s="40">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J42" s="40">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K42" s="40">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="L42" s="41">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B43" s="65"/>
+      <c r="C43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="27">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="40">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I43" s="40">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J43" s="40">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K43" s="40">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="L43" s="41">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="65"/>
+      <c r="C44" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0.753</v>
+      </c>
+      <c r="F44" s="66"/>
+      <c r="G44" s="16">
+        <v>20</v>
+      </c>
+      <c r="H44" s="42">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I44" s="42">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J44" s="42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K44" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="L44" s="43">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="N44" s="45"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+    </row>
+    <row r="45" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66"/>
+      <c r="C45" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F45" s="82"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="86"/>
+      <c r="N45" s="45"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L46" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="45"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F47" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="40">
+        <v>0.89</v>
+      </c>
+      <c r="I47" s="40">
+        <v>0.93</v>
+      </c>
+      <c r="J47" s="40">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K47" s="40">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="L47" s="41">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F48" s="79"/>
+      <c r="G48" s="47">
+        <v>2</v>
+      </c>
+      <c r="H48" s="48">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="I48" s="48">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="J48" s="48">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="K48" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="L48" s="49">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F49" s="79"/>
+      <c r="G49" s="47">
+        <v>3</v>
+      </c>
+      <c r="H49" s="40">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I49" s="40">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="J49" s="40">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K49" s="40">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L49" s="41">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D50" s="45"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="47">
+        <v>4</v>
+      </c>
+      <c r="H50" s="40">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I50" s="40">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J50" s="40">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K50" s="40">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="L50" s="41">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="4:29" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="45"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="46">
+        <v>5</v>
+      </c>
+      <c r="H51" s="42">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I51" s="42">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J51" s="42">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="K51" s="42">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="L51" s="43">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+    </row>
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D52" s="45"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="W52" s="45"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+    </row>
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D53" s="45"/>
+      <c r="F53" s="26"/>
+      <c r="K53" s="45"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="W53" s="45"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+      <c r="AC53" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
+  <mergeCells count="50">
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="AJ30:AN30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="N31:O32"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ31:AN31"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2627,9 +3805,21 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L24 H13:L17">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2641,7 +3831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:L25 D4:D18 H6:L10 P6:AN10">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2652,8 +3842,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y32:AC36 Y25:AC29">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="Y25:AC27">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2664,6 +3854,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D45 H33:L37 H40:L40 H47:L51 P33:AN37 H41:H44 K41:L44">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0.969</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0.969</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2671,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
-  <dimension ref="B1:T47"/>
+  <dimension ref="B1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2712,25 +3910,25 @@
       <c r="B2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="L2" s="10"/>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="68"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
@@ -2826,32 +4024,32 @@
       <c r="T5" s="90"/>
     </row>
     <row r="6" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="93"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="101"/>
-      <c r="F6" s="88"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="103">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="L6" s="10"/>
-      <c r="N6" s="93"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="101"/>
-      <c r="P6" s="88"/>
+      <c r="P6" s="93"/>
       <c r="Q6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="91">
+      <c r="R6" s="103">
         <v>0.94799999999999995</v>
       </c>
-      <c r="S6" s="91"/>
-      <c r="T6" s="92"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="104"/>
     </row>
     <row r="7" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="93"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="101"/>
       <c r="F7" s="87" t="s">
         <v>12</v>
@@ -2865,7 +4063,7 @@
       <c r="I7" s="89"/>
       <c r="J7" s="90"/>
       <c r="L7" s="10"/>
-      <c r="N7" s="93"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="101"/>
       <c r="P7" s="87" t="s">
         <v>12</v>
@@ -2880,32 +4078,32 @@
       <c r="T7" s="90"/>
     </row>
     <row r="8" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="93"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="101"/>
-      <c r="F8" s="88"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="103">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
       <c r="L8" s="10"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="88"/>
       <c r="O8" s="101"/>
-      <c r="P8" s="88"/>
+      <c r="P8" s="93"/>
       <c r="Q8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="91">
+      <c r="R8" s="103">
         <v>0.85199999999999998</v>
       </c>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="104"/>
     </row>
     <row r="9" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="93"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="101"/>
       <c r="F9" s="87" t="s">
         <v>30</v>
@@ -2919,7 +4117,7 @@
       <c r="I9" s="89"/>
       <c r="J9" s="90"/>
       <c r="L9" s="10"/>
-      <c r="N9" s="93"/>
+      <c r="N9" s="88"/>
       <c r="O9" s="101"/>
       <c r="P9" s="87" t="s">
         <v>30</v>
@@ -2934,32 +4132,32 @@
       <c r="T9" s="90"/>
     </row>
     <row r="10" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="101"/>
-      <c r="F10" s="88"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="103">
         <v>0.753</v>
       </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
       <c r="L10" s="10"/>
-      <c r="N10" s="93"/>
+      <c r="N10" s="88"/>
       <c r="O10" s="101"/>
-      <c r="P10" s="88"/>
+      <c r="P10" s="93"/>
       <c r="Q10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="91">
+      <c r="R10" s="103">
         <v>0.753</v>
       </c>
-      <c r="S10" s="91"/>
-      <c r="T10" s="92"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="104"/>
     </row>
     <row r="11" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="93"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="101"/>
       <c r="F11" s="87" t="s">
         <v>13</v>
@@ -2973,7 +4171,7 @@
       <c r="I11" s="89"/>
       <c r="J11" s="90"/>
       <c r="L11" s="10"/>
-      <c r="N11" s="93"/>
+      <c r="N11" s="88"/>
       <c r="O11" s="101"/>
       <c r="P11" s="87" t="s">
         <v>13</v>
@@ -2988,32 +4186,32 @@
       <c r="T11" s="90"/>
     </row>
     <row r="12" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="101"/>
-      <c r="F12" s="88"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="103">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="L12" s="10"/>
-      <c r="N12" s="93"/>
+      <c r="N12" s="88"/>
       <c r="O12" s="101"/>
-      <c r="P12" s="88"/>
+      <c r="P12" s="93"/>
       <c r="Q12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="91">
+      <c r="R12" s="103">
         <v>0.98699999999999999</v>
       </c>
-      <c r="S12" s="91"/>
-      <c r="T12" s="92"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="104"/>
     </row>
     <row r="13" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="93"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="101"/>
       <c r="F13" s="87" t="s">
         <v>25</v>
@@ -3027,7 +4225,7 @@
       <c r="I13" s="89"/>
       <c r="J13" s="90"/>
       <c r="L13" s="10"/>
-      <c r="N13" s="93"/>
+      <c r="N13" s="88"/>
       <c r="O13" s="101"/>
       <c r="P13" s="87" t="s">
         <v>25</v>
@@ -3042,32 +4240,32 @@
       <c r="T13" s="90"/>
     </row>
     <row r="14" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="88"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="102"/>
-      <c r="F14" s="93"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="91">
         <v>0.99</v>
       </c>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
       <c r="L14" s="10"/>
-      <c r="N14" s="88"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="102"/>
-      <c r="P14" s="93"/>
+      <c r="P14" s="88"/>
       <c r="Q14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R14" s="103">
+      <c r="R14" s="91">
         <v>0.99</v>
       </c>
-      <c r="S14" s="103"/>
-      <c r="T14" s="104"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="92"/>
     </row>
     <row r="15" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="88" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="87" t="s">
@@ -3086,7 +4284,7 @@
       <c r="J15" s="59">
         <v>0.60299999999999998</v>
       </c>
-      <c r="N15" s="93" t="s">
+      <c r="N15" s="88" t="s">
         <v>14</v>
       </c>
       <c r="O15" s="87" t="s">
@@ -3107,9 +4305,9 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3124,9 +4322,9 @@
       <c r="J16" s="15">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93" t="s">
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -3142,10 +4340,10 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -3158,9 +4356,9 @@
       <c r="J17" s="15">
         <v>0.60899999999999999</v>
       </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="1" t="s">
         <v>12</v>
       </c>
@@ -3173,11 +4371,13 @@
       <c r="T17" s="15">
         <v>0.60899999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
@@ -3190,20 +4390,26 @@
       <c r="J18" s="15">
         <v>0.60299999999999998</v>
       </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="15"/>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
+      <c r="S18" s="6">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3216,9 +4422,9 @@
       <c r="J19" s="15">
         <v>0.67600000000000005</v>
       </c>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
       <c r="Q19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3232,10 +4438,10 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3248,20 +4454,24 @@
       <c r="J20" s="15">
         <v>0.67400000000000004</v>
       </c>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
       <c r="Q20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="15"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
+      <c r="S20" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
@@ -3274,20 +4484,24 @@
       <c r="J21" s="15">
         <v>0.63</v>
       </c>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
       <c r="Q21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="15"/>
-    </row>
-    <row r="22" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="88"/>
+      <c r="S21" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
@@ -3300,20 +4514,24 @@
       <c r="J22" s="18">
         <v>0.69</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="93"/>
       <c r="Q22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="18"/>
-    </row>
-    <row r="23" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93" t="s">
+      <c r="S22" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="T22" s="18">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3328,9 +4546,9 @@
       <c r="J23" s="15">
         <v>0.94599999999999995</v>
       </c>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93" t="s">
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -3346,10 +4564,10 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3363,9 +4581,9 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
       <c r="Q24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3379,10 +4597,10 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
@@ -3396,20 +4614,24 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
       <c r="Q25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="15"/>
-    </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
+      <c r="S25" s="6">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3423,9 +4645,9 @@
         <v>0.95</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3439,10 +4661,10 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3456,20 +4678,24 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
       <c r="Q27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="15"/>
-    </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
+      <c r="S27" s="6">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3483,20 +4709,24 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="15"/>
-    </row>
-    <row r="29" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="93"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="93"/>
+      <c r="S28" s="6">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="88"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3510,18 +4740,22 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="93"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="15"/>
-    </row>
-    <row r="30" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="93"/>
+      <c r="S29" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="4:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="88"/>
       <c r="E30" s="87" t="s">
         <v>2</v>
       </c>
@@ -3539,7 +4773,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="N30" s="93"/>
+      <c r="N30" s="88"/>
       <c r="O30" s="87" t="s">
         <v>2</v>
       </c>
@@ -3557,10 +4791,10 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93" t="s">
+    <row r="31" spans="4:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3576,9 +4810,9 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93" t="s">
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88" t="s">
         <v>9</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -3594,10 +4828,10 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3611,9 +4845,9 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="L32" s="7"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
       <c r="Q32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3628,9 +4862,9 @@
       </c>
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3644,20 +4878,24 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
       <c r="Q33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="15"/>
+      <c r="S33" s="6">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0.64400000000000002</v>
+      </c>
     </row>
     <row r="34" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="1" t="s">
         <v>53</v>
       </c>
@@ -3671,9 +4909,9 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
       <c r="Q34" s="1" t="s">
         <v>53</v>
       </c>
@@ -3688,9 +4926,9 @@
       </c>
     </row>
     <row r="35" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
       <c r="G35" s="1" t="s">
         <v>54</v>
       </c>
@@ -3704,20 +4942,24 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
       <c r="Q35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="15"/>
+      <c r="S35" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0.65500000000000003</v>
+      </c>
     </row>
     <row r="36" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
       <c r="G36" s="1" t="s">
         <v>55</v>
       </c>
@@ -3731,20 +4973,24 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="L36" s="7"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
       <c r="Q36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="15"/>
+      <c r="S36" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="37" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
@@ -3758,20 +5004,24 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="93"/>
       <c r="Q37" s="16" t="s">
         <v>25</v>
       </c>
       <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18"/>
+      <c r="S37" s="17">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="T37" s="18">
+        <v>0.65300000000000002</v>
+      </c>
     </row>
     <row r="38" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93" t="s">
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3787,9 +5037,9 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="L38" s="7"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93" t="s">
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -3806,9 +5056,9 @@
       </c>
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3822,9 +5072,9 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
       <c r="Q39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3839,9 +5089,9 @@
       </c>
     </row>
     <row r="40" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
@@ -3855,20 +5105,24 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="L40" s="7"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
       <c r="Q40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="15"/>
+      <c r="S40" s="6">
+        <v>0.623</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
       <c r="G41" s="1" t="s">
         <v>53</v>
       </c>
@@ -3882,9 +5136,9 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="L41" s="7"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="1" t="s">
         <v>53</v>
       </c>
@@ -3899,9 +5153,9 @@
       </c>
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
       <c r="G42" s="1" t="s">
         <v>54</v>
       </c>
@@ -3915,20 +5169,24 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="L42" s="7"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
       <c r="Q42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="15"/>
+      <c r="S42" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="T42" s="15">
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
       <c r="G43" s="1" t="s">
         <v>55</v>
       </c>
@@ -3942,20 +5200,24 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="L43" s="7"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
       <c r="Q43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="15"/>
+      <c r="S43" s="6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0.93899999999999995</v>
+      </c>
     </row>
     <row r="44" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
       <c r="G44" s="16" t="s">
         <v>25</v>
       </c>
@@ -3969,15 +5231,19 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="L44" s="7"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
       <c r="Q44" s="16" t="s">
         <v>25</v>
       </c>
       <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="18"/>
+      <c r="S44" s="17">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="T44" s="18">
+        <v>0.95799999999999996</v>
+      </c>
     </row>
     <row r="45" spans="4:20" x14ac:dyDescent="0.2">
       <c r="L45" s="7"/>
@@ -3990,16 +5256,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="N15:N44"/>
-    <mergeCell ref="O15:O29"/>
-    <mergeCell ref="P16:P22"/>
-    <mergeCell ref="P23:P29"/>
-    <mergeCell ref="O30:O44"/>
-    <mergeCell ref="P31:P37"/>
-    <mergeCell ref="P38:P44"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="D15:D44"/>
+    <mergeCell ref="E15:E29"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="E30:E44"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D5:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="N3:Q4"/>
     <mergeCell ref="R3:T3"/>
@@ -4016,45 +5298,17 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="R12:T12"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D5:E14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="D15:D44"/>
-    <mergeCell ref="E15:E29"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="E30:E44"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="N15:N44"/>
+    <mergeCell ref="O15:O29"/>
+    <mergeCell ref="P16:P22"/>
+    <mergeCell ref="P23:P29"/>
+    <mergeCell ref="O30:O44"/>
+    <mergeCell ref="P31:P37"/>
+    <mergeCell ref="P38:P44"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1 J1">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5:J44">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4069,6 +5323,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
     <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 H1">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4135,8 +5401,8 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="63" t="s">
         <v>61</v>
       </c>
@@ -4149,8 +5415,8 @@
       <c r="H2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="72"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="63" t="s">
         <v>56</v>
       </c>
@@ -4165,66 +5431,66 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="105">
+      <c r="D3" s="109">
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="74">
         <v>0.86699999999999999</v>
       </c>
       <c r="H3" s="25"/>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="110" t="s">
+      <c r="L3" s="105" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="73">
+      <c r="N3" s="69">
         <v>0.71499999999999997</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="107"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="109"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="16"/>
       <c r="H4" s="62"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="77"/>
+      <c r="N4" s="74"/>
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="107"/>
-      <c r="D5" s="105">
+      <c r="C5" s="106"/>
+      <c r="D5" s="109">
         <v>2</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="69">
         <v>0.90800000000000003</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107" t="s">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="19" t="s">
@@ -4237,32 +5503,32 @@
       <c r="P5" s="24"/>
     </row>
     <row r="6" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="107"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="109"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="16"/>
       <c r="H6" s="62"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="91"/>
+      <c r="N6" s="103"/>
       <c r="O6" s="16"/>
       <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="107"/>
-      <c r="D7" s="105">
+      <c r="C7" s="106"/>
+      <c r="D7" s="109">
         <v>5</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="74">
         <v>0.94599999999999995</v>
       </c>
       <c r="H7" s="25"/>
@@ -4273,12 +5539,12 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="107"/>
-      <c r="D8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="109"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="16"/>
       <c r="H8" s="62"/>
       <c r="K8" s="64"/>
@@ -4288,14 +5554,14 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="107"/>
-      <c r="D9" s="105">
+      <c r="C9" s="106"/>
+      <c r="D9" s="109">
         <v>10</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="74">
         <v>0.94799999999999995</v>
       </c>
       <c r="H9" s="25"/>
@@ -4306,12 +5572,12 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="107"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="109"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="16"/>
       <c r="H10" s="62"/>
       <c r="K10" s="64"/>
@@ -4321,121 +5587,121 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="107"/>
-      <c r="D11" s="105">
+      <c r="C11" s="106"/>
+      <c r="D11" s="109">
         <v>20</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="74">
         <v>0.93400000000000005</v>
       </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="108"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="74"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="106" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="69">
         <v>0.73499999999999999</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="109"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="16"/>
       <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="107"/>
-      <c r="D15" s="107" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="106" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="74">
         <v>0.98699999999999999</v>
       </c>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="109"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="16"/>
       <c r="H16" s="62"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="106" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="74">
         <v>0.71499999999999997</v>
       </c>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="109"/>
+      <c r="F18" s="108"/>
       <c r="G18" s="16"/>
       <c r="H18" s="62"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="107"/>
-      <c r="D19" s="107" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="106" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F19" s="91">
         <v>0.99</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="91"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="16"/>
       <c r="H20" s="62"/>
     </row>
@@ -4474,12 +5740,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D18"/>
@@ -4496,12 +5762,12 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4529,13 +5795,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC81535-315F-1D45-9927-2F9012BD32CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18569A-0D0D-CC45-859B-2D009DDA9448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>4o-mini</t>
   </si>
@@ -506,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,46 +698,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,45 +728,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,86 +812,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1242,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF7E40-9809-314A-8B08-230973DFDCC8}">
-  <dimension ref="B2:AT53"/>
+  <dimension ref="A2:AT55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1260,7 +1246,8 @@
     <col min="13" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="40" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.83203125" style="1"/>
     <col min="42" max="42" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1280,32 +1267,32 @@
       <c r="D3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="N3" s="71" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="85"/>
+      <c r="N3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="67" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="78" t="s">
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="86" t="s">
         <v>33</v>
       </c>
       <c r="AA3" s="76"/>
@@ -1341,7 +1328,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23">
@@ -1350,52 +1337,52 @@
       <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="82"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="69" t="s">
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="69" t="s">
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="69" t="s">
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="69" t="s">
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="70"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="82"/>
       <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1417,15 +1404,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1442,8 +1429,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1540,14 +1527,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1569,7 +1556,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1671,14 +1658,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1698,7 +1685,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="26"/>
-      <c r="N7" s="65"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1798,14 +1785,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1825,7 +1812,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="N8" s="65"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1925,7 +1912,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="23">
@@ -1934,7 +1921,7 @@
       <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1954,7 +1941,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="26"/>
-      <c r="N9" s="65"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -2035,14 +2022,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="16">
         <v>20</v>
       </c>
@@ -2062,7 +2049,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="66"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="16">
         <v>20</v>
       </c>
@@ -2143,22 +2130,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69" t="s">
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="70"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="26"/>
       <c r="N11" s="45"/>
       <c r="P11" s="26"/>
@@ -2168,15 +2155,15 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2197,14 +2184,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2227,7 +2214,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23">
@@ -2236,7 +2223,7 @@
       <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2260,14 +2247,14 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2289,14 +2276,14 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2317,15 +2304,15 @@
       </c>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
+    <row r="17" spans="1:41" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="66"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="16">
         <v>20</v>
       </c>
@@ -2351,23 +2338,23 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
     </row>
-    <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
+    <row r="18" spans="1:41" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="67"/>
       <c r="C18" s="16">
         <v>0.5</v>
       </c>
       <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83" t="s">
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="86"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="72"/>
       <c r="N18" s="45"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
@@ -2375,9 +2362,9 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2400,8 +2387,8 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="79" t="s">
+    <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="73" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="47">
@@ -2423,8 +2410,8 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="79"/>
+    <row r="21" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="73"/>
       <c r="G21" s="47">
         <v>2</v>
       </c>
@@ -2444,8 +2431,8 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="79"/>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="F22" s="73"/>
       <c r="G22" s="47">
         <v>3</v>
       </c>
@@ -2465,9 +2452,9 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D23" s="45"/>
-      <c r="F23" s="79"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="47">
         <v>4</v>
       </c>
@@ -2489,9 +2476,9 @@
       <c r="Q23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
-      <c r="F24" s="80"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="46">
         <v>5</v>
       </c>
@@ -2516,7 +2503,7 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D25" s="45"/>
       <c r="F25" s="54"/>
       <c r="G25" s="47"/>
@@ -2537,7 +2524,7 @@
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D26" s="45"/>
       <c r="F26" s="26"/>
       <c r="K26" s="45"/>
@@ -2553,1246 +2540,1267 @@
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D27" s="45"/>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="26"/>
-      <c r="K27" s="45"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="111"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
-      <c r="W27" s="45"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-    </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D28" s="45"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="111"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="111"/>
+      <c r="AL27" s="111"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="26"/>
-      <c r="K28" s="45"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="111"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
-      <c r="W28" s="45"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-    </row>
-    <row r="29" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
-      <c r="N30" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="76"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK30" s="76"/>
-      <c r="AL30" s="76"/>
-      <c r="AM30" s="76"/>
-      <c r="AN30" s="77"/>
-    </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B31" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="23">
-        <v>1</v>
-      </c>
-      <c r="D31" s="44">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="70"/>
-      <c r="AE31" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="69"/>
-      <c r="AM31" s="69"/>
-      <c r="AN31" s="70"/>
-    </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B32" s="65"/>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="27">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
-      </c>
-      <c r="J32" s="1">
-        <v>3</v>
-      </c>
-      <c r="K32" s="1">
-        <v>4</v>
-      </c>
-      <c r="L32" s="25">
-        <v>5</v>
-      </c>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="111"/>
+      <c r="AL28" s="111"/>
+      <c r="AM28" s="111"/>
+      <c r="AN28" s="111"/>
+      <c r="AO28" s="111"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="111"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="111"/>
+      <c r="AJ29" s="111"/>
+      <c r="AK29" s="111"/>
+      <c r="AL29" s="111"/>
+      <c r="AM29" s="111"/>
+      <c r="AN29" s="111"/>
+      <c r="AO29" s="111"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="119"/>
+      <c r="X30" s="119"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="111"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" s="111"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="119"/>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="119"/>
+      <c r="AH31" s="119"/>
+      <c r="AI31" s="119"/>
+      <c r="AJ31" s="119"/>
+      <c r="AK31" s="119"/>
+      <c r="AL31" s="119"/>
+      <c r="AM31" s="119"/>
+      <c r="AN31" s="119"/>
+      <c r="AO31" s="111"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" s="111"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
       <c r="M32" s="26"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>2</v>
-      </c>
-      <c r="R32" s="1">
-        <v>3</v>
-      </c>
-      <c r="S32" s="1">
-        <v>4</v>
-      </c>
-      <c r="T32" s="25">
-        <v>5</v>
-      </c>
-      <c r="U32" s="1">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1">
-        <v>2</v>
-      </c>
-      <c r="W32" s="1">
-        <v>3</v>
-      </c>
-      <c r="X32" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="25">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD32" s="25">
-        <v>5</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI32" s="25">
-        <v>5</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN32" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B33" s="65"/>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="27">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="26">
-        <v>0.85923753665689095</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0.85988921472792401</v>
-      </c>
-      <c r="J33" s="26">
-        <v>0.85858585858585801</v>
-      </c>
-      <c r="K33" s="26">
-        <v>0.85337243401759499</v>
-      </c>
-      <c r="L33" s="27">
-        <v>0.83740632127728898</v>
-      </c>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="111"/>
+      <c r="AJ32" s="111"/>
+      <c r="AK32" s="111"/>
+      <c r="AL32" s="111"/>
+      <c r="AM32" s="111"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="111"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A33" s="111"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
       <c r="M33" s="26"/>
-      <c r="N33" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
-      <c r="P33" s="26">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="Q33" s="26">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="R33" s="26">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="S33" s="26">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="T33" s="27">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="U33" s="40">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="V33" s="40">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="W33" s="40">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="X33" s="40">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="Y33" s="41">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="Z33" s="50">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="AA33" s="50">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="AB33" s="50">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="AC33" s="50">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="AD33" s="51">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="AE33" s="50">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="AF33" s="50">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="AG33" s="50">
-        <v>0.86</v>
-      </c>
-      <c r="AH33" s="50">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="AI33" s="51">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="AJ33" s="50">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="AK33" s="50">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="AL33" s="50">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="AM33" s="50">
-        <v>0.73</v>
-      </c>
-      <c r="AN33" s="51">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B34" s="65"/>
-      <c r="C34" s="1">
-        <v>10</v>
-      </c>
-      <c r="D34" s="27">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="1">
-        <v>2</v>
-      </c>
-      <c r="H34" s="26">
-        <v>0.90648399999999996</v>
-      </c>
-      <c r="I34" s="26">
-        <v>0.90713600000000005</v>
-      </c>
-      <c r="J34" s="26">
-        <v>0.90550699999999995</v>
-      </c>
-      <c r="K34" s="26">
-        <v>0.89996699999999996</v>
-      </c>
-      <c r="L34" s="27">
-        <v>0.88302400000000003</v>
-      </c>
+      <c r="N33" s="121"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="114"/>
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="111"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34" s="111"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="26"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="1">
-        <v>2</v>
-      </c>
-      <c r="P34" s="40">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="Q34" s="40">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="R34" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="S34" s="40">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="T34" s="41">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="U34" s="40">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="V34" s="40">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="W34" s="40">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="X34" s="40">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="Y34" s="41">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="Z34" s="50">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="AA34" s="50">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="AB34" s="50">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AC34" s="50">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="AD34" s="51">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="AE34" s="50">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="AF34" s="50">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="AG34" s="50">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="AH34" s="50">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="AI34" s="51">
-        <v>0.88</v>
-      </c>
-      <c r="AJ34" s="50">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="AK34" s="50">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="AL34" s="50">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="AM34" s="50">
-        <v>0.76</v>
-      </c>
-      <c r="AN34" s="51">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
-      <c r="C35" s="16">
-        <v>20</v>
-      </c>
-      <c r="D35" s="29">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="1">
-        <v>5</v>
-      </c>
-      <c r="H35" s="26">
-        <v>0.942326</v>
-      </c>
-      <c r="I35" s="26">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="J35" s="26">
-        <v>0.94167500000000004</v>
-      </c>
-      <c r="K35" s="26">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="L35" s="27">
-        <v>0.91756300000000002</v>
-      </c>
+      <c r="N34" s="121"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="111"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" s="111"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="26"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="1">
-        <v>5</v>
-      </c>
-      <c r="P35" s="40">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="Q35" s="40">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="R35" s="40">
-        <v>0.97</v>
-      </c>
-      <c r="S35" s="40">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="T35" s="41">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="U35" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="V35" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="W35" s="40">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="X35" s="40">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Y35" s="41">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="Z35" s="50">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="AA35" s="50">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="AB35" s="50">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="AC35" s="50">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD35" s="51">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="AE35" s="50">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="AF35" s="50">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="AG35" s="50">
-        <v>0.94</v>
-      </c>
-      <c r="AH35" s="50">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="AI35" s="51">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="AJ35" s="50">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AK35" s="50">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AL35" s="50">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="AM35" s="50">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="AN35" s="51">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B36" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="23">
-        <v>1</v>
-      </c>
-      <c r="D36" s="44">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="1">
-        <v>10</v>
-      </c>
-      <c r="H36" s="26">
-        <v>0.95047199999999998</v>
-      </c>
-      <c r="I36" s="26">
-        <v>0.95145000000000002</v>
-      </c>
-      <c r="J36" s="26">
-        <v>0.94982100000000003</v>
-      </c>
-      <c r="K36" s="26">
-        <v>0.94362999999999997</v>
-      </c>
-      <c r="L36" s="27">
-        <v>0.92538299999999996</v>
-      </c>
+      <c r="N35" s="121"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="114"/>
+      <c r="AC35" s="114"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="114"/>
+      <c r="AG35" s="114"/>
+      <c r="AH35" s="114"/>
+      <c r="AI35" s="114"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="111"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" s="111"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="1">
-        <v>10</v>
-      </c>
-      <c r="P36" s="40">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Q36" s="40">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="R36" s="40">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="S36" s="40">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="T36" s="41">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="U36" s="40">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="V36" s="40">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="W36" s="40">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="X36" s="40">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="Y36" s="41">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="Z36" s="50">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="AA36" s="50">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="AB36" s="50">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AC36" s="50">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="AD36" s="51">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="AE36" s="50">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="AF36" s="50">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="AG36" s="50">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="AH36" s="50">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AI36" s="51">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="AJ36" s="50">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="AK36" s="50">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="AL36" s="50">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AM36" s="50">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="AN36" s="51">
-        <v>0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="65"/>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="27">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="16">
-        <v>20</v>
-      </c>
-      <c r="H37" s="28">
-        <v>0.94525899999999996</v>
-      </c>
-      <c r="I37" s="28">
-        <v>0.94688799999999995</v>
-      </c>
-      <c r="J37" s="28">
-        <v>0.94525899999999996</v>
-      </c>
-      <c r="K37" s="28">
-        <v>0.93906800000000001</v>
-      </c>
-      <c r="L37" s="29">
-        <v>0.92049499999999995</v>
-      </c>
+      <c r="N36" s="121"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="114"/>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="114"/>
+      <c r="AI36" s="114"/>
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="114"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="114"/>
+      <c r="AN36" s="114"/>
+      <c r="AO36" s="111"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" s="111"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="16">
-        <v>20</v>
-      </c>
-      <c r="P37" s="42">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="Q37" s="42">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="R37" s="42">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="S37" s="42">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="T37" s="43">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="U37" s="42">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="V37" s="42">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="W37" s="42">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="X37" s="42">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="Y37" s="43">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="Z37" s="52">
-        <v>0.99</v>
-      </c>
-      <c r="AA37" s="52">
-        <v>0.99</v>
-      </c>
-      <c r="AB37" s="52">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="AC37" s="52">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="AD37" s="53">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="AE37" s="52">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="AF37" s="52">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="AG37" s="52">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="AH37" s="52">
-        <v>0.95</v>
-      </c>
-      <c r="AI37" s="53">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="AJ37" s="52">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="AK37" s="52">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="AL37" s="52">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AM37" s="52">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="AN37" s="53">
-        <v>0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B38" s="65"/>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="27">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="114"/>
+      <c r="AA37" s="114"/>
+      <c r="AB37" s="114"/>
+      <c r="AC37" s="114"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="114"/>
+      <c r="AG37" s="114"/>
+      <c r="AH37" s="114"/>
+      <c r="AI37" s="114"/>
+      <c r="AJ37" s="114"/>
+      <c r="AK37" s="114"/>
+      <c r="AL37" s="114"/>
+      <c r="AM37" s="114"/>
+      <c r="AN37" s="114"/>
+      <c r="AO37" s="111"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" s="111"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="45"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="111"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
-    </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B39" s="65"/>
-      <c r="C39" s="1">
-        <v>4</v>
-      </c>
-      <c r="D39" s="27">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L39" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="Y39" s="1">
-        <f>34/125</f>
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="16">
-        <v>5</v>
-      </c>
-      <c r="D40" s="29">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="40">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="I40" s="40">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="J40" s="40">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="K40" s="40">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="L40" s="41">
-        <v>0.73499999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B41" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="44">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="1">
-        <v>2</v>
-      </c>
-      <c r="H41" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="I41" s="40">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="J41" s="40">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="K41" s="40">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="L41" s="41">
-        <v>0.76500000000000001</v>
-      </c>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="111"/>
+      <c r="AK38" s="111"/>
+      <c r="AL38" s="111"/>
+      <c r="AM38" s="111"/>
+      <c r="AN38" s="111"/>
+      <c r="AO38" s="111"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A39" s="111"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="111"/>
+      <c r="AM39" s="111"/>
+      <c r="AN39" s="111"/>
+      <c r="AO39" s="111"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A40" s="111"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="111"/>
+      <c r="AH40" s="111"/>
+      <c r="AI40" s="111"/>
+      <c r="AJ40" s="111"/>
+      <c r="AK40" s="111"/>
+      <c r="AL40" s="111"/>
+      <c r="AM40" s="111"/>
+      <c r="AN40" s="111"/>
+      <c r="AO40" s="111"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A41" s="111"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
-    </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B42" s="65"/>
-      <c r="C42" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="27">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="1">
-        <v>5</v>
-      </c>
-      <c r="H42" s="40">
-        <v>0.97</v>
-      </c>
-      <c r="I42" s="40">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="J42" s="40">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="K42" s="40">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="L42" s="41">
-        <v>0.78100000000000003</v>
-      </c>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
+      <c r="Z41" s="111"/>
+      <c r="AA41" s="111"/>
+      <c r="AB41" s="111"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="111"/>
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="111"/>
+      <c r="AH41" s="111"/>
+      <c r="AI41" s="111"/>
+      <c r="AJ41" s="111"/>
+      <c r="AK41" s="111"/>
+      <c r="AL41" s="111"/>
+      <c r="AM41" s="111"/>
+      <c r="AN41" s="111"/>
+      <c r="AO41" s="111"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A42" s="111"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
       <c r="M42" s="26"/>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B43" s="65"/>
-      <c r="C43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D43" s="27">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="1">
-        <v>10</v>
-      </c>
-      <c r="H43" s="40">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="I43" s="40">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="J43" s="40">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="K43" s="40">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="L43" s="41">
-        <v>0.78200000000000003</v>
-      </c>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="111"/>
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="111"/>
+      <c r="AF42" s="111"/>
+      <c r="AG42" s="111"/>
+      <c r="AH42" s="111"/>
+      <c r="AI42" s="111"/>
+      <c r="AJ42" s="111"/>
+      <c r="AK42" s="111"/>
+      <c r="AL42" s="111"/>
+      <c r="AM42" s="111"/>
+      <c r="AN42" s="111"/>
+      <c r="AO42" s="111"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A43" s="111"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
       <c r="M43" s="26"/>
-    </row>
-    <row r="44" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65"/>
-      <c r="C44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D44" s="27">
-        <v>0.753</v>
-      </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="16">
-        <v>20</v>
-      </c>
-      <c r="H44" s="42">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="I44" s="42">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="J44" s="42">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="K44" s="42">
-        <v>0.95</v>
-      </c>
-      <c r="L44" s="43">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="N44" s="45"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="111"/>
+      <c r="AH43" s="111"/>
+      <c r="AI43" s="111"/>
+      <c r="AJ43" s="111"/>
+      <c r="AK43" s="111"/>
+      <c r="AL43" s="111"/>
+      <c r="AM43" s="111"/>
+      <c r="AN43" s="111"/>
+      <c r="AO43" s="111"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A44" s="111"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="111"/>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
-    </row>
-    <row r="45" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="66"/>
-      <c r="C45" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="29">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="86"/>
-      <c r="N45" s="45"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
+      <c r="AB44" s="111"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="111"/>
+      <c r="AF44" s="111"/>
+      <c r="AG44" s="111"/>
+      <c r="AH44" s="111"/>
+      <c r="AI44" s="111"/>
+      <c r="AJ44" s="111"/>
+      <c r="AK44" s="111"/>
+      <c r="AL44" s="111"/>
+      <c r="AM44" s="111"/>
+      <c r="AN44" s="111"/>
+      <c r="AO44" s="111"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A45" s="111"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="111"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F46" s="84"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L46" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N46" s="45"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="111"/>
+      <c r="AH45" s="111"/>
+      <c r="AI45" s="111"/>
+      <c r="AJ45" s="111"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="111"/>
+      <c r="AM45" s="111"/>
+      <c r="AN45" s="111"/>
+      <c r="AO45" s="111"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="111"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26"/>
       <c r="T46" s="26"/>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F47" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="40">
-        <v>0.89</v>
-      </c>
-      <c r="I47" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="J47" s="40">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="K47" s="40">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="L47" s="41">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F48" s="79"/>
-      <c r="G48" s="47">
-        <v>2</v>
-      </c>
-      <c r="H48" s="48">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="I48" s="48">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J48" s="48">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="K48" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="L48" s="49">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F49" s="79"/>
-      <c r="G49" s="47">
-        <v>3</v>
-      </c>
-      <c r="H49" s="40">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="I49" s="40">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="J49" s="40">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="K49" s="40">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="L49" s="41">
-        <v>0.77800000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D50" s="45"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="47">
-        <v>4</v>
-      </c>
-      <c r="H50" s="40">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="I50" s="40">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="J50" s="40">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="K50" s="40">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="L50" s="41">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="Q50" s="5"/>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="4:29" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="45"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="46">
-        <v>5</v>
-      </c>
-      <c r="H51" s="42">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="I51" s="42">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="J51" s="42">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="K51" s="42">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="L51" s="43">
-        <v>0.75800000000000001</v>
-      </c>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="111"/>
+      <c r="AE46" s="111"/>
+      <c r="AF46" s="111"/>
+      <c r="AG46" s="111"/>
+      <c r="AH46" s="111"/>
+      <c r="AI46" s="111"/>
+      <c r="AJ46" s="111"/>
+      <c r="AK46" s="111"/>
+      <c r="AL46" s="111"/>
+      <c r="AM46" s="111"/>
+      <c r="AN46" s="111"/>
+      <c r="AO46" s="111"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+      <c r="AB47" s="111"/>
+      <c r="AC47" s="111"/>
+      <c r="AD47" s="111"/>
+      <c r="AE47" s="111"/>
+      <c r="AF47" s="111"/>
+      <c r="AG47" s="111"/>
+      <c r="AH47" s="111"/>
+      <c r="AI47" s="111"/>
+      <c r="AJ47" s="111"/>
+      <c r="AK47" s="111"/>
+      <c r="AL47" s="111"/>
+      <c r="AM47" s="111"/>
+      <c r="AN47" s="111"/>
+      <c r="AO47" s="111"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
+      <c r="Z48" s="111"/>
+      <c r="AA48" s="111"/>
+      <c r="AB48" s="111"/>
+      <c r="AC48" s="111"/>
+      <c r="AD48" s="111"/>
+      <c r="AE48" s="111"/>
+      <c r="AF48" s="111"/>
+      <c r="AG48" s="111"/>
+      <c r="AH48" s="111"/>
+      <c r="AI48" s="111"/>
+      <c r="AJ48" s="111"/>
+      <c r="AK48" s="111"/>
+      <c r="AL48" s="111"/>
+      <c r="AM48" s="111"/>
+      <c r="AN48" s="111"/>
+      <c r="AO48" s="111"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
+      <c r="AA49" s="111"/>
+      <c r="AB49" s="111"/>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="111"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="111"/>
+      <c r="AG49" s="111"/>
+      <c r="AH49" s="111"/>
+      <c r="AI49" s="111"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="111"/>
+      <c r="AL49" s="111"/>
+      <c r="AM49" s="111"/>
+      <c r="AN49" s="111"/>
+      <c r="AO49" s="111"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="115"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="111"/>
+      <c r="AG50" s="111"/>
+      <c r="AH50" s="111"/>
+      <c r="AI50" s="111"/>
+      <c r="AJ50" s="111"/>
+      <c r="AK50" s="111"/>
+      <c r="AL50" s="111"/>
+      <c r="AM50" s="111"/>
+      <c r="AN50" s="111"/>
+      <c r="AO50" s="111"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D52" s="45"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="111"/>
+      <c r="AL51" s="111"/>
+      <c r="AM51" s="111"/>
+      <c r="AN51" s="111"/>
+      <c r="AO51" s="111"/>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
       <c r="M52" s="26"/>
       <c r="N52" s="26"/>
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
-      <c r="W52" s="45"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="40"/>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D53" s="45"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="112"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
+      <c r="AC52" s="113"/>
+      <c r="AD52" s="111"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="111"/>
+      <c r="AG52" s="111"/>
+      <c r="AH52" s="111"/>
+      <c r="AI52" s="111"/>
+      <c r="AJ52" s="111"/>
+      <c r="AK52" s="111"/>
+      <c r="AL52" s="111"/>
+      <c r="AM52" s="111"/>
+      <c r="AN52" s="111"/>
+      <c r="AO52" s="111"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="26"/>
-      <c r="K53" s="45"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="111"/>
       <c r="M53" s="26"/>
       <c r="N53" s="26"/>
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
-      <c r="W53" s="45"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="40"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="112"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="113"/>
+      <c r="Z53" s="113"/>
+      <c r="AA53" s="113"/>
+      <c r="AB53" s="113"/>
+      <c r="AC53" s="113"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="111"/>
+      <c r="AG53" s="111"/>
+      <c r="AH53" s="111"/>
+      <c r="AI53" s="111"/>
+      <c r="AJ53" s="111"/>
+      <c r="AK53" s="111"/>
+      <c r="AL53" s="111"/>
+      <c r="AM53" s="111"/>
+      <c r="AN53" s="111"/>
+      <c r="AO53" s="111"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="111"/>
+      <c r="Y54" s="111"/>
+      <c r="Z54" s="111"/>
+      <c r="AA54" s="111"/>
+      <c r="AB54" s="111"/>
+      <c r="AC54" s="111"/>
+      <c r="AD54" s="111"/>
+      <c r="AE54" s="111"/>
+      <c r="AF54" s="111"/>
+      <c r="AG54" s="111"/>
+      <c r="AH54" s="111"/>
+      <c r="AI54" s="111"/>
+      <c r="AJ54" s="111"/>
+      <c r="AK54" s="111"/>
+      <c r="AL54" s="111"/>
+      <c r="AM54" s="111"/>
+      <c r="AN54" s="111"/>
+      <c r="AO54" s="111"/>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="111"/>
+      <c r="AA55" s="111"/>
+      <c r="AB55" s="111"/>
+      <c r="AC55" s="111"/>
+      <c r="AD55" s="111"/>
+      <c r="AE55" s="111"/>
+      <c r="AF55" s="111"/>
+      <c r="AG55" s="111"/>
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="111"/>
+      <c r="AJ55" s="111"/>
+      <c r="AK55" s="111"/>
+      <c r="AL55" s="111"/>
+      <c r="AM55" s="111"/>
+      <c r="AN55" s="111"/>
+      <c r="AO55" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="AJ30:AN30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="N31:O32"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ31:AN31"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="F20:F24"/>
+  <mergeCells count="25">
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="F3:L3"/>
@@ -3805,19 +3813,16 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="F20:F24"/>
   </mergeCells>
+  <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0.969</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.969</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H20:L24 H13:L17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -3854,14 +3859,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D45 H33:L37 H40:L40 H47:L51 P33:AN37 H41:H44 K41:L44">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>0.969</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>0.969</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3869,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
-  <dimension ref="B1:Y47"/>
+  <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3880,57 +3877,30 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="5" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="16" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>41</v>
       </c>
@@ -3945,20 +3915,8 @@
       </c>
       <c r="I3" s="95"/>
       <c r="J3" s="98"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="98"/>
-    </row>
-    <row r="4" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
@@ -3975,22 +3933,8 @@
       <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="99" t="s">
         <v>39</v>
       </c>
@@ -4006,50 +3950,22 @@
       </c>
       <c r="I5" s="89"/>
       <c r="J5" s="90"/>
-      <c r="L5" s="10"/>
-      <c r="N5" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="89">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="S5" s="89"/>
-      <c r="T5" s="90"/>
-    </row>
-    <row r="6" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="88"/>
+    </row>
+    <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="93"/>
       <c r="E6" s="101"/>
-      <c r="F6" s="93"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="91">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-      <c r="L6" s="10"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="103">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="S6" s="103"/>
-      <c r="T6" s="104"/>
-    </row>
-    <row r="7" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="88"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="93"/>
       <c r="E7" s="101"/>
       <c r="F7" s="87" t="s">
         <v>12</v>
@@ -4062,48 +3978,22 @@
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="90"/>
-      <c r="L7" s="10"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="89">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="S7" s="89"/>
-      <c r="T7" s="90"/>
-    </row>
-    <row r="8" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="88"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="93"/>
       <c r="E8" s="101"/>
-      <c r="F8" s="93"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="91">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="L8" s="10"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="103">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="S8" s="103"/>
-      <c r="T8" s="104"/>
-    </row>
-    <row r="9" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="88"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+    </row>
+    <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="93"/>
       <c r="E9" s="101"/>
       <c r="F9" s="87" t="s">
         <v>30</v>
@@ -4116,48 +4006,22 @@
       </c>
       <c r="I9" s="89"/>
       <c r="J9" s="90"/>
-      <c r="L9" s="10"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="89">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="S9" s="89"/>
-      <c r="T9" s="90"/>
-    </row>
-    <row r="10" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="88"/>
+    </row>
+    <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="93"/>
       <c r="E10" s="101"/>
-      <c r="F10" s="93"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="91">
         <v>0.753</v>
       </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="L10" s="10"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="103">
-        <v>0.753</v>
-      </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="104"/>
-    </row>
-    <row r="11" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="88"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+    </row>
+    <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="93"/>
       <c r="E11" s="101"/>
       <c r="F11" s="87" t="s">
         <v>13</v>
@@ -4170,48 +4034,22 @@
       </c>
       <c r="I11" s="89"/>
       <c r="J11" s="90"/>
-      <c r="L11" s="10"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="89">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="S11" s="89"/>
-      <c r="T11" s="90"/>
-    </row>
-    <row r="12" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="88"/>
+    </row>
+    <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="93"/>
       <c r="E12" s="101"/>
-      <c r="F12" s="93"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="91">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="L12" s="10"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="103">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="S12" s="103"/>
-      <c r="T12" s="104"/>
-    </row>
-    <row r="13" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="88"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
+    </row>
+    <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="93"/>
       <c r="E13" s="101"/>
       <c r="F13" s="87" t="s">
         <v>25</v>
@@ -4224,48 +4062,22 @@
       </c>
       <c r="I13" s="89"/>
       <c r="J13" s="90"/>
-      <c r="L13" s="10"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" s="89">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="S13" s="89"/>
-      <c r="T13" s="90"/>
-    </row>
-    <row r="14" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="93"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="88"/>
       <c r="E14" s="102"/>
-      <c r="F14" s="88"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="103">
         <v>0.99</v>
       </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="92"/>
-      <c r="L14" s="10"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R14" s="91">
-        <v>0.99</v>
-      </c>
-      <c r="S14" s="91"/>
-      <c r="T14" s="92"/>
-    </row>
-    <row r="15" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="88" t="s">
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
+    </row>
+    <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="93" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="87" t="s">
@@ -4284,30 +4096,11 @@
       <c r="J15" s="59">
         <v>0.60299999999999998</v>
       </c>
-      <c r="N15" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="58">
-        <v>0.52</v>
-      </c>
-      <c r="S15" s="58">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="T15" s="59">
-        <v>0.60299999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88" t="s">
+    </row>
+    <row r="16" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4322,28 +4115,11 @@
       <c r="J16" s="15">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="T16" s="15">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4356,60 +4132,30 @@
       <c r="J17" s="15">
         <v>0.60899999999999999</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="6">
-        <v>0.54100000000000004</v>
-      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="6">
-        <v>0.55600000000000005</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="J18" s="15">
         <v>0.60299999999999998</v>
       </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="1" t="s">
         <v>53</v>
       </c>
@@ -4422,116 +4168,56 @@
       <c r="J19" s="15">
         <v>0.67600000000000005</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="T19" s="15">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="6">
-        <v>0.53300000000000003</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6">
-        <v>0.45600000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="J20" s="15">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="T20" s="15">
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="6">
-        <v>0.53</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6">
-        <v>0.45600000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="J21" s="15">
-        <v>0.63</v>
-      </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="T21" s="15">
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="22" spans="4:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="93"/>
+    <row r="22" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="17">
-        <v>0.54900000000000004</v>
-      </c>
+      <c r="H22" s="17"/>
       <c r="I22" s="17">
-        <v>0.40200000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="J22" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="T22" s="18">
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="23" spans="4:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88" t="s">
+    <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4546,28 +4232,11 @@
       <c r="J23" s="15">
         <v>0.94599999999999995</v>
       </c>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="T23" s="15">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -4580,58 +4249,26 @@
       <c r="J24" s="15">
         <v>0.73199999999999998</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="T24" s="15">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="6">
-        <v>0.54700000000000004</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6">
         <v>0.60299999999999998</v>
       </c>
       <c r="J25" s="15">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="T25" s="15">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4644,118 +4281,54 @@
       <c r="J26" s="15">
         <v>0.95</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0.877</v>
-      </c>
-      <c r="T26" s="15">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="6">
-        <v>0.55200000000000005</v>
-      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="6">
-        <v>0.81299999999999994</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="J27" s="15">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="T27" s="15">
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="6">
-        <v>0.54500000000000004</v>
-      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6">
-        <v>0.745</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="J28" s="15">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="T28" s="15">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="4:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="88"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="88"/>
+    <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="93"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="6">
-        <v>0.57899999999999996</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6">
-        <v>0.748</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="J29" s="15">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="T29" s="15">
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="30" spans="4:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="88"/>
+    <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="93"/>
       <c r="E30" s="87" t="s">
         <v>2</v>
       </c>
@@ -4772,29 +4345,11 @@
       <c r="J30" s="59">
         <v>0.63300000000000001</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="58">
-        <v>0.495</v>
-      </c>
-      <c r="S30" s="58">
-        <v>0.495</v>
-      </c>
-      <c r="T30" s="59">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="4:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88" t="s">
+    </row>
+    <row r="31" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -4809,29 +4364,11 @@
       <c r="J31" s="15">
         <v>0.68200000000000005</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="T31" s="15">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -4844,58 +4381,26 @@
       <c r="J32" s="15">
         <v>0.67900000000000005</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="T32" s="15">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="6">
-        <v>0.46899999999999997</v>
-      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6">
-        <v>0.60599999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="J33" s="15">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="T33" s="15">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="1" t="s">
         <v>53</v>
       </c>
@@ -4908,120 +4413,56 @@
       <c r="J34" s="15">
         <v>0.66300000000000003</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="T34" s="15">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="6">
-        <v>0.45200000000000001</v>
-      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="6">
-        <v>0.57299999999999995</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="J35" s="15">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="T35" s="15">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="6">
-        <v>0.47899999999999998</v>
-      </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="6">
-        <v>0.55400000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="J36" s="15">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="T36" s="15">
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="37" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="93"/>
+    <row r="37" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="17">
-        <v>0.51200000000000001</v>
-      </c>
+      <c r="H37" s="17"/>
       <c r="I37" s="17">
-        <v>0.52800000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="J37" s="18">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="T37" s="18">
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="38" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88" t="s">
+    <row r="38" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -5036,29 +4477,11 @@
       <c r="J38" s="15">
         <v>0.93600000000000005</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R38" s="6">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="T38" s="15">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -5071,58 +4494,26 @@
       <c r="J39" s="15">
         <v>0.84499999999999997</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="T39" s="15">
-        <v>0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="6">
-        <v>0.48099999999999998</v>
-      </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="6">
-        <v>0.63800000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="J40" s="15">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6">
-        <v>0.623</v>
-      </c>
-      <c r="T40" s="15">
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
       <c r="G41" s="1" t="s">
         <v>53</v>
       </c>
@@ -5135,137 +4526,64 @@
       <c r="J41" s="15">
         <v>0.94099999999999995</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="S41" s="6">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="T41" s="15">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="6">
-        <v>0.51</v>
-      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="6">
-        <v>0.88600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="J42" s="15">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="L42" s="7"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="T42" s="15">
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
       <c r="G43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="6">
-        <v>0.52800000000000002</v>
-      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6">
-        <v>0.82199999999999995</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="J43" s="15">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="T43" s="15">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="44" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
+    <row r="44" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
       <c r="G44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="17">
-        <v>0.53100000000000003</v>
-      </c>
+      <c r="H44" s="17"/>
       <c r="I44" s="17">
-        <v>0.84299999999999997</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="J44" s="18">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="T44" s="18">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="L47" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="F38:F44"/>
+  <mergeCells count="26">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="D15:D44"/>
     <mergeCell ref="E15:E29"/>
     <mergeCell ref="F16:F22"/>
     <mergeCell ref="F23:F29"/>
     <mergeCell ref="E30:E44"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="F38:F44"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="H3:J3"/>
@@ -5279,73 +4597,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="N5:O14"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="N15:N44"/>
-    <mergeCell ref="O15:O29"/>
-    <mergeCell ref="P16:P22"/>
-    <mergeCell ref="P23:P29"/>
-    <mergeCell ref="O30:O44"/>
-    <mergeCell ref="P31:P37"/>
-    <mergeCell ref="P38:P44"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:J44">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1 H1">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:T44">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5366,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -5401,8 +4657,8 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="71"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="63" t="s">
         <v>61</v>
       </c>
@@ -5415,8 +4671,8 @@
       <c r="H2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="68"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="63" t="s">
         <v>56</v>
       </c>
@@ -5431,66 +4687,66 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="109">
+      <c r="D3" s="105">
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="81">
         <v>0.86699999999999999</v>
       </c>
       <c r="H3" s="25"/>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="110" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="79">
         <v>0.71499999999999997</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="106"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="108"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="16"/>
       <c r="H4" s="62"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="74"/>
+      <c r="N4" s="81"/>
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="106"/>
-      <c r="D5" s="109">
+      <c r="C5" s="107"/>
+      <c r="D5" s="105">
         <v>2</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="79">
         <v>0.90800000000000003</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106" t="s">
+      <c r="K5" s="107"/>
+      <c r="L5" s="107" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="19" t="s">
@@ -5503,32 +4759,32 @@
       <c r="P5" s="24"/>
     </row>
     <row r="6" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="106"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="16"/>
       <c r="H6" s="62"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="103"/>
+      <c r="N6" s="91"/>
       <c r="O6" s="16"/>
       <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="106"/>
-      <c r="D7" s="109">
+      <c r="C7" s="107"/>
+      <c r="D7" s="105">
         <v>5</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="81">
         <v>0.94599999999999995</v>
       </c>
       <c r="H7" s="25"/>
@@ -5539,12 +4795,12 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="106"/>
-      <c r="D8" s="109"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="16"/>
       <c r="H8" s="62"/>
       <c r="K8" s="64"/>
@@ -5554,14 +4810,14 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="106"/>
-      <c r="D9" s="109">
+      <c r="C9" s="107"/>
+      <c r="D9" s="105">
         <v>10</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="81">
         <v>0.94799999999999995</v>
       </c>
       <c r="H9" s="25"/>
@@ -5572,12 +4828,12 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="106"/>
-      <c r="D10" s="109"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="16"/>
       <c r="H10" s="62"/>
       <c r="K10" s="64"/>
@@ -5587,121 +4843,121 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="106"/>
-      <c r="D11" s="109">
+      <c r="C11" s="107"/>
+      <c r="D11" s="105">
         <v>20</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="81">
         <v>0.93400000000000005</v>
       </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="107"/>
-      <c r="D12" s="110"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="81"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="107" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="79">
         <v>0.73499999999999999</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="16"/>
       <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="106"/>
-      <c r="D15" s="106" t="s">
+      <c r="C15" s="107"/>
+      <c r="D15" s="107" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="81">
         <v>0.98699999999999999</v>
       </c>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="108"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="16"/>
       <c r="H16" s="62"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="107" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="81">
         <v>0.71499999999999997</v>
       </c>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="108"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="16"/>
       <c r="H18" s="62"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="106"/>
-      <c r="D19" s="106" t="s">
+      <c r="C19" s="107"/>
+      <c r="D19" s="107" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="103">
         <v>0.99</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="103"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="16"/>
       <c r="H20" s="62"/>
     </row>
@@ -5740,12 +4996,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D18"/>
@@ -5762,12 +5018,12 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5795,13 +5051,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18569A-0D0D-CC45-859B-2D009DDA9448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E8F66-5D13-3D4E-B5CF-24906853BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="28800" yWindow="10460" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
-    <sheet name="llm" sheetId="11" r:id="rId2"/>
-    <sheet name="llm-correction" sheetId="9" r:id="rId3"/>
-    <sheet name="weak-ft" sheetId="8" r:id="rId4"/>
+    <sheet name="llm (all)" sheetId="13" r:id="rId2"/>
+    <sheet name="llm (main)" sheetId="11" r:id="rId3"/>
+    <sheet name="llm (ablation)" sheetId="12" r:id="rId4"/>
+    <sheet name="llm-correction" sheetId="9" r:id="rId5"/>
+    <sheet name="weak-ft" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>4o-mini</t>
   </si>
@@ -119,12 +121,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>zs</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
     <t>zs-all</t>
   </si>
   <si>
@@ -209,22 +205,19 @@
     <t>comb (d, m)</t>
   </si>
   <si>
-    <t>correction</t>
-  </si>
-  <si>
     <t>heuristics</t>
   </si>
   <si>
     <t>4o_mini</t>
   </si>
   <si>
-    <t>single heuristic (min_angle)</t>
-  </si>
-  <si>
     <t>llama3 (7b)</t>
   </si>
   <si>
     <t>method</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
 </sst>
 </file>
@@ -506,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,6 +691,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -707,6 +712,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,54 +751,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,46 +811,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,47 +823,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF7E40-9809-314A-8B08-230973DFDCC8}">
-  <dimension ref="A2:AT55"/>
+  <dimension ref="B2:AT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1262,57 +1237,57 @@
         <v>3</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="85"/>
-      <c r="N3" s="83" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="N3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="84" t="s">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86" t="s">
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="77"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="87"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="23" t="s">
         <v>22</v>
@@ -1324,11 +1299,11 @@
         <v>24</v>
       </c>
       <c r="AT3" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23">
@@ -1337,52 +1312,52 @@
       <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="82"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="79" t="s">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="79" t="s">
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="79" t="s">
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="79" t="s">
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="82"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="76"/>
       <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1404,15 +1379,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1429,8 +1404,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1527,14 +1502,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="66"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="70" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1556,7 +1531,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="70" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1658,14 +1633,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="66"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1685,7 +1660,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="26"/>
-      <c r="N7" s="66"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1785,14 +1760,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1812,7 +1787,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="N8" s="66"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1912,7 +1887,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="69" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="23">
@@ -1921,7 +1896,7 @@
       <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1941,7 +1916,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="26"/>
-      <c r="N9" s="66"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -2022,14 +1997,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="16">
         <v>20</v>
       </c>
@@ -2049,7 +2024,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="67"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="16">
         <v>20</v>
       </c>
@@ -2130,22 +2105,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="66"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79" t="s">
+      <c r="F11" s="77"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="82"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="26"/>
       <c r="N11" s="45"/>
       <c r="P11" s="26"/>
@@ -2155,15 +2130,15 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2184,14 +2159,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2214,7 +2189,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23">
@@ -2223,7 +2198,7 @@
       <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2247,14 +2222,14 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="66"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2274,16 +2249,17 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="M15" s="26"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="66"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2304,15 +2280,15 @@
       </c>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:41" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+    <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="16">
         <v>20</v>
       </c>
@@ -2338,23 +2314,23 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
     </row>
-    <row r="18" spans="1:41" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+    <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
       <c r="C18" s="16">
         <v>0.5</v>
       </c>
       <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="72"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="84"/>
       <c r="N18" s="45"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
@@ -2362,9 +2338,9 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2387,8 +2363,8 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="73" t="s">
+    <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="47">
@@ -2410,8 +2386,8 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="73"/>
+    <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="67"/>
       <c r="G21" s="47">
         <v>2</v>
       </c>
@@ -2431,8 +2407,8 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="F22" s="73"/>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F22" s="67"/>
       <c r="G22" s="47">
         <v>3</v>
       </c>
@@ -2452,9 +2428,9 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="45"/>
-      <c r="F23" s="73"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="47">
         <v>4</v>
       </c>
@@ -2476,9 +2452,9 @@
       <c r="Q23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:41" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
-      <c r="F24" s="74"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="46">
         <v>5</v>
       </c>
@@ -2503,7 +2479,7 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D25" s="45"/>
       <c r="F25" s="54"/>
       <c r="G25" s="47"/>
@@ -2524,7 +2500,7 @@
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D26" s="45"/>
       <c r="F26" s="26"/>
       <c r="K26" s="45"/>
@@ -2540,1252 +2516,511 @@
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="111"/>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D27" s="45"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="111"/>
+      <c r="K27" s="45"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="111"/>
-      <c r="AK27" s="111"/>
-      <c r="AL27" s="111"/>
-      <c r="AM27" s="111"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="111"/>
+      <c r="W27" s="45"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D28" s="45"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="111"/>
+      <c r="K28" s="45"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="113"/>
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="111"/>
-      <c r="AH28" s="111"/>
-      <c r="AI28" s="111"/>
-      <c r="AJ28" s="111"/>
-      <c r="AK28" s="111"/>
-      <c r="AL28" s="111"/>
-      <c r="AM28" s="111"/>
-      <c r="AN28" s="111"/>
-      <c r="AO28" s="111"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="111"/>
-      <c r="AJ29" s="111"/>
-      <c r="AK29" s="111"/>
-      <c r="AL29" s="111"/>
-      <c r="AM29" s="111"/>
-      <c r="AN29" s="111"/>
-      <c r="AO29" s="111"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="120"/>
-      <c r="AK30" s="120"/>
-      <c r="AL30" s="120"/>
-      <c r="AM30" s="120"/>
-      <c r="AN30" s="120"/>
-      <c r="AO30" s="111"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A31" s="111"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="111"/>
+      <c r="W28" s="45"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B31" s="64"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="119"/>
-      <c r="AC31" s="119"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="119"/>
-      <c r="AF31" s="119"/>
-      <c r="AG31" s="119"/>
-      <c r="AH31" s="119"/>
-      <c r="AI31" s="119"/>
-      <c r="AJ31" s="119"/>
-      <c r="AK31" s="119"/>
-      <c r="AL31" s="119"/>
-      <c r="AM31" s="119"/>
-      <c r="AN31" s="119"/>
-      <c r="AO31" s="111"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="111"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B32" s="64"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="M32" s="26"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="111"/>
-      <c r="AH32" s="111"/>
-      <c r="AI32" s="111"/>
-      <c r="AJ32" s="111"/>
-      <c r="AK32" s="111"/>
-      <c r="AL32" s="111"/>
-      <c r="AM32" s="111"/>
-      <c r="AN32" s="111"/>
-      <c r="AO32" s="111"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A33" s="111"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="111"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B33" s="64"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="111"/>
+      <c r="F33" s="64"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
       <c r="M33" s="26"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="111"/>
+      <c r="N33" s="64"/>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="114"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="114"/>
-      <c r="AJ33" s="114"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="114"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="111"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="111"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="50"/>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B34" s="64"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="111"/>
+      <c r="F34" s="64"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="114"/>
-      <c r="AC34" s="114"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="114"/>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="114"/>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="111"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="111"/>
+      <c r="N34" s="64"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="50"/>
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B35" s="64"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="111"/>
+      <c r="F35" s="64"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="114"/>
-      <c r="AC35" s="114"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="114"/>
-      <c r="AF35" s="114"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="111"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="111"/>
+      <c r="N35" s="64"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="50"/>
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B36" s="64"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="111"/>
+      <c r="F36" s="64"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="114"/>
-      <c r="AF36" s="114"/>
-      <c r="AG36" s="114"/>
-      <c r="AH36" s="114"/>
-      <c r="AI36" s="114"/>
-      <c r="AJ36" s="114"/>
-      <c r="AK36" s="114"/>
-      <c r="AL36" s="114"/>
-      <c r="AM36" s="114"/>
-      <c r="AN36" s="114"/>
-      <c r="AO36" s="111"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="111"/>
+      <c r="N36" s="64"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="50"/>
+    </row>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B37" s="64"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="111"/>
+      <c r="F37" s="64"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="114"/>
-      <c r="AB37" s="114"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="114"/>
-      <c r="AF37" s="114"/>
-      <c r="AG37" s="114"/>
-      <c r="AH37" s="114"/>
-      <c r="AI37" s="114"/>
-      <c r="AJ37" s="114"/>
-      <c r="AK37" s="114"/>
-      <c r="AL37" s="114"/>
-      <c r="AM37" s="114"/>
-      <c r="AN37" s="114"/>
-      <c r="AO37" s="111"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="111"/>
+      <c r="N37" s="64"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
+      <c r="AM37" s="50"/>
+      <c r="AN37" s="50"/>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B38" s="64"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="111"/>
+      <c r="N38" s="45"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
-      <c r="AI38" s="111"/>
-      <c r="AJ38" s="111"/>
-      <c r="AK38" s="111"/>
-      <c r="AL38" s="111"/>
-      <c r="AM38" s="111"/>
-      <c r="AN38" s="111"/>
-      <c r="AO38" s="111"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="111"/>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B39" s="64"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="111"/>
-      <c r="AJ39" s="111"/>
-      <c r="AK39" s="111"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="111"/>
-      <c r="AO39" s="111"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="111"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B40" s="64"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="111"/>
-      <c r="AG40" s="111"/>
-      <c r="AH40" s="111"/>
-      <c r="AI40" s="111"/>
-      <c r="AJ40" s="111"/>
-      <c r="AK40" s="111"/>
-      <c r="AL40" s="111"/>
-      <c r="AM40" s="111"/>
-      <c r="AN40" s="111"/>
-      <c r="AO40" s="111"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="111"/>
+      <c r="F40" s="64"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B41" s="64"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
+      <c r="F41" s="64"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="111"/>
-      <c r="U41" s="111"/>
-      <c r="V41" s="111"/>
-      <c r="W41" s="111"/>
-      <c r="X41" s="111"/>
-      <c r="Y41" s="111"/>
-      <c r="Z41" s="111"/>
-      <c r="AA41" s="111"/>
-      <c r="AB41" s="111"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="111"/>
-      <c r="AE41" s="111"/>
-      <c r="AF41" s="111"/>
-      <c r="AG41" s="111"/>
-      <c r="AH41" s="111"/>
-      <c r="AI41" s="111"/>
-      <c r="AJ41" s="111"/>
-      <c r="AK41" s="111"/>
-      <c r="AL41" s="111"/>
-      <c r="AM41" s="111"/>
-      <c r="AN41" s="111"/>
-      <c r="AO41" s="111"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="111"/>
+    </row>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B42" s="64"/>
       <c r="D42" s="26"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
+      <c r="F42" s="64"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
       <c r="M42" s="26"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="111"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="111"/>
-      <c r="AE42" s="111"/>
-      <c r="AF42" s="111"/>
-      <c r="AG42" s="111"/>
-      <c r="AH42" s="111"/>
-      <c r="AI42" s="111"/>
-      <c r="AJ42" s="111"/>
-      <c r="AK42" s="111"/>
-      <c r="AL42" s="111"/>
-      <c r="AM42" s="111"/>
-      <c r="AN42" s="111"/>
-      <c r="AO42" s="111"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="111"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B43" s="64"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
+      <c r="F43" s="64"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="26"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
-      <c r="AF43" s="111"/>
-      <c r="AG43" s="111"/>
-      <c r="AH43" s="111"/>
-      <c r="AI43" s="111"/>
-      <c r="AJ43" s="111"/>
-      <c r="AK43" s="111"/>
-      <c r="AL43" s="111"/>
-      <c r="AM43" s="111"/>
-      <c r="AN43" s="111"/>
-      <c r="AO43" s="111"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="111"/>
+    </row>
+    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B44" s="64"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="111"/>
+      <c r="F44" s="64"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="N44" s="45"/>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="111"/>
-      <c r="Y44" s="111"/>
-      <c r="Z44" s="111"/>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="111"/>
-      <c r="AC44" s="111"/>
-      <c r="AD44" s="111"/>
-      <c r="AE44" s="111"/>
-      <c r="AF44" s="111"/>
-      <c r="AG44" s="111"/>
-      <c r="AH44" s="111"/>
-      <c r="AI44" s="111"/>
-      <c r="AJ44" s="111"/>
-      <c r="AK44" s="111"/>
-      <c r="AL44" s="111"/>
-      <c r="AM44" s="111"/>
-      <c r="AN44" s="111"/>
-      <c r="AO44" s="111"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="111"/>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B45" s="64"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="111"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="N45" s="45"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="111"/>
-      <c r="AE45" s="111"/>
-      <c r="AF45" s="111"/>
-      <c r="AG45" s="111"/>
-      <c r="AH45" s="111"/>
-      <c r="AI45" s="111"/>
-      <c r="AJ45" s="111"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="111"/>
-      <c r="AM45" s="111"/>
-      <c r="AN45" s="111"/>
-      <c r="AO45" s="111"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="111"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="N46" s="45"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26"/>
       <c r="T46" s="26"/>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="111"/>
-      <c r="Y46" s="111"/>
-      <c r="Z46" s="111"/>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="111"/>
-      <c r="AC46" s="111"/>
-      <c r="AD46" s="111"/>
-      <c r="AE46" s="111"/>
-      <c r="AF46" s="111"/>
-      <c r="AG46" s="111"/>
-      <c r="AH46" s="111"/>
-      <c r="AI46" s="111"/>
-      <c r="AJ46" s="111"/>
-      <c r="AK46" s="111"/>
-      <c r="AL46" s="111"/>
-      <c r="AM46" s="111"/>
-      <c r="AN46" s="111"/>
-      <c r="AO46" s="111"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="111"/>
-      <c r="Z47" s="111"/>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="111"/>
-      <c r="AC47" s="111"/>
-      <c r="AD47" s="111"/>
-      <c r="AE47" s="111"/>
-      <c r="AF47" s="111"/>
-      <c r="AG47" s="111"/>
-      <c r="AH47" s="111"/>
-      <c r="AI47" s="111"/>
-      <c r="AJ47" s="111"/>
-      <c r="AK47" s="111"/>
-      <c r="AL47" s="111"/>
-      <c r="AM47" s="111"/>
-      <c r="AN47" s="111"/>
-      <c r="AO47" s="111"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="111"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="111"/>
-      <c r="P48" s="111"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="111"/>
-      <c r="U48" s="111"/>
-      <c r="V48" s="111"/>
-      <c r="W48" s="111"/>
-      <c r="X48" s="111"/>
-      <c r="Y48" s="111"/>
-      <c r="Z48" s="111"/>
-      <c r="AA48" s="111"/>
-      <c r="AB48" s="111"/>
-      <c r="AC48" s="111"/>
-      <c r="AD48" s="111"/>
-      <c r="AE48" s="111"/>
-      <c r="AF48" s="111"/>
-      <c r="AG48" s="111"/>
-      <c r="AH48" s="111"/>
-      <c r="AI48" s="111"/>
-      <c r="AJ48" s="111"/>
-      <c r="AK48" s="111"/>
-      <c r="AL48" s="111"/>
-      <c r="AM48" s="111"/>
-      <c r="AN48" s="111"/>
-      <c r="AO48" s="111"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="111"/>
-      <c r="AA49" s="111"/>
-      <c r="AB49" s="111"/>
-      <c r="AC49" s="111"/>
-      <c r="AD49" s="111"/>
-      <c r="AE49" s="111"/>
-      <c r="AF49" s="111"/>
-      <c r="AG49" s="111"/>
-      <c r="AH49" s="111"/>
-      <c r="AI49" s="111"/>
-      <c r="AJ49" s="111"/>
-      <c r="AK49" s="111"/>
-      <c r="AL49" s="111"/>
-      <c r="AM49" s="111"/>
-      <c r="AN49" s="111"/>
-      <c r="AO49" s="111"/>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="111"/>
-      <c r="AF50" s="111"/>
-      <c r="AG50" s="111"/>
-      <c r="AH50" s="111"/>
-      <c r="AI50" s="111"/>
-      <c r="AJ50" s="111"/>
-      <c r="AK50" s="111"/>
-      <c r="AL50" s="111"/>
-      <c r="AM50" s="111"/>
-      <c r="AN50" s="111"/>
-      <c r="AO50" s="111"/>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F47" s="66"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="F48" s="66"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+    </row>
+    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F49" s="66"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D50" s="45"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D51" s="45"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="111"/>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="111"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="111"/>
-      <c r="AE51" s="111"/>
-      <c r="AF51" s="111"/>
-      <c r="AG51" s="111"/>
-      <c r="AH51" s="111"/>
-      <c r="AI51" s="111"/>
-      <c r="AJ51" s="111"/>
-      <c r="AK51" s="111"/>
-      <c r="AL51" s="111"/>
-      <c r="AM51" s="111"/>
-      <c r="AN51" s="111"/>
-      <c r="AO51" s="111"/>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
+    </row>
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D52" s="45"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="26"/>
       <c r="N52" s="26"/>
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
-      <c r="R52" s="111"/>
-      <c r="S52" s="111"/>
-      <c r="T52" s="111"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="111"/>
-      <c r="W52" s="112"/>
-      <c r="X52" s="111"/>
-      <c r="Y52" s="113"/>
-      <c r="Z52" s="113"/>
-      <c r="AA52" s="113"/>
-      <c r="AB52" s="113"/>
-      <c r="AC52" s="113"/>
-      <c r="AD52" s="111"/>
-      <c r="AE52" s="111"/>
-      <c r="AF52" s="111"/>
-      <c r="AG52" s="111"/>
-      <c r="AH52" s="111"/>
-      <c r="AI52" s="111"/>
-      <c r="AJ52" s="111"/>
-      <c r="AK52" s="111"/>
-      <c r="AL52" s="111"/>
-      <c r="AM52" s="111"/>
-      <c r="AN52" s="111"/>
-      <c r="AO52" s="111"/>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="111"/>
+      <c r="W52" s="45"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+    </row>
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D53" s="45"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="111"/>
+      <c r="K53" s="45"/>
       <c r="M53" s="26"/>
       <c r="N53" s="26"/>
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
-      <c r="R53" s="111"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="111"/>
-      <c r="W53" s="112"/>
-      <c r="X53" s="111"/>
-      <c r="Y53" s="113"/>
-      <c r="Z53" s="113"/>
-      <c r="AA53" s="113"/>
-      <c r="AB53" s="113"/>
-      <c r="AC53" s="113"/>
-      <c r="AD53" s="111"/>
-      <c r="AE53" s="111"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="111"/>
-      <c r="AH53" s="111"/>
-      <c r="AI53" s="111"/>
-      <c r="AJ53" s="111"/>
-      <c r="AK53" s="111"/>
-      <c r="AL53" s="111"/>
-      <c r="AM53" s="111"/>
-      <c r="AN53" s="111"/>
-      <c r="AO53" s="111"/>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="111"/>
-      <c r="W54" s="111"/>
-      <c r="X54" s="111"/>
-      <c r="Y54" s="111"/>
-      <c r="Z54" s="111"/>
-      <c r="AA54" s="111"/>
-      <c r="AB54" s="111"/>
-      <c r="AC54" s="111"/>
-      <c r="AD54" s="111"/>
-      <c r="AE54" s="111"/>
-      <c r="AF54" s="111"/>
-      <c r="AG54" s="111"/>
-      <c r="AH54" s="111"/>
-      <c r="AI54" s="111"/>
-      <c r="AJ54" s="111"/>
-      <c r="AK54" s="111"/>
-      <c r="AL54" s="111"/>
-      <c r="AM54" s="111"/>
-      <c r="AN54" s="111"/>
-      <c r="AO54" s="111"/>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="111"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="111"/>
-      <c r="Y55" s="111"/>
-      <c r="Z55" s="111"/>
-      <c r="AA55" s="111"/>
-      <c r="AB55" s="111"/>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="111"/>
-      <c r="AE55" s="111"/>
-      <c r="AF55" s="111"/>
-      <c r="AG55" s="111"/>
-      <c r="AH55" s="111"/>
-      <c r="AI55" s="111"/>
-      <c r="AJ55" s="111"/>
-      <c r="AK55" s="111"/>
-      <c r="AL55" s="111"/>
-      <c r="AM55" s="111"/>
-      <c r="AN55" s="111"/>
-      <c r="AO55" s="111"/>
+      <c r="W53" s="45"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+      <c r="AC53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3801,6 +3036,7 @@
     <mergeCell ref="Z4:AD4"/>
     <mergeCell ref="AE3:AI3"/>
     <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="F3:L3"/>
@@ -3813,7 +3049,6 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="F20:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3865,11 +3100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3888,44 +3123,44 @@
     <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="98"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>0</v>
@@ -3935,152 +3170,152 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="87" t="s">
+      <c r="D5" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="100" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="101">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+    </row>
+    <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="103">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="89">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
-    </row>
-    <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="93"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="55" t="s">
+      <c r="H7" s="101">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="91">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
-    </row>
-    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="93"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="H8" s="103">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="89">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
-    </row>
-    <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="93"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="55" t="s">
+      <c r="H9" s="101">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="91">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-    </row>
-    <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="93"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="H10" s="103">
+        <v>0.753</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="89">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
-    </row>
-    <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="55" t="s">
+      <c r="H11" s="101">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="91">
-        <v>0.753</v>
-      </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-    </row>
-    <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="93"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="H12" s="103">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="89">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-    </row>
-    <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="16" t="s">
+      <c r="H13" s="101">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="91">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
-    </row>
-    <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="93"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="89">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-    </row>
-    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="88"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="103">
+      <c r="H14" s="105">
         <v>0.99</v>
       </c>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="100" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="36"/>
@@ -4098,9 +3333,9 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4117,9 +3352,9 @@
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4136,11 +3371,11 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
@@ -4153,11 +3388,11 @@
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="6">
         <v>0.49299999999999999</v>
@@ -4170,11 +3405,11 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
@@ -4185,11 +3420,11 @@
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6">
@@ -4200,9 +3435,9 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="88"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
@@ -4215,9 +3450,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93" t="s">
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4234,9 +3469,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -4251,11 +3486,11 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
@@ -4266,11 +3501,11 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="6">
         <v>0.52300000000000002</v>
@@ -4283,11 +3518,11 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
@@ -4298,11 +3533,11 @@
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
@@ -4313,9 +3548,9 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="93"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="93"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
@@ -4328,8 +3563,8 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="93"/>
-      <c r="E30" s="87" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="100" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="36"/>
@@ -4347,9 +3582,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93" t="s">
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -4366,9 +3601,9 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -4383,11 +3618,11 @@
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
@@ -4398,11 +3633,11 @@
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" s="6">
         <v>0.51600000000000001</v>
@@ -4415,11 +3650,11 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6">
@@ -4430,11 +3665,11 @@
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6">
@@ -4445,9 +3680,9 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="88"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="98"/>
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
@@ -4460,9 +3695,9 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93" t="s">
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -4479,9 +3714,9 @@
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -4496,11 +3731,11 @@
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
@@ -4511,11 +3746,11 @@
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" s="6">
         <v>0.51700000000000002</v>
@@ -4528,11 +3763,11 @@
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
@@ -4543,11 +3778,11 @@
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6">
@@ -4558,9 +3793,9 @@
       </c>
     </row>
     <row r="44" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
       <c r="G44" s="16" t="s">
         <v>25</v>
       </c>
@@ -4569,7 +3804,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="J44" s="18">
-        <v>0.95799999999999996</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4584,6 +3819,12 @@
     <mergeCell ref="E30:E44"/>
     <mergeCell ref="F31:F37"/>
     <mergeCell ref="F38:F44"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="H3:J3"/>
@@ -4594,12 +3835,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:J44">
     <cfRule type="colorScale" priority="1">
@@ -4619,11 +3854,1025 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
+  <dimension ref="B1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="101">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+    </row>
+    <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="103">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="101">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="103">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="101">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="103">
+        <v>0.753</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="101">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="103">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="101">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="105">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+    </row>
+    <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="112"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="115">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I16" s="115">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="112"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="112"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="115">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I18" s="115">
+        <v>0.877</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="112"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="112"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="112"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="112"/>
+      <c r="E22" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="112"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="112"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
+        <v>0.623</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="112"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="112"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="112"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="113"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:D28"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D5:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:J28">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280844C2-3C99-714B-A464-4BE510FE45EA}">
+  <dimension ref="B1:O30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="101">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+    </row>
+    <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="103">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="101">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="103">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="101">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="103">
+        <v>0.753</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="101">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="103">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="101">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="105">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+    </row>
+    <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0.52</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="96"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="96"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="96"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="96"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="96"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="96"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="96"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="96"/>
+      <c r="E23" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="58">
+        <v>0.495</v>
+      </c>
+      <c r="I23" s="58">
+        <v>0.495</v>
+      </c>
+      <c r="J23" s="59">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="96"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="96"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="96"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="96"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="96"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="96"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="98"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:D30"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D5:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:J30">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:P27"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4636,16 +4885,10 @@
     <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="12" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4654,388 +4897,383 @@
       <c r="G1" s="7"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+    </row>
+    <row r="2" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="63" t="s">
+    </row>
+    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="105">
-        <v>1</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="81">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="K3" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="79">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="75">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="107"/>
-      <c r="D4" s="105"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="109"/>
+        <v>27</v>
+      </c>
+      <c r="F4" s="110"/>
       <c r="G4" s="16"/>
       <c r="H4" s="62"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="60" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="79">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="107"/>
-      <c r="D5" s="105">
-        <v>2</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="79">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="89">
-        <v>0.99</v>
-      </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-    </row>
-    <row r="6" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="107"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="109"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="16"/>
       <c r="H6" s="62"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="61" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="75">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="62"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="107"/>
-      <c r="D7" s="105">
-        <v>5</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="81">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="107"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="109"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="16"/>
       <c r="H8" s="62"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C9" s="107"/>
-      <c r="D9" s="105">
-        <v>10</v>
+      <c r="D9" s="107" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="81">
-        <v>0.94799999999999995</v>
+        <v>26</v>
+      </c>
+      <c r="F9" s="79">
+        <v>0.98699999999999999</v>
       </c>
       <c r="H9" s="25"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="107"/>
-      <c r="D10" s="105"/>
+    </row>
+    <row r="10" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="109"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="110"/>
       <c r="G10" s="16"/>
       <c r="H10" s="62"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="107"/>
-      <c r="D11" s="105">
-        <v>20</v>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="81">
-        <v>0.93400000000000005</v>
+        <v>26</v>
+      </c>
+      <c r="F11" s="79">
+        <v>0.71499999999999997</v>
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="108"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="81"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="107" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="110"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="107"/>
       <c r="D13" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="79">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="105">
+        <v>0.99</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="109"/>
+        <v>27</v>
+      </c>
+      <c r="F14" s="103"/>
       <c r="G14" s="16"/>
       <c r="H14" s="62"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="107"/>
-      <c r="D15" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="81">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="62"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="81">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="62"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="107"/>
-      <c r="D19" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="103">
-        <v>0.99</v>
-      </c>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="3:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="62"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="10"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N5:N6"/>
+  <mergeCells count="16">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C13:C16"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -5051,13 +5289,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E8F66-5D13-3D4E-B5CF-24906853BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C79C499-29F9-4147-9661-9BAAB4FE56E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="10460" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="63">
   <si>
     <t>4o-mini</t>
   </si>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>single</t>
+  </si>
+  <si>
+    <t>qwen-plus
+($0.4/M)</t>
+  </si>
+  <si>
+    <t>4o-mini
+($0.15/M)</t>
+  </si>
+  <si>
+    <t>qwen-max
+($1.6/M)</t>
+  </si>
+  <si>
+    <t>4o
+($2.5/M)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +713,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -706,61 +764,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,37 +827,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,26 +857,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,52 +1291,52 @@
       <c r="D3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="N3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="73" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="88" t="s">
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="85" t="s">
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="85" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="87"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="23" t="s">
         <v>22</v>
@@ -1303,7 +1352,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23">
@@ -1312,52 +1361,52 @@
       <c r="D4" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="75" t="s">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="75" t="s">
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="75" t="s">
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="75" t="s">
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="76"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="72"/>
       <c r="AP4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1379,15 +1428,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="27">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1404,8 +1453,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1502,14 +1551,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="70"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1531,7 +1580,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1633,14 +1682,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="70"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="27">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1660,7 +1709,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="26"/>
-      <c r="N7" s="70"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1760,14 +1809,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="29">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1787,7 +1836,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="N8" s="70"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1887,7 +1936,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="83" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="23">
@@ -1896,7 +1945,7 @@
       <c r="D9" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1916,7 +1965,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="26"/>
-      <c r="N9" s="70"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1997,14 +2046,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="16">
         <v>20</v>
       </c>
@@ -2024,7 +2073,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="71"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="16">
         <v>20</v>
       </c>
@@ -2105,22 +2154,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="70"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="27">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="26"/>
       <c r="N11" s="45"/>
       <c r="P11" s="26"/>
@@ -2130,15 +2179,15 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="70"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="27">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2159,14 +2208,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2189,7 +2238,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="83" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23">
@@ -2198,7 +2247,7 @@
       <c r="D14" s="44">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2222,14 +2271,14 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="70"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2252,14 +2301,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="70"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2281,14 +2330,14 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="27">
         <v>0.753</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="16">
         <v>20</v>
       </c>
@@ -2315,22 +2364,22 @@
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="16">
         <v>0.5</v>
       </c>
       <c r="D18" s="29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="88"/>
       <c r="N18" s="45"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
@@ -2339,8 +2388,8 @@
       <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2364,7 +2413,7 @@
       <c r="T19" s="26"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="47">
@@ -2387,7 +2436,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="67"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="47">
         <v>2</v>
       </c>
@@ -2408,7 +2457,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="67"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="47">
         <v>3</v>
       </c>
@@ -2430,7 +2479,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="45"/>
-      <c r="F23" s="67"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="47">
         <v>4</v>
       </c>
@@ -2454,7 +2503,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
-      <c r="F24" s="68"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="46">
         <v>5</v>
       </c>
@@ -3024,18 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -3049,6 +3086,18 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3103,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3125,40 +3174,40 @@
       <c r="B2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
       <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
@@ -3170,152 +3219,152 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="100" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="91">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="96">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="100" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="89" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="91">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="96">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="100" t="s">
+      <c r="D9" s="90"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="89" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="91">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="96">
         <v>0.753</v>
       </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="100" t="s">
+      <c r="D11" s="90"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="89" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="91">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="96">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="100" t="s">
+      <c r="D13" s="90"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="91">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="96"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="93">
         <v>0.99</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="89" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="36"/>
@@ -3333,9 +3382,9 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3352,9 +3401,9 @@
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -3371,13 +3420,15 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>0.54100000000000004</v>
+      </c>
       <c r="I18" s="6">
         <v>0.59599999999999997</v>
       </c>
@@ -3388,9 +3439,9 @@
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3405,13 +3456,15 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <v>0.53300000000000003</v>
+      </c>
       <c r="I20" s="6">
         <v>0.45800000000000002</v>
       </c>
@@ -3420,13 +3473,15 @@
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>0.53</v>
+      </c>
       <c r="I21" s="6">
         <v>0.40200000000000002</v>
       </c>
@@ -3435,13 +3490,15 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="98"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17">
+        <v>0.53800000000000003</v>
+      </c>
       <c r="I22" s="17">
         <v>0.4</v>
       </c>
@@ -3450,9 +3507,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="100" t="s">
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="89" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3469,9 +3526,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3486,13 +3543,15 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6">
+        <v>0.54700000000000004</v>
+      </c>
       <c r="I25" s="6">
         <v>0.60299999999999998</v>
       </c>
@@ -3501,9 +3560,9 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3518,13 +3577,15 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6">
+        <v>0.55200000000000005</v>
+      </c>
       <c r="I27" s="6">
         <v>0.76600000000000001</v>
       </c>
@@ -3533,13 +3594,15 @@
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="I28" s="6">
         <v>0.73899999999999999</v>
       </c>
@@ -3548,13 +3611,15 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="96"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6">
+        <v>0.57899999999999996</v>
+      </c>
       <c r="I29" s="6">
         <v>0.76700000000000002</v>
       </c>
@@ -3563,8 +3628,8 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="96"/>
-      <c r="E30" s="100" t="s">
+      <c r="D30" s="90"/>
+      <c r="E30" s="89" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="36"/>
@@ -3582,9 +3647,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96" t="s">
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3601,9 +3666,9 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3618,13 +3683,15 @@
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="I33" s="6">
         <v>0.60699999999999998</v>
       </c>
@@ -3633,9 +3700,9 @@
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,13 +3717,15 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
       <c r="G35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="I35" s="6">
         <v>0.57499999999999996</v>
       </c>
@@ -3665,13 +3734,15 @@
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6">
+        <v>0.47899999999999998</v>
+      </c>
       <c r="I36" s="6">
         <v>0.59</v>
       </c>
@@ -3680,13 +3751,15 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="98"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="95"/>
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="17">
+        <v>0.51300000000000001</v>
+      </c>
       <c r="I37" s="17">
         <v>0.51400000000000001</v>
       </c>
@@ -3695,9 +3768,9 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="100" t="s">
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="89" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3714,9 +3787,9 @@
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3731,13 +3804,15 @@
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
       <c r="G40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="I40" s="6">
         <v>0.623</v>
       </c>
@@ -3746,9 +3821,9 @@
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
       <c r="G41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3763,13 +3838,15 @@
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6">
+        <v>0.51</v>
+      </c>
       <c r="I42" s="6">
         <v>0.88</v>
       </c>
@@ -3778,13 +3855,15 @@
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
       <c r="G43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6">
+        <v>0.52800000000000002</v>
+      </c>
       <c r="I43" s="6">
         <v>0.81599999999999995</v>
       </c>
@@ -3793,13 +3872,15 @@
       </c>
     </row>
     <row r="44" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="17">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="I44" s="17">
         <v>0.82299999999999995</v>
       </c>
@@ -3809,6 +3890,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D5:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
@@ -3819,22 +3916,6 @@
     <mergeCell ref="E30:E44"/>
     <mergeCell ref="F31:F37"/>
     <mergeCell ref="F38:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D5:E14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:J44">
     <cfRule type="colorScale" priority="1">
@@ -3855,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
-  <dimension ref="B1:J28"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3869,210 +3950,242 @@
     <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="2:12" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="94" t="s">
+      <c r="I4" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="100" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="91">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
-    </row>
-    <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+    </row>
+    <row r="6" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="90"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="96">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-    </row>
-    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="100" t="s">
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="97"/>
+    </row>
+    <row r="7" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="90"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="119">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-    </row>
-    <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="90"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="96">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="100" t="s">
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
+    </row>
+    <row r="9" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="90"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="89" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="91">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
+    </row>
+    <row r="10" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="90"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="96">
         <v>0.753</v>
       </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-    </row>
-    <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="100" t="s">
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+    </row>
+    <row r="11" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="90"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="89" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="91">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+    </row>
+    <row r="12" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="90"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="96">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-    </row>
-    <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="100" t="s">
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+    </row>
+    <row r="13" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="90"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="91">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="1" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+    </row>
+    <row r="14" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="95"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="119">
         <v>0.99</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
-    </row>
-    <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="111" t="s">
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="94"/>
+    </row>
+    <row r="15" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="89" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="23" t="s">
@@ -4084,248 +4197,292 @@
       <c r="I15" s="58">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="58">
         <v>0.94599999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="112"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="114" t="s">
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="108"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="120">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="120">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="120">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="112"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="114" t="s">
+      <c r="K16" s="120"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="108"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115">
+      <c r="H17" s="120">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I17" s="120">
         <v>0.60299999999999998</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="120">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="112"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="114" t="s">
+      <c r="K17" s="120"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="108"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="115">
+      <c r="H18" s="120">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I18" s="115">
+      <c r="I18" s="120">
         <v>0.877</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="120">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="112"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="114" t="s">
+      <c r="K18" s="120"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="108"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115">
+      <c r="H19" s="120">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I19" s="120">
         <v>0.76600000000000001</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="120">
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="112"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="114" t="s">
+      <c r="K19" s="120"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="108"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115">
+      <c r="H20" s="120">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I20" s="120">
         <v>0.73899999999999999</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="120">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="112"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="108"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17">
+        <v>0.57899999999999996</v>
+      </c>
       <c r="I21" s="17">
         <v>0.76700000000000002</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <v>0.95099999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="112"/>
-      <c r="E22" s="96" t="s">
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="108"/>
+      <c r="E22" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="F22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="58">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="58">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="58">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="112"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="1" t="s">
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="108"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="120">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="120">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="120">
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="112"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="1" t="s">
+      <c r="K23" s="120"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="108"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6">
+      <c r="H24" s="120">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I24" s="120">
         <v>0.623</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="120">
         <v>0.71199999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="112"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="1" t="s">
+      <c r="K24" s="120"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="108"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="120">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="120">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="120">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="112"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="1" t="s">
+      <c r="K25" s="120"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="108"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6">
+      <c r="H26" s="120">
+        <v>0.51</v>
+      </c>
+      <c r="I26" s="120">
         <v>0.88</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="120">
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="112"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="1" t="s">
+      <c r="K26" s="120"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="108"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6">
+      <c r="H27" s="120">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I27" s="120">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="120">
         <v>0.93899999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="113"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="109"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="17">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="I28" s="17">
         <v>0.82299999999999995</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="17">
         <v>0.97799999999999998</v>
       </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="D5:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="D15:D28"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="E22:E28"/>
     <mergeCell ref="F22:F28"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D5:E14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:J28">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="H5:L28">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4345,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280844C2-3C99-714B-A464-4BE510FE45EA}">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4357,8 +4514,8 @@
     <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -4367,197 +4524,197 @@
       <c r="B2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="99"/>
+      <c r="J3" s="102"/>
+    </row>
+    <row r="4" spans="2:10" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="123"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>19</v>
+      <c r="I4" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="127" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="100" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="91">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="96">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="100" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="89" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="91">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="96">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="100" t="s">
+      <c r="D9" s="90"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="89" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="91">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="96">
         <v>0.753</v>
       </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="100" t="s">
+      <c r="D11" s="90"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="89" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="91">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="96">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="100" t="s">
+      <c r="D13" s="90"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="91">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="96"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="93">
         <v>0.99</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="107" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="36"/>
@@ -4575,9 +4732,9 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="96"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="96" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="90" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4594,9 +4751,9 @@
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="96"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="96"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4613,13 +4770,15 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="96"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="96"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>0.54100000000000004</v>
+      </c>
       <c r="I18" s="6">
         <v>0.59599999999999997</v>
       </c>
@@ -4630,9 +4789,9 @@
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="96"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="96"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4647,13 +4806,15 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="96"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <v>0.53300000000000003</v>
+      </c>
       <c r="I20" s="6">
         <v>0.45800000000000002</v>
       </c>
@@ -4662,13 +4823,15 @@
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="96"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="96"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>0.53</v>
+      </c>
       <c r="I21" s="6">
         <v>0.40200000000000002</v>
       </c>
@@ -4677,13 +4840,15 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="96"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="98"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17">
+        <v>0.53800000000000003</v>
+      </c>
       <c r="I22" s="17">
         <v>0.4</v>
       </c>
@@ -4692,8 +4857,8 @@
       </c>
     </row>
     <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="96"/>
-      <c r="E23" s="111" t="s">
+      <c r="D23" s="90"/>
+      <c r="E23" s="107" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="36"/>
@@ -4711,9 +4876,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="96"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="96" t="s">
+      <c r="D24" s="90"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="90" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4730,9 +4895,9 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="96"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="96"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
@@ -4747,13 +4912,15 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="96"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="96"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="I26" s="6">
         <v>0.60699999999999998</v>
       </c>
@@ -4762,9 +4929,9 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="96"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
@@ -4779,13 +4946,15 @@
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="96"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="96"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="I28" s="6">
         <v>0.57499999999999996</v>
       </c>
@@ -4794,13 +4963,15 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="96"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="96"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6">
+        <v>0.47899999999999998</v>
+      </c>
       <c r="I29" s="6">
         <v>0.59</v>
       </c>
@@ -4809,13 +4980,15 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="98"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="98"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="17">
+        <v>0.51300000000000001</v>
+      </c>
       <c r="I30" s="17">
         <v>0.51400000000000001</v>
       </c>
@@ -4825,20 +4998,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="D15:D30"/>
-    <mergeCell ref="E15:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="H3:J3"/>
@@ -4849,9 +5008,23 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:D30"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="F24:F30"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:J30">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4872,7 +5045,7 @@
   <dimension ref="B1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4901,7 +5074,7 @@
     <row r="2" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="110"/>
-      <c r="D2" s="116"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="63" t="s">
         <v>57</v>
       </c>
@@ -4916,24 +5089,24 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="114" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="71">
         <v>0.65400000000000003</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="61" t="s">
         <v>27</v>
       </c>
@@ -4942,21 +5115,21 @@
       <c r="H4" s="62"/>
     </row>
     <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="76">
         <v>0.94799999999999995</v>
       </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="61" t="s">
         <v>27</v>
       </c>
@@ -4965,24 +5138,24 @@
       <c r="H6" s="62"/>
     </row>
     <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="112" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="71">
         <v>0.73499999999999999</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="61" t="s">
         <v>27</v>
       </c>
@@ -4991,21 +5164,21 @@
       <c r="H8" s="62"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="107"/>
-      <c r="D9" s="107" t="s">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="76">
         <v>0.98699999999999999</v>
       </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="61" t="s">
         <v>27</v>
       </c>
@@ -5014,23 +5187,23 @@
       <c r="H10" s="62"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="112" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="76">
         <v>0.71499999999999997</v>
       </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="61" t="s">
         <v>27</v>
       </c>
@@ -5039,25 +5212,25 @@
       <c r="H12" s="62"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="107"/>
-      <c r="D13" s="107" t="s">
+      <c r="C13" s="112"/>
+      <c r="D13" s="112" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="93">
         <v>0.99</v>
       </c>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="103"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="16"/>
       <c r="H14" s="62"/>
     </row>
@@ -5272,7 +5445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -5289,13 +5462,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3EEA09-2137-F841-8C20-800AB44F0776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2350F-3B96-6D4C-A56C-D968D8F39FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="10460" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>all</t>
-  </si>
-  <si>
-    <t>zs-all</t>
-  </si>
-  <si>
-    <t>fs-all</t>
   </si>
   <si>
     <t>area</t>
@@ -196,13 +190,7 @@
     <t>comb (d, m)</t>
   </si>
   <si>
-    <t>heuristics</t>
-  </si>
-  <si>
     <t>llama3 (7b)</t>
-  </si>
-  <si>
-    <t>method</t>
   </si>
   <si>
     <t>single</t>
@@ -298,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -459,21 +447,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -506,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,18 +653,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -788,10 +749,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,47 +797,29 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1268,57 +1211,57 @@
         <v>3</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="N3" s="76" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="N3" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="77" t="s">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="92" t="s">
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="91"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="87"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1330,11 +1273,11 @@
         <v>21</v>
       </c>
       <c r="AT3" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1343,52 +1286,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="79" t="s">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="79" t="s">
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="79" t="s">
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="79" t="s">
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="80"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="76"/>
       <c r="AP4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1410,15 +1353,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1435,8 +1378,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1533,14 +1476,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="74"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="70" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1562,7 +1505,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="70" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1664,14 +1607,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="74"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1691,7 +1634,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="74"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1791,14 +1734,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1818,7 +1761,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="74"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1918,7 +1861,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1927,7 +1870,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1947,7 +1890,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="74"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -2028,14 +1971,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -2055,7 +1998,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="75"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2136,22 +2079,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="74"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79" t="s">
+      <c r="F11" s="77"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2161,15 +2104,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="74"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2190,14 +2133,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="70" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2220,7 +2163,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2229,7 +2172,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2253,14 +2196,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="74"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2283,14 +2226,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="74"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="74"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2312,14 +2255,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2346,22 +2289,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="88"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="84"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2370,8 +2313,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2395,7 +2338,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2418,7 +2361,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="71"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2439,7 +2382,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="71"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2461,7 +2404,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="71"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2485,7 +2428,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="72"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2599,24 +2542,24 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B31" s="63"/>
+      <c r="B31" s="59"/>
       <c r="D31" s="25"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -2654,7 +2597,7 @@
       <c r="AN31" s="10"/>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B32" s="63"/>
+      <c r="B32" s="59"/>
       <c r="D32" s="25"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -2663,16 +2606,16 @@
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B33" s="63"/>
+      <c r="B33" s="59"/>
       <c r="D33" s="25"/>
-      <c r="F33" s="63"/>
+      <c r="F33" s="59"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="63"/>
+      <c r="N33" s="59"/>
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
@@ -2700,16 +2643,16 @@
       <c r="AN33" s="49"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B34" s="63"/>
+      <c r="B34" s="59"/>
       <c r="D34" s="25"/>
-      <c r="F34" s="63"/>
+      <c r="F34" s="59"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="63"/>
+      <c r="N34" s="59"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="39"/>
       <c r="R34" s="39"/>
@@ -2737,16 +2680,16 @@
       <c r="AN34" s="49"/>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B35" s="63"/>
+      <c r="B35" s="59"/>
       <c r="D35" s="25"/>
-      <c r="F35" s="63"/>
+      <c r="F35" s="59"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="63"/>
+      <c r="N35" s="59"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
@@ -2774,16 +2717,16 @@
       <c r="AN35" s="49"/>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B36" s="63"/>
+      <c r="B36" s="59"/>
       <c r="D36" s="25"/>
-      <c r="F36" s="63"/>
+      <c r="F36" s="59"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="63"/>
+      <c r="N36" s="59"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
@@ -2811,16 +2754,16 @@
       <c r="AN36" s="49"/>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B37" s="63"/>
+      <c r="B37" s="59"/>
       <c r="D37" s="25"/>
-      <c r="F37" s="63"/>
+      <c r="F37" s="59"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="63"/>
+      <c r="N37" s="59"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
@@ -2848,7 +2791,7 @@
       <c r="AN37" s="49"/>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B38" s="63"/>
+      <c r="B38" s="59"/>
       <c r="D38" s="25"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -2866,7 +2809,7 @@
       <c r="T38" s="25"/>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B39" s="63"/>
+      <c r="B39" s="59"/>
       <c r="D39" s="25"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -2875,9 +2818,9 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B40" s="63"/>
+      <c r="B40" s="59"/>
       <c r="D40" s="25"/>
-      <c r="F40" s="63"/>
+      <c r="F40" s="59"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
@@ -2885,9 +2828,9 @@
       <c r="L40" s="39"/>
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B41" s="63"/>
+      <c r="B41" s="59"/>
       <c r="D41" s="25"/>
-      <c r="F41" s="63"/>
+      <c r="F41" s="59"/>
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
@@ -2898,9 +2841,9 @@
       <c r="O41" s="25"/>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B42" s="63"/>
+      <c r="B42" s="59"/>
       <c r="D42" s="25"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="59"/>
       <c r="H42" s="39"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
@@ -2909,9 +2852,9 @@
       <c r="M42" s="25"/>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B43" s="63"/>
+      <c r="B43" s="59"/>
       <c r="D43" s="25"/>
-      <c r="F43" s="63"/>
+      <c r="F43" s="59"/>
       <c r="H43" s="39"/>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
@@ -2920,9 +2863,9 @@
       <c r="M43" s="25"/>
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B44" s="63"/>
+      <c r="B44" s="59"/>
       <c r="D44" s="25"/>
-      <c r="F44" s="63"/>
+      <c r="F44" s="59"/>
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
@@ -2936,15 +2879,15 @@
       <c r="T44" s="25"/>
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B45" s="63"/>
+      <c r="B45" s="59"/>
       <c r="D45" s="25"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
       <c r="N45" s="44"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
@@ -2953,8 +2896,8 @@
       <c r="T45" s="25"/>
     </row>
     <row r="46" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
       <c r="N46" s="44"/>
       <c r="P46" s="25"/>
       <c r="Q46" s="25"/>
@@ -2963,7 +2906,7 @@
       <c r="T46" s="25"/>
     </row>
     <row r="47" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F47" s="65"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="46"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
@@ -2972,7 +2915,7 @@
       <c r="L47" s="39"/>
     </row>
     <row r="48" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F48" s="65"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="46"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
@@ -2981,7 +2924,7 @@
       <c r="L48" s="47"/>
     </row>
     <row r="49" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F49" s="65"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="46"/>
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
@@ -2991,7 +2934,7 @@
     </row>
     <row r="50" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D50" s="44"/>
-      <c r="F50" s="65"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="46"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
@@ -3003,7 +2946,7 @@
     </row>
     <row r="51" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D51" s="44"/>
-      <c r="F51" s="65"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="46"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
@@ -3134,7 +3077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -3154,193 +3097,193 @@
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="97"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="68" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>55</v>
+      <c r="J3" s="66" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="100" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="105">
+        <v>36</v>
+      </c>
+      <c r="H4" s="101">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="107">
+        <v>37</v>
+      </c>
+      <c r="H5" s="103">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="105">
+        <v>38</v>
+      </c>
+      <c r="H6" s="101">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="107">
+        <v>39</v>
+      </c>
+      <c r="H7" s="103">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="104" t="s">
-        <v>25</v>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="100" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="105">
+        <v>40</v>
+      </c>
+      <c r="H8" s="101">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="103">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="101">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="107">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-    </row>
-    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="H11" s="103">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+    </row>
+    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="105">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
-    </row>
-    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="15" t="s">
+      <c r="H12" s="101">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="107">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="105">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
-    </row>
-    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="109">
+      <c r="H13" s="105">
         <v>0.99</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="104" t="s">
+      <c r="D14" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="100" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3358,9 +3301,9 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3377,9 +3320,9 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3396,11 +3339,11 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6">
         <v>0.52800000000000002</v>
@@ -3415,11 +3358,11 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6">
         <v>0.49299999999999999</v>
@@ -3432,11 +3375,11 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="6">
         <v>0.505</v>
@@ -3449,11 +3392,11 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="6">
         <v>0.53600000000000003</v>
@@ -3466,9 +3409,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3483,9 +3426,9 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="104" t="s">
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3502,9 +3445,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3519,11 +3462,11 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H24" s="6">
         <v>0.56999999999999995</v>
@@ -3536,11 +3479,11 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="6">
         <v>0.52300000000000002</v>
@@ -3553,11 +3496,11 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" s="6">
         <v>0.56100000000000005</v>
@@ -3570,11 +3513,11 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H27" s="6">
         <v>0.55100000000000005</v>
@@ -3587,9 +3530,9 @@
       </c>
     </row>
     <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="100"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
       <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
@@ -3604,8 +3547,8 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="100"/>
-      <c r="E29" s="104" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="100" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -3623,9 +3566,9 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3642,9 +3585,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3659,11 +3602,11 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32" s="6">
         <v>0.48599999999999999</v>
@@ -3676,11 +3619,11 @@
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
       <c r="G33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="6">
         <v>0.51600000000000001</v>
@@ -3693,11 +3636,11 @@
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H34" s="6">
         <v>0.45900000000000002</v>
@@ -3710,11 +3653,11 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" s="6">
         <v>0.47399999999999998</v>
@@ -3727,9 +3670,9 @@
       </c>
     </row>
     <row r="36" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="102"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="98"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -3744,9 +3687,9 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="104" t="s">
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3763,9 +3706,9 @@
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -3780,11 +3723,11 @@
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
       <c r="G39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H39" s="6">
         <v>0.505</v>
@@ -3797,11 +3740,11 @@
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H40" s="6">
         <v>0.51700000000000002</v>
@@ -3814,11 +3757,11 @@
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H41" s="6">
         <v>0.47899999999999998</v>
@@ -3831,11 +3774,11 @@
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H42" s="6">
         <v>0.49</v>
@@ -3848,9 +3791,9 @@
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -3866,7 +3809,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="D14:D43"/>
@@ -3891,6 +3833,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:J43">
     <cfRule type="colorScale" priority="1">
@@ -3913,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3935,222 +3878,222 @@
     <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="97"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="2:12" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="67" t="s">
-        <v>58</v>
+      <c r="J3" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="100" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="105">
+        <v>36</v>
+      </c>
+      <c r="H4" s="101">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="106"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="107">
+        <v>37</v>
+      </c>
+      <c r="H5" s="103">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="96" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="109">
+        <v>38</v>
+      </c>
+      <c r="H6" s="105">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="103">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
+    </row>
+    <row r="8" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="101">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+    </row>
+    <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="107">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="108"/>
-    </row>
-    <row r="8" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="H9" s="103">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+    </row>
+    <row r="10" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="105">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
-    </row>
-    <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="54" t="s">
+      <c r="H10" s="101">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+    </row>
+    <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="107">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
-    </row>
-    <row r="10" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="H11" s="103">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
+    </row>
+    <row r="12" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="105">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
-    </row>
-    <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="15" t="s">
+      <c r="H12" s="101">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="107">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-    </row>
-    <row r="12" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="105">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="106"/>
-    </row>
-    <row r="13" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="109">
+      <c r="H13" s="105">
         <v>0.99</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="106"/>
     </row>
     <row r="14" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="100" t="s">
+      <c r="D14" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -4169,104 +4112,104 @@
       <c r="L14" s="58"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="112"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121" t="s">
+      <c r="D15" s="110"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="6">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I15" s="122">
+      <c r="I15" s="6">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="6">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K15" s="122"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="112"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="122">
+      <c r="D16" s="110"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I16" s="122">
+      <c r="I16" s="6">
         <v>0.60299999999999998</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="6">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K16" s="122"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="112"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="121" t="s">
+      <c r="D17" s="110"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.877</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="110"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="110"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="122">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="I17" s="122">
-        <v>0.877</v>
-      </c>
-      <c r="J17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="122"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="112"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="122">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="I18" s="122">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="J18" s="122">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="K18" s="122"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="112"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="122">
+      <c r="H19" s="6">
         <v>0.55100000000000005</v>
       </c>
-      <c r="I19" s="122">
+      <c r="I19" s="6">
         <v>0.73899999999999999</v>
       </c>
-      <c r="J19" s="122">
+      <c r="J19" s="6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="K19" s="122"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="112"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
@@ -4283,32 +4226,32 @@
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="112"/>
-      <c r="E21" s="100" t="s">
+      <c r="D21" s="110"/>
+      <c r="E21" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="121" t="s">
+      <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I21" s="122">
+      <c r="I21" s="6">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J21" s="122">
+      <c r="J21" s="6">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K21" s="122"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="112"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
@@ -4325,11 +4268,11 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="112"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="6">
         <v>0.505</v>
@@ -4344,11 +4287,11 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="112"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" s="6">
         <v>0.51700000000000002</v>
@@ -4363,11 +4306,11 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="112"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H25" s="6">
         <v>0.47899999999999998</v>
@@ -4382,11 +4325,11 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="112"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" s="6">
         <v>0.49</v>
@@ -4401,9 +4344,9 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="113"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="15" t="s">
         <v>22</v>
       </c>
@@ -4421,7 +4364,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="D14:D27"/>
@@ -4444,6 +4386,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L27">
     <cfRule type="colorScale" priority="1">
@@ -4467,7 +4410,7 @@
   <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4486,197 +4429,197 @@
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="97"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="68" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>55</v>
+      <c r="J3" s="66" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="100" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="105">
+        <v>36</v>
+      </c>
+      <c r="H4" s="101">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="107">
+        <v>37</v>
+      </c>
+      <c r="H5" s="103">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="105">
+        <v>38</v>
+      </c>
+      <c r="H6" s="101">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="103">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="101">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="107">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="H9" s="103">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="105">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-    </row>
-    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="54" t="s">
+      <c r="H10" s="101">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="107">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-    </row>
-    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="H11" s="103">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+    </row>
+    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="105">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
-    </row>
-    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="15" t="s">
+      <c r="H12" s="101">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="107">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="105">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
-    </row>
-    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="109">
+      <c r="H13" s="105">
         <v>0.99</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="111" t="s">
+      <c r="D14" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="79"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="57">
         <v>0.52</v>
       </c>
@@ -4688,9 +4631,9 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="100"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="100" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="96" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -4707,9 +4650,9 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="100"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="100"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4726,11 +4669,11 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="100"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="100"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6">
         <v>0.52800000000000002</v>
@@ -4745,11 +4688,11 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="100"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="100"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6">
         <v>0.49299999999999999</v>
@@ -4762,11 +4705,11 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="100"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="100"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="6">
         <v>0.505</v>
@@ -4779,11 +4722,11 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="100"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="6">
         <v>0.53600000000000003</v>
@@ -4796,9 +4739,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="100"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -4813,14 +4756,14 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="100"/>
-      <c r="E22" s="111" t="s">
+      <c r="D22" s="96"/>
+      <c r="E22" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="79"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="57">
         <v>0.495</v>
       </c>
@@ -4832,9 +4775,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="100"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="100" t="s">
+      <c r="D23" s="96"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="96" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4851,9 +4794,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="100"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="100"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -4868,11 +4811,11 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="100"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="100"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H25" s="6">
         <v>0.48599999999999999</v>
@@ -4885,11 +4828,11 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="100"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="100"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="6">
         <v>0.51600000000000001</v>
@@ -4902,11 +4845,11 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="100"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="100"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H27" s="6">
         <v>0.45900000000000002</v>
@@ -4919,11 +4862,11 @@
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="100"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="100"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="6">
         <v>0.47399999999999998</v>
@@ -4936,9 +4879,9 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="102"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="102"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="98"/>
       <c r="G29" s="15" t="s">
         <v>22</v>
       </c>
@@ -4954,7 +4897,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="D14:D29"/>
@@ -4979,6 +4921,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:J29">
     <cfRule type="colorScale" priority="1">
@@ -4999,26 +4942,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5028,216 +4971,183 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="2:10" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="40" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="124" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="120" t="s">
+      <c r="H2" s="113"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="79">
+      <c r="E3" s="5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="118"/>
-      <c r="D5" s="118" t="s">
+      <c r="H3" s="113"/>
+    </row>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="79"/>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83">
+      <c r="E4" s="5">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="61"/>
-    </row>
-    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="118" t="s">
+      <c r="H4" s="113"/>
+    </row>
+    <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="79">
+      <c r="E5" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="118"/>
-      <c r="D9" s="118" t="s">
+      <c r="H5" s="113"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="79"/>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="83">
+      <c r="E6" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="118" t="s">
+      <c r="H6" s="113"/>
+    </row>
+    <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="83">
+      <c r="E7" s="47">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="116"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="118"/>
-      <c r="D13" s="118" t="s">
+      <c r="H7" s="113"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="79"/>
+      <c r="D8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="109">
+      <c r="E8" s="47">
         <v>0.99</v>
       </c>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
+      <c r="H8" s="113"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
@@ -5375,23 +5285,11 @@
       <c r="H35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="4">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5419,13 +5317,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2350F-3B96-6D4C-A56C-D968D8F39FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6515E-AA3C-1A49-B961-0E919ABB4742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
     <sheet name="llm (all)" sheetId="13" r:id="rId2"/>
-    <sheet name="llm (main)" sheetId="11" r:id="rId3"/>
-    <sheet name="llm (ablation)" sheetId="12" r:id="rId4"/>
-    <sheet name="llm-correction" sheetId="9" r:id="rId5"/>
-    <sheet name="weak-ft" sheetId="8" r:id="rId6"/>
+    <sheet name="llm-correction" sheetId="9" r:id="rId3"/>
+    <sheet name="weak-ft" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -286,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -437,49 +435,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,12 +623,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,6 +632,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -686,62 +686,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,62 +743,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,49 +1162,49 @@
       <c r="F3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
       <c r="N3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="73" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="88" t="s">
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="85" t="s">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="85" t="s">
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="87"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="78"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1277,7 +1220,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1286,52 +1229,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="75" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="75" t="s">
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="75" t="s">
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="75" t="s">
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="76"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="71"/>
       <c r="AP4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1353,15 +1296,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1378,8 +1321,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1476,14 +1419,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="70"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1505,7 +1448,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1607,14 +1550,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="70"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1634,7 +1577,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="70"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1734,14 +1677,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1761,7 +1704,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="70"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1861,7 +1804,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1870,7 +1813,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1890,7 +1833,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="70"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1971,14 +1914,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1998,7 +1941,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="71"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2079,22 +2022,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="70"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2104,15 +2047,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="70"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2133,14 +2076,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2163,7 +2106,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2172,7 +2115,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2196,14 +2139,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="70"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2226,14 +2169,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="70"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2255,14 +2198,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2289,22 +2232,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81" t="s">
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="87"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2313,8 +2256,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2338,7 +2281,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="80" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2361,7 +2304,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="67"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2382,7 +2325,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="67"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2404,7 +2347,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="67"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2428,7 +2371,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="68"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2998,18 +2941,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -3023,6 +2954,18 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3075,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
-  <dimension ref="B1:O43"/>
+  <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3091,199 +3034,233 @@
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="99"/>
+    </row>
+    <row r="3" spans="2:17" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="64" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="63" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="100" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="94" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="88">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+    </row>
+    <row r="5" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="104">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="104"/>
-    </row>
-    <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
+    </row>
+    <row r="6" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="100" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="94" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="88">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-    </row>
-    <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+    </row>
+    <row r="7" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="104">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
+    </row>
+    <row r="8" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="100" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="94" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="88">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-    </row>
-    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="56"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="104">
         <v>0.753</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="100" t="s">
+      <c r="K9" s="104"/>
+      <c r="L9" s="105"/>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="92"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="94" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="88">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="92"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H11" s="104">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="103"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="100" t="s">
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="92"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="94" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="88">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="96"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+    </row>
+    <row r="13" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="93"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="105">
+      <c r="H13" s="90">
         <v>0.99</v>
       </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106"/>
-    </row>
-    <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="96" t="s">
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
+    </row>
+    <row r="14" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="94" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3296,122 +3273,150 @@
       <c r="I14" s="57">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="57">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96" t="s">
+      <c r="K14" s="57"/>
+      <c r="L14" s="58">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="108">
         <v>0.52</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="108">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="108">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="1" t="s">
+      <c r="K15" s="108"/>
+      <c r="L15" s="14">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="108">
         <v>0.51800000000000002</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="108">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="108">
         <v>0.60899999999999999</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="1" t="s">
+      <c r="K16" s="108"/>
+      <c r="L16" s="14">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="108">
         <v>0.52800000000000002</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="108">
         <v>0.59599999999999997</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="108">
         <v>0.60299999999999998</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="1" t="s">
+      <c r="K17" s="108"/>
+      <c r="L17" s="14">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="108">
         <v>0.49299999999999999</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="108">
         <v>0.47899999999999998</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="108">
         <v>0.67600000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="1" t="s">
+      <c r="K18" s="108"/>
+      <c r="L18" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="108">
         <v>0.505</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="108">
         <v>0.45800000000000002</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="108">
         <v>0.66900000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="1" t="s">
+      <c r="K19" s="108"/>
+      <c r="L19" s="14">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="108">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="108">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="108">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="98"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3421,134 +3426,166 @@
       <c r="I21" s="16">
         <v>0.4</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>0.70499999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="100" t="s">
+      <c r="K21" s="16"/>
+      <c r="L21" s="17">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="57">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="57">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="57">
         <v>0.94599999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="1" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="58">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="108">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="108">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="108">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="1" t="s">
+      <c r="K23" s="108"/>
+      <c r="L23" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="108">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="108">
         <v>0.60299999999999998</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="108">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="1" t="s">
+      <c r="K24" s="108"/>
+      <c r="L24" s="14">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="108">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="108">
         <v>0.877</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="108">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="1" t="s">
+      <c r="K25" s="108"/>
+      <c r="L25" s="14">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="108">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="108">
         <v>0.76600000000000001</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="108">
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="1" t="s">
+      <c r="K26" s="108"/>
+      <c r="L26" s="14">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="108">
         <v>0.55100000000000005</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="108">
         <v>0.73899999999999999</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="108">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="96"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="1" t="s">
+      <c r="K27" s="108"/>
+      <c r="L27" s="14">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="16">
         <v>0.56299999999999994</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="16">
         <v>0.76700000000000002</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="16">
         <v>0.95099999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="96"/>
-      <c r="E29" s="100" t="s">
+      <c r="K28" s="16"/>
+      <c r="L28" s="17">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="92"/>
+      <c r="E29" s="94" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -3561,118 +3598,146 @@
       <c r="I29" s="57">
         <v>0.495</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="57">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96" t="s">
+      <c r="K29" s="57"/>
+      <c r="L29" s="58">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="108">
         <v>0.47199999999999998</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="108">
         <v>0.58899999999999997</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="108">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="1" t="s">
+      <c r="K30" s="108"/>
+      <c r="L30" s="14">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="108">
         <v>0.52600000000000002</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="108">
         <v>0.51200000000000001</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="108">
         <v>0.67900000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="1" t="s">
+      <c r="K31" s="108"/>
+      <c r="L31" s="14">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="108">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="108">
         <v>0.60699999999999998</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="108">
         <v>0.64400000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="1" t="s">
+      <c r="K32" s="108"/>
+      <c r="L32" s="14">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="108">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="108">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="108">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="1" t="s">
+      <c r="K33" s="108"/>
+      <c r="L33" s="14">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="108">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="108">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="108">
         <v>0.65500000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="1" t="s">
+      <c r="K34" s="108"/>
+      <c r="L34" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="108">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="108">
         <v>0.59</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="108">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="98"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="14">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -3682,118 +3747,146 @@
       <c r="I36" s="16">
         <v>0.51400000000000001</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="16">
         <v>0.65300000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="4:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="100" t="s">
+      <c r="K36" s="16"/>
+      <c r="L36" s="17">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="108">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="108">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="108">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="1" t="s">
+      <c r="K37" s="108"/>
+      <c r="L37" s="14">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="108">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="108">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="108">
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="1" t="s">
+      <c r="K38" s="108"/>
+      <c r="L38" s="14">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="108">
         <v>0.505</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="108">
         <v>0.623</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="108">
         <v>0.71199999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="1" t="s">
+      <c r="K39" s="108"/>
+      <c r="L39" s="14">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="108">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="108">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="108">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="1" t="s">
+      <c r="K40" s="108"/>
+      <c r="L40" s="14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="108">
         <v>0.47899999999999998</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="108">
         <v>0.88</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="108">
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="1" t="s">
+      <c r="K41" s="108"/>
+      <c r="L41" s="14">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="108">
         <v>0.49</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="108">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="108">
         <v>0.93899999999999995</v>
       </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="14">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -3803,14 +3896,34 @@
       <c r="I43" s="16">
         <v>0.82299999999999995</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="16">
         <v>0.97799999999999998</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17">
+        <v>0.95299999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D4:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="D14:D43"/>
     <mergeCell ref="E14:E28"/>
     <mergeCell ref="F15:F21"/>
@@ -3818,24 +3931,8 @@
     <mergeCell ref="E29:E43"/>
     <mergeCell ref="F30:F36"/>
     <mergeCell ref="F37:F43"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:J43">
+  <conditionalFormatting sqref="H4:L43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3853,1099 +3950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F86A2A-D998-CC47-8A5B-54DB70D4D65B}">
-  <dimension ref="B1:L27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="93"/>
-    </row>
-    <row r="3" spans="2:12" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="101">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-    </row>
-    <row r="5" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="103">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
-    </row>
-    <row r="6" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="105">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
-    </row>
-    <row r="7" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="103">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104"/>
-    </row>
-    <row r="8" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="101">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-    </row>
-    <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="103">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-    </row>
-    <row r="10" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="101">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-    </row>
-    <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="103">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-    </row>
-    <row r="12" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="101">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102"/>
-    </row>
-    <row r="13" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="105">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="106"/>
-    </row>
-    <row r="14" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="57">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I14" s="57">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="J14" s="57">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="110"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="110"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="110"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.877</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="110"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="110"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="110"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="110"/>
-      <c r="E21" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="110"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="110"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.623</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="110"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="110"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="110"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="111"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D27"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="F12:F13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H4:L27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280844C2-3C99-714B-A464-4BE510FE45EA}">
-  <dimension ref="B1:O29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="101">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="103">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-    </row>
-    <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="101">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-    </row>
-    <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="103">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="101">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-    </row>
-    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="103">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="101">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="103">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="101">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="105">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106"/>
-    </row>
-    <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="57">
-        <v>0.52</v>
-      </c>
-      <c r="I14" s="57">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J14" s="58">
-        <v>0.60299999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="96"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="96"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="96"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="96"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="96"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="96"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="96"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.70499999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="96"/>
-      <c r="E22" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="I22" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="J22" s="58">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="96"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="96"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="J24" s="14">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="96"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="J25" s="14">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="96"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="J26" s="14">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="96"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J27" s="14">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="96"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="98"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:D29"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F12:F13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H4:J29">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
   <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4973,22 +3982,22 @@
     </row>
     <row r="2" spans="2:11" ht="40" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="112" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="113"/>
+      <c r="H2" s="10"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="75" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4997,20 +4006,32 @@
       <c r="E3" s="5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="H3" s="113"/>
+      <c r="G3" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H3" s="10">
+        <f>(G3-E3)/E3</f>
+        <v>0.35626911314984705</v>
+      </c>
     </row>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="79"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H4" s="113"/>
+      <c r="G4" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H7" si="0">(G4-E4)/E4</f>
+        <v>6.3291139240506389E-3</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -5019,20 +4040,32 @@
       <c r="E5" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="H5" s="113"/>
+      <c r="G5" s="1">
+        <v>0.877</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19319727891156466</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="79"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="G6" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.0790273556231055E-3</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="75" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -5041,65 +4074,71 @@
       <c r="E7" s="47">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H7" s="113"/>
+      <c r="G7" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20419580419580424</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="79"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="47">
         <v>0.99</v>
       </c>
-      <c r="H8" s="113"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C15" s="59"/>
@@ -5296,7 +4335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -5320,10 +4359,10 @@
       <c r="B2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6515E-AA3C-1A49-B961-0E919ABB4742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386AD35D-0FD4-C64B-855B-A59C6EDF17B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -440,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,12 +635,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,9 +665,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,6 +674,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,92 +701,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,52 +1153,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="N3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="68" t="s">
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="79" t="s">
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="76" t="s">
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="76" t="s">
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="86"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1220,7 +1214,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1229,52 +1223,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="70" t="s">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="70" t="s">
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="70" t="s">
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="70" t="s">
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="71"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="75"/>
       <c r="AP4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1296,15 +1290,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1321,8 +1315,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1419,14 +1413,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="66"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="69" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1448,7 +1442,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="69" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1550,14 +1544,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="66"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="66"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1677,14 +1671,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1704,7 +1698,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="66"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1804,7 +1798,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1813,7 +1807,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1833,7 +1827,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="66"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1914,14 +1908,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1941,7 +1935,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="67"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2022,22 +2016,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="66"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2047,15 +2041,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2076,14 +2070,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="69" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2106,7 +2100,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2115,7 +2109,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2139,14 +2133,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="66"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2169,14 +2163,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="66"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2198,14 +2192,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2232,22 +2226,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="87"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2256,8 +2250,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2281,7 +2275,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2304,7 +2298,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="80"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2325,7 +2319,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="80"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2347,7 +2341,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="80"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2371,7 +2365,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="81"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2941,6 +2935,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2954,18 +2960,6 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3020,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
@@ -3042,26 +3036,26 @@
     <row r="1" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="99"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="92"/>
     </row>
     <row r="3" spans="2:17" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3082,185 +3076,185 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="99" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="100">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="93"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="102">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="94" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="99" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="100">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="93"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="102">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="105"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
     </row>
     <row r="8" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="94" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="99" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="100">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="56"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="93"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="102">
         <v>0.753</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="92"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="94" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="99" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="100">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="92"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="93"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="102">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="92"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="94" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="100">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="92"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="104">
         <v>0.99</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
     </row>
     <row r="14" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="99" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3282,45 +3276,45 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="6">
         <v>0.52</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="6">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="6">
         <v>0.64500000000000002</v>
       </c>
-      <c r="K15" s="108"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="14">
         <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="107" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="6">
         <v>0.51800000000000002</v>
       </c>
-      <c r="I16" s="108">
+      <c r="I16" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J16" s="108">
+      <c r="J16" s="6">
         <v>0.60899999999999999</v>
       </c>
-      <c r="K16" s="108"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="14">
         <v>0.39400000000000002</v>
       </c>
@@ -3328,22 +3322,22 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="107" t="s">
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="108">
+      <c r="H17" s="6">
         <v>0.52800000000000002</v>
       </c>
-      <c r="I17" s="108">
+      <c r="I17" s="6">
         <v>0.59599999999999997</v>
       </c>
-      <c r="J17" s="108">
+      <c r="J17" s="6">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K17" s="108"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="14">
         <v>0.54900000000000004</v>
       </c>
@@ -3351,72 +3345,72 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="107" t="s">
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="108">
+      <c r="H18" s="6">
         <v>0.49299999999999999</v>
       </c>
-      <c r="I18" s="108">
+      <c r="I18" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="J18" s="108">
+      <c r="J18" s="6">
         <v>0.67600000000000005</v>
       </c>
-      <c r="K18" s="108"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="14">
         <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="107" t="s">
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="108">
+      <c r="H19" s="6">
         <v>0.505</v>
       </c>
-      <c r="I19" s="108">
+      <c r="I19" s="6">
         <v>0.45800000000000002</v>
       </c>
-      <c r="J19" s="108">
+      <c r="J19" s="6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="K19" s="108"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="14">
         <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="107" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="108">
+      <c r="H20" s="6">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I20" s="108">
+      <c r="I20" s="6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J20" s="108">
+      <c r="J20" s="6">
         <v>0.63300000000000001</v>
       </c>
-      <c r="K20" s="108"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="14">
         <v>0.41</v>
       </c>
     </row>
     <row r="21" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3435,9 +3429,9 @@
       </c>
     </row>
     <row r="22" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="94" t="s">
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -3458,114 +3452,114 @@
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="107" t="s">
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="6">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I23" s="108">
+      <c r="I23" s="6">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J23" s="108">
+      <c r="J23" s="6">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K23" s="108"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="14">
         <v>0.67</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="107" t="s">
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I24" s="108">
+      <c r="I24" s="6">
         <v>0.60299999999999998</v>
       </c>
-      <c r="J24" s="108">
+      <c r="J24" s="6">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K24" s="108"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="14">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="107" t="s">
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="108">
+      <c r="H25" s="6">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I25" s="108">
+      <c r="I25" s="6">
         <v>0.877</v>
       </c>
-      <c r="J25" s="108">
+      <c r="J25" s="6">
         <v>0.95</v>
       </c>
-      <c r="K25" s="108"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="14">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="107" t="s">
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26" s="6">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I26" s="108">
+      <c r="I26" s="6">
         <v>0.76600000000000001</v>
       </c>
-      <c r="J26" s="108">
+      <c r="J26" s="6">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K26" s="108"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="14">
         <v>0.87</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="107" t="s">
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="6">
         <v>0.55100000000000005</v>
       </c>
-      <c r="I27" s="108">
+      <c r="I27" s="6">
         <v>0.73899999999999999</v>
       </c>
-      <c r="J27" s="108">
+      <c r="J27" s="6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="K27" s="108"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="14">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="28" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -3584,8 +3578,8 @@
       </c>
     </row>
     <row r="29" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="92"/>
-      <c r="E29" s="94" t="s">
+      <c r="D29" s="95"/>
+      <c r="E29" s="99" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -3607,137 +3601,137 @@
       </c>
     </row>
     <row r="30" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92" t="s">
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="6">
         <v>0.47199999999999998</v>
       </c>
-      <c r="I30" s="108">
+      <c r="I30" s="6">
         <v>0.58899999999999997</v>
       </c>
-      <c r="J30" s="108">
+      <c r="J30" s="6">
         <v>0.68200000000000005</v>
       </c>
-      <c r="K30" s="108"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="14">
         <v>0.628</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="107" t="s">
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="108">
+      <c r="H31" s="6">
         <v>0.52600000000000002</v>
       </c>
-      <c r="I31" s="108">
+      <c r="I31" s="6">
         <v>0.51200000000000001</v>
       </c>
-      <c r="J31" s="108">
+      <c r="J31" s="6">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K31" s="108"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="14">
         <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="107" t="s">
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="108">
+      <c r="H32" s="6">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I32" s="108">
+      <c r="I32" s="6">
         <v>0.60699999999999998</v>
       </c>
-      <c r="J32" s="108">
+      <c r="J32" s="6">
         <v>0.64400000000000002</v>
       </c>
-      <c r="K32" s="108"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="14">
         <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="107" t="s">
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="108">
+      <c r="H33" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I33" s="108">
+      <c r="I33" s="6">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J33" s="108">
+      <c r="J33" s="6">
         <v>0.66300000000000003</v>
       </c>
-      <c r="K33" s="108"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="14">
         <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="107" t="s">
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="108">
+      <c r="H34" s="6">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I34" s="108">
+      <c r="I34" s="6">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J34" s="108">
+      <c r="J34" s="6">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K34" s="108"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="14">
         <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="107" t="s">
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="108">
+      <c r="H35" s="6">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I35" s="108">
+      <c r="I35" s="6">
         <v>0.59</v>
       </c>
-      <c r="J35" s="108">
+      <c r="J35" s="6">
         <v>0.65400000000000003</v>
       </c>
-      <c r="K35" s="108"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="14">
         <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -3756,137 +3750,137 @@
       </c>
     </row>
     <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92" t="s">
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="108">
+      <c r="H37" s="6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I37" s="108">
+      <c r="I37" s="6">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J37" s="108">
+      <c r="J37" s="6">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K37" s="108"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="14">
         <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="107" t="s">
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="108">
+      <c r="H38" s="6">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I38" s="108">
+      <c r="I38" s="6">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J38" s="108">
+      <c r="J38" s="6">
         <v>0.84499999999999997</v>
       </c>
-      <c r="K38" s="108"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="14">
         <v>0.83699999999999997</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="107" t="s">
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="108">
+      <c r="H39" s="6">
         <v>0.505</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="6">
         <v>0.623</v>
       </c>
-      <c r="J39" s="108">
+      <c r="J39" s="6">
         <v>0.71199999999999997</v>
       </c>
-      <c r="K39" s="108"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="14">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="107" t="s">
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="108">
+      <c r="H40" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I40" s="108">
+      <c r="I40" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J40" s="108">
+      <c r="J40" s="6">
         <v>0.94099999999999995</v>
       </c>
-      <c r="K40" s="108"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="14">
         <v>0.94</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="107" t="s">
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="108">
+      <c r="H41" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="I41" s="108">
+      <c r="I41" s="6">
         <v>0.88</v>
       </c>
-      <c r="J41" s="108">
+      <c r="J41" s="6">
         <v>0.96899999999999997</v>
       </c>
-      <c r="K41" s="108"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="14">
         <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="107" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="108">
+      <c r="H42" s="6">
         <v>0.49</v>
       </c>
-      <c r="I42" s="108">
+      <c r="I42" s="6">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J42" s="108">
+      <c r="J42" s="6">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K42" s="108"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="14">
         <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -3906,6 +3900,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D43"/>
+    <mergeCell ref="E14:E28"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F37:F43"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -3922,15 +3925,6 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L43">
     <cfRule type="colorScale" priority="1">
@@ -3953,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3997,7 +3991,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4015,7 +4009,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="75"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4026,12 +4020,12 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H7" si="0">(G4-E4)/E4</f>
+        <f t="shared" ref="H4:H8" si="0">(G4-E4)/E4</f>
         <v>6.3291139240506389E-3</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4049,7 +4043,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="75"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4065,7 +4059,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -4083,14 +4077,20 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="75"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="47">
         <v>0.99</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="G8" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.4141414141414154E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
@@ -4356,13 +4356,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386AD35D-0FD4-C64B-855B-A59C6EDF17B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0F7D4F-6043-2244-B660-FD5F509E2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -635,6 +635,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -644,62 +686,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,37 +743,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,7 +1117,7 @@
   <dimension ref="B2:AT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1153,52 +1153,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="N3" s="71" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="N3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="72" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="87" t="s">
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="84" t="s">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="84" t="s">
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="78"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1223,52 +1223,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="74" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="74" t="s">
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="74" t="s">
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="74" t="s">
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="75"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="71"/>
       <c r="AP4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1290,15 +1290,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1315,8 +1315,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1413,14 +1413,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1442,7 +1442,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1544,14 +1544,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="69"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="69"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1671,14 +1671,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="69"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1807,7 +1807,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="69"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1908,14 +1908,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="70"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2016,22 +2016,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="69"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2041,15 +2041,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="69"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2070,14 +2070,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2109,7 +2109,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2133,14 +2133,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="69"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2163,14 +2163,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="69"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2192,14 +2192,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2226,22 +2226,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80" t="s">
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="87"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2250,8 +2250,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="80" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2298,7 +2298,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="66"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="66"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="66"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="67"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2935,18 +2935,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2960,6 +2948,18 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3036,26 +3036,26 @@
     <row r="1" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="92"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="2:17" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3076,185 +3076,185 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="99" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="94" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="88">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="104">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="99" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="94" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="88">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="104">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
     </row>
     <row r="8" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="99" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="94" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="88">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="56"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="104">
         <v>0.753</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="105"/>
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="99" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="94" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="88">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="104">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="99" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="94" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="88">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="95"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="90">
         <v>0.99</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
     </row>
     <row r="14" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="94" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3276,9 +3276,9 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95" t="s">
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3299,9 +3299,9 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3322,9 +3322,9 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3345,9 +3345,9 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3366,9 +3366,9 @@
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3387,9 +3387,9 @@
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3408,9 +3408,9 @@
       </c>
     </row>
     <row r="21" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3429,9 +3429,9 @@
       </c>
     </row>
     <row r="22" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="99" t="s">
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="94" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -3452,9 +3452,9 @@
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3473,9 +3473,9 @@
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3494,9 +3494,9 @@
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -3515,9 +3515,9 @@
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3536,9 +3536,9 @@
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3557,9 +3557,9 @@
       </c>
     </row>
     <row r="28" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="95"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -3578,8 +3578,8 @@
       </c>
     </row>
     <row r="29" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="95"/>
-      <c r="E29" s="99" t="s">
+      <c r="D29" s="92"/>
+      <c r="E29" s="94" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -3601,9 +3601,9 @@
       </c>
     </row>
     <row r="30" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95" t="s">
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3624,9 +3624,9 @@
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3645,9 +3645,9 @@
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -3666,9 +3666,9 @@
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -3687,9 +3687,9 @@
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -3708,9 +3708,9 @@
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -3729,9 +3729,9 @@
       </c>
     </row>
     <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="97"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -3750,9 +3750,9 @@
       </c>
     </row>
     <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95" t="s">
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3773,9 +3773,9 @@
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -3794,9 +3794,9 @@
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3815,9 +3815,9 @@
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3836,9 +3836,9 @@
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3857,9 +3857,9 @@
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3878,9 +3878,9 @@
       </c>
     </row>
     <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -3900,15 +3900,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -3925,6 +3916,15 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D43"/>
+    <mergeCell ref="E14:E28"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L43">
     <cfRule type="colorScale" priority="1">
@@ -3948,7 +3948,7 @@
   <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3991,7 +3991,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="75" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4003,13 +4003,10 @@
       <c r="G3" s="1">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H3" s="10">
-        <f>(G3-E3)/E3</f>
-        <v>0.35626911314984705</v>
-      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="78"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4019,13 +4016,10 @@
       <c r="G4" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H4" s="10">
-        <f t="shared" ref="H4:H8" si="0">(G4-E4)/E4</f>
-        <v>6.3291139240506389E-3</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4037,13 +4031,10 @@
       <c r="G5" s="1">
         <v>0.877</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19319727891156466</v>
-      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="78"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,13 +4044,10 @@
       <c r="G6" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="0"/>
-        <v>-6.0790273556231055E-3</v>
-      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="75" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -4071,13 +4059,10 @@
       <c r="G7" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20419580419580424</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="78"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="46" t="s">
         <v>20</v>
       </c>
@@ -4087,10 +4072,7 @@
       <c r="G8" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>-1.4141414141414154E-2</v>
-      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
@@ -4356,13 +4338,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0F7D4F-6043-2244-B660-FD5F509E2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E262758-7793-344D-89B8-1F297AFABEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -635,12 +635,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,9 +665,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,6 +674,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,82 +701,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,12 +1117,13 @@
   <dimension ref="B2:AT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
@@ -1153,52 +1154,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="N3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="68" t="s">
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="79" t="s">
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="76" t="s">
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="76" t="s">
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="86"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1214,7 +1215,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1223,52 +1224,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="70" t="s">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="70" t="s">
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="70" t="s">
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="70" t="s">
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="71"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="75"/>
       <c r="AP4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1290,15 +1291,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1315,8 +1316,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1413,14 +1414,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="66"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="69" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1442,7 +1443,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="69" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1544,14 +1545,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="66"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="66"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1671,14 +1672,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="66"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1798,7 +1799,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1807,7 +1808,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="66"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1908,14 +1909,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="67"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2016,22 +2017,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="66"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2041,15 +2042,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2070,14 +2071,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="69" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2100,7 +2101,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2109,7 +2110,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2133,14 +2134,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="66"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2163,14 +2164,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="66"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2192,14 +2193,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2226,22 +2227,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="87"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2250,8 +2251,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2275,7 +2276,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2298,7 +2299,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="80"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2319,7 +2320,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="80"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2341,7 +2342,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="80"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2365,7 +2366,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="81"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2935,6 +2936,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2948,18 +2961,6 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3012,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
-  <dimension ref="B1:Q43"/>
+  <dimension ref="B1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:K43"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3030,32 +3031,53 @@
     <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="16" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="99"/>
-    </row>
-    <row r="3" spans="2:17" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="92"/>
+      <c r="N2" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="92"/>
+    </row>
+    <row r="3" spans="2:22" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3071,190 +3093,347 @@
       <c r="L3" s="64" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="99" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="100">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-    </row>
-    <row r="5" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
+      <c r="N4" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="94"/>
+      <c r="P4" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="100">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="101"/>
+    </row>
+    <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="93"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="102">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
-    </row>
-    <row r="6" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="102">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="103"/>
+    </row>
+    <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="94" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="99" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="100">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-    </row>
-    <row r="7" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="100">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="101"/>
+    </row>
+    <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="93"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="102">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="105"/>
-    </row>
-    <row r="8" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="102">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="103"/>
+    </row>
+    <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="94" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="99" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="100">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="100">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="101"/>
+    </row>
+    <row r="9" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="93"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="102">
         <v>0.753</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="92"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="94" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="102">
+        <v>0.753</v>
+      </c>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="103"/>
+    </row>
+    <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="99" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="100">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="2:17" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="92"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="93"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="100">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
+    </row>
+    <row r="11" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="102">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="92"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="94" t="s">
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="102">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="103"/>
+    </row>
+    <row r="12" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="100">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-    </row>
-    <row r="13" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="92"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="100">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="101"/>
+    </row>
+    <row r="13" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="104">
         <v>0.99</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
-    </row>
-    <row r="14" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="92" t="s">
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="104">
+        <v>0.99</v>
+      </c>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="105"/>
+    </row>
+    <row r="14" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="99" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3274,11 +3453,34 @@
       <c r="L14" s="58">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92" t="s">
+      <c r="N14" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="S14" s="57">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="T14" s="57">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3297,11 +3499,32 @@
       <c r="L15" s="14">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="14">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3318,13 +3541,30 @@
       <c r="L16" s="14">
         <v>0.39400000000000002</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="14">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3341,13 +3581,30 @@
       <c r="L17" s="14">
         <v>0.54900000000000004</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="14">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3364,11 +3621,30 @@
       <c r="L18" s="14">
         <v>0.39900000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3385,11 +3661,30 @@
       <c r="L19" s="14">
         <v>0.41299999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.505</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="14">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3406,11 +3701,30 @@
       <c r="L20" s="14">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="21" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3427,11 +3741,30 @@
       <c r="L21" s="17">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="94" t="s">
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="U21" s="16"/>
+      <c r="V21" s="17">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -3450,11 +3783,32 @@
       <c r="L22" s="58">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="57">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S22" s="57">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="T22" s="57">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="U22" s="57"/>
+      <c r="V22" s="58">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3471,11 +3825,30 @@
       <c r="L23" s="14">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3492,11 +3865,26 @@
       <c r="L24" s="14">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="14"/>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -3513,11 +3901,30 @@
       <c r="L25" s="14">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0.877</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="14">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3534,11 +3941,26 @@
       <c r="L26" s="14">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="14"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3555,11 +3977,26 @@
       <c r="L27" s="14">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="14"/>
+    </row>
+    <row r="28" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="95"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -3576,10 +4013,25 @@
       <c r="L28" s="17">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="92"/>
-      <c r="E29" s="94" t="s">
+      <c r="N28" s="95"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="U28" s="16"/>
+      <c r="V28" s="17"/>
+    </row>
+    <row r="29" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="95"/>
+      <c r="E29" s="99" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -3599,11 +4051,32 @@
       <c r="L29" s="58">
         <v>0.629</v>
       </c>
-    </row>
-    <row r="30" spans="4:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92" t="s">
+      <c r="N29" s="95"/>
+      <c r="O29" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="57">
+        <v>0.495</v>
+      </c>
+      <c r="S29" s="57">
+        <v>0.495</v>
+      </c>
+      <c r="T29" s="57">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="U29" s="57"/>
+      <c r="V29" s="58">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3622,11 +4095,32 @@
       <c r="L30" s="14">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="14">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3643,11 +4137,30 @@
       <c r="L31" s="14">
         <v>0.58899999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="14">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -3664,11 +4177,30 @@
       <c r="L32" s="14">
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="14">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -3685,11 +4217,30 @@
       <c r="L33" s="14">
         <v>0.60599999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="14">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -3706,11 +4257,30 @@
       <c r="L34" s="14">
         <v>0.59099999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -3727,11 +4297,30 @@
       <c r="L35" s="14">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="14">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -3748,11 +4337,30 @@
       <c r="L36" s="17">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92" t="s">
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="16">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="T36" s="16">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="U36" s="16"/>
+      <c r="V36" s="17">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3771,11 +4379,32 @@
       <c r="L37" s="14">
         <v>0.93100000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="T37" s="6">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="14">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -3792,11 +4421,30 @@
       <c r="L38" s="14">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="T38" s="6">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="U38" s="6"/>
+      <c r="V38" s="14">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3813,11 +4461,26 @@
       <c r="L39" s="14">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.505</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="U39" s="6"/>
+      <c r="V39" s="14"/>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3834,11 +4497,30 @@
       <c r="L40" s="14">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="T40" s="6">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3855,11 +4537,26 @@
       <c r="L41" s="14">
         <v>0.96199999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="U41" s="6"/>
+      <c r="V41" s="14"/>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3876,11 +4573,26 @@
       <c r="L42" s="14">
         <v>0.95099999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R42" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="U42" s="6"/>
+      <c r="V42" s="14"/>
+    </row>
+    <row r="43" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -3897,9 +4609,58 @@
       <c r="L43" s="17">
         <v>0.95299999999999996</v>
       </c>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" s="16">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="U43" s="16"/>
+      <c r="V43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="50">
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="N14:N43"/>
+    <mergeCell ref="O14:O28"/>
+    <mergeCell ref="P15:P21"/>
+    <mergeCell ref="P22:P28"/>
+    <mergeCell ref="O29:O43"/>
+    <mergeCell ref="P30:P36"/>
+    <mergeCell ref="P37:P43"/>
+    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="N4:O13"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D43"/>
+    <mergeCell ref="E14:E28"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F37:F43"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -3916,17 +4677,20 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L43">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:V43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3945,10 +4709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:K35"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3958,40 +4722,41 @@
     <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="7"/>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="2:11" ht="40" x14ac:dyDescent="0.2">
-      <c r="B2" s="10"/>
+    </row>
+    <row r="2" spans="2:10" ht="40" x14ac:dyDescent="0.2">
       <c r="C2" s="106"/>
       <c r="D2" s="106"/>
       <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="H2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="75" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4000,26 +4765,26 @@
       <c r="E3" s="5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="5"/>
+      <c r="H3" s="1">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="75"/>
+    </row>
+    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="78"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5">
         <v>0.94799999999999995</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F4" s="5"/>
+      <c r="H4" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="75" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4028,26 +4793,26 @@
       <c r="E5" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="5"/>
+      <c r="H5" s="1">
         <v>0.877</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="75"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="78"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="5"/>
+      <c r="H6" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="75" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -4056,254 +4821,71 @@
       <c r="E7" s="47">
         <v>0.71499999999999997</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="47"/>
+      <c r="H7" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="75"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="78"/>
       <c r="D8" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="47">
         <v>0.99</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="47"/>
+      <c r="H8" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4338,13 +4920,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E262758-7793-344D-89B8-1F297AFABEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C7ED6-C611-874B-A85C-9CA2B5147628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6860" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
     <sheet name="llm (all)" sheetId="13" r:id="rId2"/>
-    <sheet name="llm-correction" sheetId="9" r:id="rId3"/>
-    <sheet name="weak-ft" sheetId="8" r:id="rId4"/>
+    <sheet name="llm (hint)" sheetId="15" r:id="rId3"/>
+    <sheet name="llm (values)" sheetId="14" r:id="rId4"/>
+    <sheet name="llm-correction" sheetId="9" r:id="rId5"/>
+    <sheet name="weak-ft" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -284,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -435,12 +437,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +674,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -644,62 +726,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,41 +783,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF7E40-9809-314A-8B08-230973DFDCC8}">
-  <dimension ref="B2:AT53"/>
+  <dimension ref="B2:AT51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1137,10 +1198,8 @@
     <col min="17" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="40" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.83203125" style="1"/>
-    <col min="42" max="42" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="10.83203125" style="1"/>
+    <col min="42" max="46" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:46" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1154,52 +1213,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="N3" s="71" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="N3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="72" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="87" t="s">
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="84" t="s">
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="84" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1215,7 +1274,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1224,82 +1283,82 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="74" t="s">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="74" t="s">
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="74" t="s">
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="74" t="s">
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="75"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="72"/>
       <c r="AP4" s="30" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AQ4" s="25">
-        <f>MIN($D$4:$D$8)</f>
-        <v>0.86699999999999999</v>
+        <f>MIN($D$14:$D$18)</f>
+        <v>0.65400000000000003</v>
       </c>
       <c r="AR4" s="25">
         <f>MAX($D$4:$D$8)</f>
         <v>0.94799999999999995</v>
       </c>
       <c r="AS4" s="25">
-        <f>AVERAGE($D$4:$D$8)</f>
-        <v>0.92059999999999997</v>
+        <f>AVERAGE($D$4:$D$18)</f>
+        <v>0.8216</v>
       </c>
       <c r="AT4" s="26">
-        <f>STDEV($D$4:$D$8)</f>
-        <v>3.3938179090811559E-2</v>
+        <f>STDEV($D$4:$D$18)</f>
+        <v>9.9674326827781684E-2</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1316,8 +1375,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1394,34 +1453,34 @@
         <v>5</v>
       </c>
       <c r="AP5" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" s="25">
-        <f>MIN($D$9:$D$13)</f>
-        <v>0.83499999999999996</v>
+        <f>MIN($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
+        <v>0.73499999999999999</v>
       </c>
       <c r="AR5" s="25">
-        <f>MAX($D$9:$D$13)</f>
-        <v>0.85199999999999998</v>
+        <f>MAX($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
+        <v>0.98699999999999999</v>
       </c>
       <c r="AS5" s="25">
-        <f>AVERAGE($D$9:$D$13)</f>
-        <v>0.84460000000000002</v>
+        <f>AVERAGE($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
+        <v>0.90839581820354054</v>
       </c>
       <c r="AT5" s="26">
-        <f>STDEV($D$9:$D$13)</f>
-        <v>7.7006493232713892E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
+        <f>STDEV($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
+        <v>6.1842067504213186E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1443,7 +1502,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1524,35 +1583,35 @@
       <c r="AN6" s="50">
         <v>0.71499999999999997</v>
       </c>
-      <c r="AP6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ6" s="25">
-        <f>MIN($D$14:$D$18)</f>
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="AR6" s="25">
-        <f>MAX($D$14:$D$18)</f>
-        <v>0.753</v>
-      </c>
-      <c r="AS6" s="25">
-        <f>AVERAGE($D$14:$D$18)</f>
-        <v>0.6996</v>
-      </c>
-      <c r="AT6" s="26">
-        <f>STDEV($D$14:$D$18)</f>
-        <v>4.5208406297944176E-2</v>
+      <c r="AP6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ6" s="27">
+        <f>MIN($P$6:$AN$10)</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AR6" s="27">
+        <f>MAX($P$6:$AN$10)</f>
+        <v>0.99</v>
+      </c>
+      <c r="AS6" s="27">
+        <f>AVERAGE($P$6:$AN$10)</f>
+        <v>0.90371999999999941</v>
+      </c>
+      <c r="AT6" s="28">
+        <f>STDEV($P$6:$AN$10)</f>
+        <v>8.0260020980198674E-2</v>
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="69"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1572,7 +1631,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="69"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1651,35 +1710,16 @@
       <c r="AN7" s="50">
         <v>0.74099999999999999</v>
       </c>
-      <c r="AP7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ7" s="25">
-        <f>MIN($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="AR7" s="25">
-        <f>MAX($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="AS7" s="25">
-        <f>AVERAGE($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
-        <v>0.90839581820354054</v>
-      </c>
-      <c r="AT7" s="26">
-        <f>STDEV($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
-        <v>6.1842067504213186E-2</v>
-      </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1699,7 +1739,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="69"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1778,28 +1818,9 @@
       <c r="AN8" s="50">
         <v>0.75600000000000001</v>
       </c>
-      <c r="AP8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ8" s="27">
-        <f>MIN($P$6:$AN$10)</f>
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="AR8" s="27">
-        <f>MAX($P$6:$AN$10)</f>
-        <v>0.99</v>
-      </c>
-      <c r="AS8" s="27">
-        <f>AVERAGE($P$6:$AN$10)</f>
-        <v>0.90371999999999941</v>
-      </c>
-      <c r="AT8" s="28">
-        <f>STDEV($P$6:$AN$10)</f>
-        <v>8.0260020980198674E-2</v>
-      </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="83" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1808,7 +1829,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="69"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1909,14 +1930,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1936,7 +1957,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="70"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2017,22 +2038,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="69"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2042,15 +2063,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="69"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2071,14 +2092,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2101,7 +2122,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="83" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2110,7 +2131,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2134,14 +2155,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="69"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2164,14 +2185,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="69"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2193,14 +2214,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2227,22 +2248,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="83"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="88"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2251,8 +2272,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2276,7 +2297,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="81" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2299,7 +2320,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="66"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2320,7 +2341,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="66"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2342,7 +2363,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="66"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2362,11 +2383,10 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="Q23" s="5"/>
-      <c r="S23" s="5"/>
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="67"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2568,12 +2588,12 @@
       <c r="AA33" s="49"/>
       <c r="AB33" s="49"/>
       <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
       <c r="AJ33" s="49"/>
       <c r="AK33" s="49"/>
       <c r="AL33" s="49"/>
@@ -2605,12 +2625,12 @@
       <c r="AA34" s="49"/>
       <c r="AB34" s="49"/>
       <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
       <c r="AJ34" s="49"/>
       <c r="AK34" s="49"/>
       <c r="AL34" s="49"/>
@@ -2642,12 +2662,12 @@
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
       <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
       <c r="AJ35" s="49"/>
       <c r="AK35" s="49"/>
       <c r="AL35" s="49"/>
@@ -2657,103 +2677,64 @@
     <row r="36" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B36" s="59"/>
       <c r="D36" s="25"/>
-      <c r="F36" s="59"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="59"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="49"/>
+      <c r="N36" s="44"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B37" s="59"/>
       <c r="D37" s="25"/>
-      <c r="F37" s="59"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="59"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="49"/>
-      <c r="AN37" s="49"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B38" s="59"/>
       <c r="D38" s="25"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="44"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
+      <c r="F38" s="59"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B39" s="59"/>
       <c r="D39" s="25"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="F39" s="59"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B40" s="59"/>
@@ -2764,6 +2745,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B41" s="59"/>
@@ -2775,8 +2757,6 @@
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B42" s="59"/>
@@ -2787,28 +2767,33 @@
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
-      <c r="M42" s="25"/>
+      <c r="N42" s="44"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B43" s="59"/>
       <c r="D43" s="25"/>
-      <c r="F43" s="59"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="25"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="N43" s="44"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B44" s="59"/>
-      <c r="D44" s="25"/>
-      <c r="F44" s="59"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
       <c r="N44" s="44"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
@@ -2817,31 +2802,22 @@
       <c r="T44" s="25"/>
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B45" s="59"/>
-      <c r="D45" s="25"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="N45" s="44"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
     </row>
     <row r="46" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="N46" s="44"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
     </row>
     <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="F47" s="61"/>
@@ -2853,15 +2829,19 @@
       <c r="L47" s="39"/>
     </row>
     <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D48" s="44"/>
       <c r="F48" s="61"/>
       <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="Q48" s="5"/>
+      <c r="S48" s="5"/>
     </row>
     <row r="49" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D49" s="44"/>
       <c r="F49" s="61"/>
       <c r="G49" s="46"/>
       <c r="H49" s="39"/>
@@ -2869,85 +2849,51 @@
       <c r="J49" s="39"/>
       <c r="K49" s="39"/>
       <c r="L49" s="39"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D50" s="44"/>
-      <c r="F50" s="61"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="46"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
       <c r="K50" s="39"/>
       <c r="L50" s="39"/>
-      <c r="Q50" s="5"/>
-      <c r="S50" s="5"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="W50" s="44"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
     </row>
     <row r="51" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D51" s="44"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
+      <c r="F51" s="25"/>
+      <c r="K51" s="44"/>
       <c r="M51" s="25"/>
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D52" s="44"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="W52" s="44"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D53" s="44"/>
-      <c r="F53" s="25"/>
-      <c r="K53" s="44"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="W53" s="44"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
+      <c r="W51" s="44"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2961,8 +2907,20 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D31:D45 H33:L37 P33:AN37 H40:L40 H41:H44 K41:L44 H47:L51">
+  <conditionalFormatting sqref="D31:D43 P33:AD33 H33:L35 AJ33:AN35 P34:AC35 H38:L38 H39:H42 K39:L42 H45:L49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0.969</formula>
     </cfRule>
@@ -3013,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
-  <dimension ref="B1:V43"/>
+  <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3027,57 +2985,36 @@
     <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="16" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="92"/>
-      <c r="N2" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="92"/>
-    </row>
-    <row r="3" spans="2:22" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="100"/>
+    </row>
+    <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3093,347 +3030,186 @@
       <c r="L3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="99" t="s">
+      <c r="E4" s="102"/>
+      <c r="F4" s="95" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="89">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
-      <c r="N4" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="100">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="101"/>
-    </row>
-    <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+    </row>
+    <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="105">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="102">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="103"/>
-    </row>
-    <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
+    </row>
+    <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="99" t="s">
+      <c r="D6" s="93"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="95" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="89">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="100">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="101"/>
-    </row>
-    <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
+    </row>
+    <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="105">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="102">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="103"/>
-    </row>
-    <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+    </row>
+    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="99" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="95" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="89">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="100">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="101"/>
-    </row>
-    <row r="9" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+    </row>
+    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="105">
         <v>0.753</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="102">
-        <v>0.753</v>
-      </c>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
-    </row>
-    <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="99" t="s">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
+    </row>
+    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="93"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="95" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="89">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="100">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="101"/>
-    </row>
-    <row r="11" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+    </row>
+    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="93"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="105">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="102">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-    </row>
-    <row r="12" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="99" t="s">
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
+    </row>
+    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="93"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="95" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="89">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="100">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="101"/>
-    </row>
-    <row r="13" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="95"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+    </row>
+    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="94"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="91">
         <v>0.99</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="104">
-        <v>0.99</v>
-      </c>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="105"/>
-    </row>
-    <row r="14" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="95" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+    </row>
+    <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="95" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3449,38 +3225,18 @@
       <c r="J14" s="57">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K14" s="57"/>
+      <c r="K14" s="57">
+        <v>0.63200000000000001</v>
+      </c>
       <c r="L14" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N14" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="57">
-        <v>0.52</v>
-      </c>
-      <c r="S14" s="57">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="T14" s="57">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95" t="s">
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3495,36 +3251,18 @@
       <c r="J15" s="6">
         <v>0.64500000000000002</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>0.68600000000000005</v>
+      </c>
       <c r="L15" s="14">
         <v>0.54600000000000004</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="14">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3537,34 +3275,18 @@
       <c r="J16" s="6">
         <v>0.60899999999999999</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6">
+        <v>0.60699999999999998</v>
+      </c>
       <c r="L16" s="14">
         <v>0.39400000000000002</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="14">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3577,34 +3299,18 @@
       <c r="J17" s="6">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6">
+        <v>0.61</v>
+      </c>
       <c r="L17" s="14">
         <v>0.54900000000000004</v>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="14">
-        <v>0.54900000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3617,34 +3323,17 @@
       <c r="J18" s="6">
         <v>0.67600000000000005</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6">
+        <v>0.69</v>
+      </c>
       <c r="L18" s="14">
         <v>0.39900000000000002</v>
       </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="U18" s="6"/>
-      <c r="V18" s="14">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3657,34 +3346,17 @@
       <c r="J19" s="6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6">
+        <v>0.67500000000000004</v>
+      </c>
       <c r="L19" s="14">
         <v>0.41299999999999998</v>
       </c>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="14">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3697,34 +3369,17 @@
       <c r="J20" s="6">
         <v>0.63300000000000001</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6">
+        <v>0.63900000000000001</v>
+      </c>
       <c r="L20" s="14">
         <v>0.41</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="U20" s="6"/>
-      <c r="V20" s="14">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="97"/>
+    </row>
+    <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3737,34 +3392,17 @@
       <c r="J21" s="16">
         <v>0.70499999999999996</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="16">
+        <v>0.69099999999999995</v>
+      </c>
       <c r="L21" s="17">
         <v>0.40600000000000003</v>
       </c>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="16">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="S21" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="T21" s="16">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="17">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="99" t="s">
+    </row>
+    <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="95" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -3779,36 +3417,17 @@
       <c r="J22" s="57">
         <v>0.94599999999999995</v>
       </c>
-      <c r="K22" s="57"/>
+      <c r="K22" s="57">
+        <v>0.95</v>
+      </c>
       <c r="L22" s="58">
         <v>0.94799999999999995</v>
       </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="57">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="S22" s="57">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="T22" s="57">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="U22" s="57"/>
-      <c r="V22" s="58">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3821,34 +3440,17 @@
       <c r="J23" s="6">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="6">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="L23" s="14">
         <v>0.67</v>
       </c>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="U23" s="6"/>
-      <c r="V23" s="14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3856,35 +3458,22 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I24" s="6">
-        <v>0.60299999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="J24" s="6">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="6">
+        <v>0.60099999999999998</v>
+      </c>
       <c r="L24" s="14">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="U24" s="6"/>
-      <c r="V24" s="14"/>
-    </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -3897,34 +3486,17 @@
       <c r="J25" s="6">
         <v>0.95</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6">
+        <v>0.95399999999999996</v>
+      </c>
       <c r="L25" s="14">
         <v>0.94799999999999995</v>
       </c>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0.877</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="14">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3932,35 +3504,22 @@
         <v>0.56100000000000005</v>
       </c>
       <c r="I26" s="6">
-        <v>0.76600000000000001</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="J26" s="6">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" s="6">
+        <v>0.94799999999999995</v>
+      </c>
       <c r="L26" s="14">
-        <v>0.87</v>
-      </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="U26" s="6"/>
-      <c r="V26" s="14"/>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3968,35 +3527,22 @@
         <v>0.55100000000000005</v>
       </c>
       <c r="I27" s="6">
-        <v>0.73899999999999999</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="J27" s="6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="K27" s="6"/>
+      <c r="K27" s="6">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="L27" s="14">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="14"/>
-    </row>
-    <row r="28" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="95"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -4004,34 +3550,21 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="I28" s="16">
-        <v>0.76700000000000002</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="J28" s="16">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="16">
+        <v>0.93899999999999995</v>
+      </c>
       <c r="L28" s="17">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="N28" s="95"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="16">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="17"/>
-    </row>
-    <row r="29" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="95"/>
-      <c r="E29" s="99" t="s">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="93"/>
+      <c r="E29" s="95" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -4047,36 +3580,17 @@
       <c r="J29" s="57">
         <v>0.63300000000000001</v>
       </c>
-      <c r="K29" s="57"/>
+      <c r="K29" s="57">
+        <v>0.64700000000000002</v>
+      </c>
       <c r="L29" s="58">
         <v>0.629</v>
       </c>
-      <c r="N29" s="95"/>
-      <c r="O29" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="S29" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="T29" s="57">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="U29" s="57"/>
-      <c r="V29" s="58">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="30" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95" t="s">
+    </row>
+    <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -4091,36 +3605,17 @@
       <c r="J30" s="6">
         <v>0.68200000000000005</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="6">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="L30" s="14">
         <v>0.628</v>
       </c>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="U30" s="6"/>
-      <c r="V30" s="14">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -4133,34 +3628,17 @@
       <c r="J31" s="6">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>0.52400000000000002</v>
+      </c>
       <c r="L31" s="14">
         <v>0.58899999999999997</v>
       </c>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="T31" s="6">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="U31" s="6"/>
-      <c r="V31" s="14">
-        <v>0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -4173,34 +3651,17 @@
       <c r="J32" s="6">
         <v>0.64400000000000002</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" s="6">
+        <v>0.62</v>
+      </c>
       <c r="L32" s="14">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="T32" s="6">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="U32" s="6"/>
-      <c r="V32" s="14">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -4213,34 +3674,17 @@
       <c r="J33" s="6">
         <v>0.66300000000000003</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" s="6">
+        <v>0.61699999999999999</v>
+      </c>
       <c r="L33" s="14">
         <v>0.60599999999999998</v>
       </c>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="T33" s="6">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="U33" s="6"/>
-      <c r="V33" s="14">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -4253,34 +3697,17 @@
       <c r="J34" s="6">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K34" s="6"/>
+      <c r="K34" s="6">
+        <v>0.64800000000000002</v>
+      </c>
       <c r="L34" s="14">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="T34" s="6">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="U34" s="6"/>
-      <c r="V34" s="14">
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -4293,34 +3720,17 @@
       <c r="J35" s="6">
         <v>0.65400000000000003</v>
       </c>
-      <c r="K35" s="6"/>
+      <c r="K35" s="6">
+        <v>0.62</v>
+      </c>
       <c r="L35" s="14">
         <v>0.48299999999999998</v>
       </c>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="S35" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="T35" s="6">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="14">
-        <v>0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="97"/>
+    </row>
+    <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -4333,34 +3743,17 @@
       <c r="J36" s="16">
         <v>0.65300000000000002</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="16">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="L36" s="17">
         <v>0.56499999999999995</v>
       </c>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" s="16">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="S36" s="16">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="T36" s="16">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="U36" s="16"/>
-      <c r="V36" s="17">
-        <v>0.56499999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="4:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95" t="s">
+    </row>
+    <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -4375,36 +3768,17 @@
       <c r="J37" s="6">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K37" s="6"/>
+      <c r="K37" s="6">
+        <v>0.93400000000000005</v>
+      </c>
       <c r="L37" s="14">
         <v>0.93100000000000005</v>
       </c>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="S37" s="6">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="T37" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="14">
-        <v>0.93100000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -4417,34 +3791,17 @@
       <c r="J38" s="6">
         <v>0.84499999999999997</v>
       </c>
-      <c r="K38" s="6"/>
+      <c r="K38" s="6">
+        <v>0.84299999999999997</v>
+      </c>
       <c r="L38" s="14">
         <v>0.83699999999999997</v>
       </c>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="6">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="T38" s="6">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="U38" s="6"/>
-      <c r="V38" s="14">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -4452,35 +3809,22 @@
         <v>0.505</v>
       </c>
       <c r="I39" s="6">
-        <v>0.623</v>
+        <v>0.76</v>
       </c>
       <c r="J39" s="6">
         <v>0.71199999999999997</v>
       </c>
-      <c r="K39" s="6"/>
+      <c r="K39" s="6">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="L39" s="14">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="U39" s="6"/>
-      <c r="V39" s="14"/>
-    </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -4493,34 +3837,17 @@
       <c r="J40" s="6">
         <v>0.94099999999999995</v>
       </c>
-      <c r="K40" s="6"/>
+      <c r="K40" s="6">
+        <v>0.93700000000000006</v>
+      </c>
       <c r="L40" s="14">
         <v>0.94</v>
       </c>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R40" s="6">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="T40" s="6">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="U40" s="6"/>
-      <c r="V40" s="14">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -4528,35 +3855,22 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I41" s="6">
-        <v>0.88</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="J41" s="6">
         <v>0.96899999999999997</v>
       </c>
-      <c r="K41" s="6"/>
+      <c r="K41" s="6">
+        <v>0.92900000000000005</v>
+      </c>
       <c r="L41" s="14">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="U41" s="6"/>
-      <c r="V41" s="14"/>
-    </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -4564,35 +3878,22 @@
         <v>0.49</v>
       </c>
       <c r="I42" s="6">
-        <v>0.81599999999999995</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="J42" s="6">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K42" s="6"/>
+      <c r="K42" s="6">
+        <v>0.83799999999999997</v>
+      </c>
       <c r="L42" s="14">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R42" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6">
         <v>0.93899999999999995</v>
       </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="14"/>
-    </row>
-    <row r="43" spans="4:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
+    </row>
+    <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -4600,67 +3901,20 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="I43" s="16">
-        <v>0.82299999999999995</v>
+        <v>0.872</v>
       </c>
       <c r="J43" s="16">
         <v>0.97799999999999998</v>
       </c>
-      <c r="K43" s="16"/>
+      <c r="K43" s="16">
+        <v>0.92800000000000005</v>
+      </c>
       <c r="L43" s="17">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R43" s="16">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="17"/>
+        <v>0.96699999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="N14:N43"/>
-    <mergeCell ref="O14:O28"/>
-    <mergeCell ref="P15:P21"/>
-    <mergeCell ref="P22:P28"/>
-    <mergeCell ref="O29:O43"/>
-    <mergeCell ref="P30:P36"/>
-    <mergeCell ref="P37:P43"/>
-    <mergeCell ref="N2:Q3"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="N4:O13"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
+  <mergeCells count="25">
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -4677,20 +3931,17 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D43"/>
+    <mergeCell ref="E14:E28"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L43">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4:V43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4708,11 +3959,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D2524-B4A7-CE4F-AF64-880336732F93}">
+  <dimension ref="B1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
+      <c r="D2" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="97"/>
+      <c r="J2" s="100"/>
+    </row>
+    <row r="3" spans="2:13" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="89">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="105">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+    </row>
+    <row r="6" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
+    </row>
+    <row r="7" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="105">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="89">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="105">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="93"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+    </row>
+    <row r="11" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="93"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="93"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="89">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
+    </row>
+    <row r="13" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="94"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="113">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="113"/>
+      <c r="J13" s="92"/>
+    </row>
+    <row r="14" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="I14" s="57">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J14" s="58">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="93"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="114">
+        <v>0.52</v>
+      </c>
+      <c r="I15" s="114">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="93"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="114">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I16" s="114">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="93"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="114">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I17" s="114">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="93"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="114">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I18" s="114">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="93"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="114">
+        <v>0.505</v>
+      </c>
+      <c r="I19" s="114">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="93"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="114">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I20" s="114">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="93"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="93"/>
+      <c r="E22" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="57">
+        <v>0.495</v>
+      </c>
+      <c r="I22" s="57">
+        <v>0.495</v>
+      </c>
+      <c r="J22" s="58">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="93"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="114">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I23" s="114">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="93"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="114">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I24" s="114">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="93"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="114">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I25" s="114">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="93"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="114">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I26" s="114">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="93"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="114">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I27" s="114">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="93"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="114">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I28" s="114">
+        <v>0.59</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="94"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D14:D29"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D4:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="F8:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:J29">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B202F2B-277F-994F-8FBA-31A55EB8F243}">
+  <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
+      <c r="D2" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="97"/>
+      <c r="J2" s="100"/>
+    </row>
+    <row r="3" spans="2:10" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="89">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="105">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+    </row>
+    <row r="6" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
+    </row>
+    <row r="7" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="105">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="89">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="105">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="93"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+    </row>
+    <row r="11" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="93"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="93"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="89">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
+    </row>
+    <row r="13" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="94"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="113">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="113"/>
+      <c r="J13" s="92"/>
+    </row>
+    <row r="14" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I14" s="57">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J14" s="58">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="114">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I15" s="114">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="114">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I16" s="114">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="114">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I17" s="114">
+        <v>0.877</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="114">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I18" s="114">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="114">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I19" s="114">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="93"/>
+      <c r="E21" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="114">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I21" s="114">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="114">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="I22" s="114">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="114">
+        <v>0.505</v>
+      </c>
+      <c r="I23" s="114">
+        <v>0.76</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="114">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I24" s="114">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="114">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="I25" s="114">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="114">
+        <v>0.49</v>
+      </c>
+      <c r="I26" s="114">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.872</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D4:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="D14:D27"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="E21:E27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:J27">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4722,41 +5005,36 @@
     <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="2:10" ht="40" x14ac:dyDescent="0.2">
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:11" ht="40" x14ac:dyDescent="0.2">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="78" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4765,26 +5043,36 @@
       <c r="E3" s="5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="78"/>
+      <c r="I3" s="1">
+        <f>(G3-E3)/E3</f>
+        <v>0.35626911314984705</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="76"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
         <v>0.95399999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="78" t="s">
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I8" si="0">(G4-E4)/E4</f>
+        <v>6.3291139240506389E-3</v>
+      </c>
+      <c r="K4" s="1">
+        <f>AVERAGE(I3,I5,I7)</f>
+        <v>0.25122073208573864</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4793,26 +5081,32 @@
       <c r="E5" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="78"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19319727891156466</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="76"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="78" t="s">
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0790273556231055E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -4821,71 +5115,71 @@
       <c r="E7" s="47">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>0.86099999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="78"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20419580419580424</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="76"/>
       <c r="D8" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="47">
         <v>0.99</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
         <v>0.97599999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4141414141414154E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4899,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -4920,13 +5214,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C7ED6-C611-874B-A85C-9CA2B5147628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892D6068-EBE9-9C47-8600-23FCE044EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="6860" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
-    <sheet name="llm (all)" sheetId="13" r:id="rId2"/>
-    <sheet name="llm (hint)" sheetId="15" r:id="rId3"/>
-    <sheet name="llm (values)" sheetId="14" r:id="rId4"/>
-    <sheet name="llm-correction" sheetId="9" r:id="rId5"/>
-    <sheet name="weak-ft" sheetId="8" r:id="rId6"/>
+    <sheet name="llm (hint)" sheetId="15" r:id="rId2"/>
+    <sheet name="llm (values)" sheetId="14" r:id="rId3"/>
+    <sheet name="llm-correction" sheetId="9" r:id="rId4"/>
+    <sheet name="weak-ft" sheetId="8" r:id="rId5"/>
+    <sheet name="llm (all)" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -479,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,10 +671,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -741,17 +759,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -759,23 +789,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -783,32 +828,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,8 +843,23 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1178,7 +1220,7 @@
   <dimension ref="B2:AT51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1213,52 +1255,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
-      <c r="N3" s="73" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="N3" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="69" t="s">
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="80" t="s">
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="77" t="s">
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="77" t="s">
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1274,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="89" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1283,52 +1325,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="71" t="s">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="71" t="s">
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="71" t="s">
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="71" t="s">
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="72"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="78"/>
       <c r="AP4" s="30" t="s">
         <v>50</v>
       </c>
@@ -1350,15 +1392,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="67"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1375,8 +1417,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1473,14 +1515,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="73" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1502,7 +1544,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="73" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1604,14 +1646,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="67"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1631,7 +1673,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="67"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1712,14 +1754,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1739,7 +1781,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="67"/>
+      <c r="N8" s="73"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1820,7 +1862,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1829,7 +1871,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1849,7 +1891,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="67"/>
+      <c r="N9" s="73"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1930,14 +1972,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1957,7 +1999,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="68"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2038,22 +2080,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="67"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71" t="s">
+      <c r="F11" s="80"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2063,15 +2105,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2092,14 +2134,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="73" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2122,7 +2164,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2131,7 +2173,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2155,14 +2197,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="67"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2185,14 +2227,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="67"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2214,14 +2256,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2248,22 +2290,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85" t="s">
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="88"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="94"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2272,8 +2314,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2297,7 +2339,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="87" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2320,7 +2362,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="81"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2341,7 +2383,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="81"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2363,7 +2405,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="81"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2386,7 +2428,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="82"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2588,12 +2630,12 @@
       <c r="AA33" s="49"/>
       <c r="AB33" s="49"/>
       <c r="AC33" s="49"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
       <c r="AJ33" s="49"/>
       <c r="AK33" s="49"/>
       <c r="AL33" s="49"/>
@@ -2625,12 +2667,12 @@
       <c r="AA34" s="49"/>
       <c r="AB34" s="49"/>
       <c r="AC34" s="49"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
       <c r="AJ34" s="49"/>
       <c r="AK34" s="49"/>
       <c r="AL34" s="49"/>
@@ -2662,12 +2704,12 @@
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
       <c r="AC35" s="49"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
       <c r="AJ35" s="49"/>
       <c r="AK35" s="49"/>
       <c r="AL35" s="49"/>
@@ -2691,12 +2733,12 @@
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B37" s="59"/>
@@ -2706,12 +2748,12 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B38" s="59"/>
@@ -2970,11 +3012,1825 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D2524-B4A7-CE4F-AF64-880336732F93}">
+  <dimension ref="B1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
+      <c r="D2" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="106">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
+    </row>
+    <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="108">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="109"/>
+    </row>
+    <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="111">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="108">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
+    </row>
+    <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="111">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
+    </row>
+    <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="108">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
+    </row>
+    <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="103"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="111">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+    </row>
+    <row r="11" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="103"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="108">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
+    </row>
+    <row r="12" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="103"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="111">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
+    </row>
+    <row r="13" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="106">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="70">
+        <v>0.52</v>
+      </c>
+      <c r="I14" s="57">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J14" s="57">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="K14" s="58">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="103"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="71">
+        <v>0.52</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="103"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="71">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="N16" s="32"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="103"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="71">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="103"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="71">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="103"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="71">
+        <v>0.505</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="103"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="71">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="103"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="72">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="103"/>
+      <c r="E22" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="71">
+        <v>0.495</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.495</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="103"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="71">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="103"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="71">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="103"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="71">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="103"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="71">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="103"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="71">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="103"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="71">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="104"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="72">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D14:D29"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D4:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:K29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B202F2B-277F-994F-8FBA-31A55EB8F243}">
+  <dimension ref="B1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
+      <c r="D2" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="2:11" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="106">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
+    </row>
+    <row r="5" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="108">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="109"/>
+    </row>
+    <row r="6" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="111">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="108">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
+    </row>
+    <row r="8" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="111">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
+    </row>
+    <row r="9" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="108">
+        <v>0.753</v>
+      </c>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
+    </row>
+    <row r="10" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="103"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="111">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+    </row>
+    <row r="11" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="103"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="108">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
+    </row>
+    <row r="12" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="103"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="111">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
+    </row>
+    <row r="13" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="106">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="70">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I14" s="57">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J14" s="57">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="K14" s="58">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="71">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="71">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="71">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.877</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="71">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="71">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="72">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="103"/>
+      <c r="E21" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="71">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="71">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="71">
+        <v>0.505</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="71">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="71">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="71">
+        <v>0.49</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="72">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.872</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D4:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="D14:D27"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="E21:E27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:K27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
+  <dimension ref="B1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="2:8" ht="40" x14ac:dyDescent="0.2">
+      <c r="C2" s="118"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="122">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F3" s="121">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G3" s="121">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="81"/>
+      <c r="D4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="122">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F4" s="121">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G4" s="121">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="122">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F5" s="121">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G5" s="121">
+        <v>0.877</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="81"/>
+      <c r="D6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="122">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F6" s="121">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G6" s="121">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="123">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F7" s="121">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="G7" s="121">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="124"/>
+      <c r="D8" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="125">
+        <v>0.99</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="29">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A34:A51 A28:A30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G53">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H30 H36:H53 F28:F53">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2995,19 +4851,19 @@
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="100"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
@@ -3035,181 +4891,181 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="111">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="94"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="108">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="95" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="110" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="111">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="94"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="105">
+      <c r="H7" s="108">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="106"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="109"/>
     </row>
     <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="95" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="110" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="111">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="94"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="105">
+      <c r="H9" s="108">
         <v>0.753</v>
       </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
     </row>
     <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="93"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="95" t="s">
+      <c r="D10" s="103"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="110" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="111">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
     </row>
     <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="108">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="93"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="95" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="111">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="94"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="93"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="106">
         <v>0.99</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="110" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3234,9 +5090,9 @@
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93" t="s">
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3260,9 +5116,9 @@
       <c r="O15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3284,9 +5140,9 @@
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3308,9 +5164,9 @@
       <c r="O17" s="32"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3331,9 +5187,9 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3354,9 +5210,9 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,9 +5233,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3400,9 +5256,9 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="95" t="s">
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -3425,9 +5281,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3448,9 +5304,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3461,7 +5317,7 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="J24" s="6">
-        <v>0.60199999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="K24" s="6">
         <v>0.60099999999999998</v>
@@ -3471,9 +5327,9 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -3494,9 +5350,9 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3507,7 +5363,7 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="J26" s="6">
-        <v>0.90500000000000003</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="K26" s="6">
         <v>0.94799999999999995</v>
@@ -3517,9 +5373,9 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +5386,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="J27" s="6">
-        <v>0.73399999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="K27" s="6">
         <v>0.73199999999999998</v>
@@ -3540,9 +5396,9 @@
       </c>
     </row>
     <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -3553,7 +5409,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="J28" s="16">
-        <v>0.95099999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="K28" s="16">
         <v>0.93899999999999995</v>
@@ -3563,8 +5419,8 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="93"/>
-      <c r="E29" s="95" t="s">
+      <c r="D29" s="103"/>
+      <c r="E29" s="110" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -3588,9 +5444,9 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93" t="s">
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3613,9 +5469,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3636,9 +5492,9 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -3659,9 +5515,9 @@
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -3682,9 +5538,9 @@
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -3705,9 +5561,9 @@
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -3728,9 +5584,9 @@
       </c>
     </row>
     <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -3751,9 +5607,9 @@
       </c>
     </row>
     <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93" t="s">
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3776,9 +5632,9 @@
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -3799,9 +5655,9 @@
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3812,7 +5668,7 @@
         <v>0.76</v>
       </c>
       <c r="J39" s="6">
-        <v>0.71199999999999997</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="K39" s="6">
         <v>0.60899999999999999</v>
@@ -3822,9 +5678,9 @@
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3845,9 +5701,9 @@
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3858,7 +5714,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="J41" s="6">
-        <v>0.96899999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="K41" s="6">
         <v>0.92900000000000005</v>
@@ -3868,9 +5724,9 @@
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3881,7 +5737,7 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="J42" s="6">
-        <v>0.93899999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="K42" s="6">
         <v>0.83799999999999997</v>
@@ -3891,9 +5747,9 @@
       </c>
     </row>
     <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -3904,7 +5760,7 @@
         <v>0.872</v>
       </c>
       <c r="J43" s="16">
-        <v>0.97799999999999998</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="K43" s="16">
         <v>0.92800000000000005</v>
@@ -3956,1700 +5812,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D2524-B4A7-CE4F-AF64-880336732F93}">
-  <dimension ref="B1:M29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="100"/>
-    </row>
-    <row r="3" spans="2:13" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="89">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="105">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
-    </row>
-    <row r="6" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="89">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-    </row>
-    <row r="7" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="105">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-    </row>
-    <row r="8" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="89">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-    </row>
-    <row r="9" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="105">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-    </row>
-    <row r="10" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="93"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="89">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-    </row>
-    <row r="11" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="105">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
-    </row>
-    <row r="12" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="93"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="89">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-    </row>
-    <row r="13" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="94"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="113">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="57">
-        <v>0.52</v>
-      </c>
-      <c r="I14" s="57">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J14" s="58">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="93"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="114">
-        <v>0.52</v>
-      </c>
-      <c r="I15" s="114">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="93"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="114">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I16" s="114">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="93"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="114">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="I17" s="114">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="93"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="114">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="I18" s="114">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="93"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="114">
-        <v>0.505</v>
-      </c>
-      <c r="I19" s="114">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="93"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="114">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="I20" s="114">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="93"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.70499999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="93"/>
-      <c r="E22" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="I22" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="J22" s="58">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="93"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="114">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="I23" s="114">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="93"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="114">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="I24" s="114">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="J24" s="14">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="93"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="114">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="I25" s="114">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="J25" s="14">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="93"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="114">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I26" s="114">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="J26" s="14">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="93"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="114">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="I27" s="114">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J27" s="14">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="93"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="114">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I28" s="114">
-        <v>0.59</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="94"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D14:D29"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="F8:F9"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H4:J29">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B202F2B-277F-994F-8FBA-31A55EB8F243}">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="100"/>
-    </row>
-    <row r="3" spans="2:10" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="89">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="105">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
-    </row>
-    <row r="6" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="89">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-    </row>
-    <row r="7" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="105">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-    </row>
-    <row r="8" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="89">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-    </row>
-    <row r="9" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="105">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-    </row>
-    <row r="10" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="93"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="89">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-    </row>
-    <row r="11" spans="2:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="105">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
-    </row>
-    <row r="12" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="93"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="89">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-    </row>
-    <row r="13" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="94"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="113">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="57">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I14" s="57">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="J14" s="58">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="114">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="I15" s="114">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="114">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I16" s="114">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="114">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="I17" s="114">
-        <v>0.877</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="114">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="I18" s="114">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="114">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="I19" s="114">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="93"/>
-      <c r="E21" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="114">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="I21" s="114">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="J21" s="14">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="114">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="I22" s="114">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="114">
-        <v>0.505</v>
-      </c>
-      <c r="I23" s="114">
-        <v>0.76</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="114">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="I24" s="114">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="J24" s="14">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="114">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="I25" s="114">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="J25" s="14">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="114">
-        <v>0.49</v>
-      </c>
-      <c r="I26" s="114">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="J26" s="14">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0.872</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="D14:D27"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="E21:E27"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H4:J27">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:K20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="2:11" ht="40" x14ac:dyDescent="0.2">
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="I3" s="1">
-        <f>(G3-E3)/E3</f>
-        <v>0.35626911314984705</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="76"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I8" si="0">(G4-E4)/E4</f>
-        <v>6.3291139240506389E-3</v>
-      </c>
-      <c r="K4" s="1">
-        <f>AVERAGE(I3,I5,I7)</f>
-        <v>0.25122073208573864</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.877</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19319727891156466</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="76"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.0790273556231055E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="47">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20419580419580424</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="76"/>
-      <c r="D8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="47">
-        <v>0.99</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.4141414141414154E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="29">
-        <v>10</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.92</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A34:A51 A28:A30">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G53">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H30 H36:H53 F28:F53">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892D6068-EBE9-9C47-8600-23FCE044EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707EB7A-B5D1-224D-9F39-C00916B2D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -278,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -479,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,12 +699,39 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,9 +744,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,6 +753,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,29 +780,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,44 +834,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -828,37 +858,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,7 +1244,7 @@
   <dimension ref="B2:AT51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1261,9 @@
     <col min="14" max="14" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="40" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.83203125" style="1"/>
     <col min="42" max="46" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -1255,52 +1281,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="N3" s="79" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="85"/>
+      <c r="N3" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="75" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="86" t="s">
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="83" t="s">
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="83" t="s">
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1316,7 +1342,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1325,52 +1351,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="77" t="s">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="77" t="s">
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="77" t="s">
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="77" t="s">
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="78"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
       <c r="AP4" s="30" t="s">
         <v>50</v>
       </c>
@@ -1392,15 +1418,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="73"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1417,8 +1443,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="90"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1515,14 +1541,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="81" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1544,7 +1570,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="81" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1646,14 +1672,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1673,7 +1699,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="73"/>
+      <c r="N7" s="81"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1754,14 +1780,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="74"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1781,7 +1807,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="73"/>
+      <c r="N8" s="81"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1862,7 +1888,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1871,7 +1897,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1891,7 +1917,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="73"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1972,14 +1998,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="73"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1999,7 +2025,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="74"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2080,22 +2106,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="73"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77" t="s">
+      <c r="F11" s="88"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2105,15 +2131,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="73"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2134,14 +2160,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="81" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2164,7 +2190,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2173,7 +2199,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2197,14 +2223,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="73"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2227,14 +2253,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="73"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2256,14 +2282,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2290,22 +2316,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91" t="s">
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="94"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="95"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2314,8 +2340,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2339,7 +2365,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="78" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2360,9 +2386,10 @@
       <c r="L20" s="40">
         <v>0.77500000000000002</v>
       </c>
+      <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="87"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2383,7 +2410,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="87"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2405,7 +2432,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="87"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2428,7 +2455,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="88"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2936,6 +2963,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2949,18 +2988,6 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D43 P33:AD33 H33:L35 AJ33:AN35 P34:AC35 H38:L38 H39:H42 K39:L42 H45:L49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3016,7 +3043,7 @@
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3036,25 +3063,25 @@
     <row r="1" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="96" t="s">
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3072,171 +3099,171 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="105" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="102">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="119">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="110" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="100">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="119">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="110" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="104" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="100">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="119">
         <v>0.753</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="103"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="110" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="104" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="100">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="103"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="108">
+      <c r="H11" s="119">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
     </row>
     <row r="12" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="103"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="110" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="104" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="100">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="102">
         <v>0.99</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
     </row>
     <row r="14" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="107" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3258,9 +3285,9 @@
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="103"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="103" t="s">
+      <c r="D15" s="105"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="105" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3281,9 +3308,9 @@
       <c r="N15" s="32"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="103"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="103"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3302,9 +3329,9 @@
       <c r="N16" s="32"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="103"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="103"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3323,9 +3350,9 @@
       <c r="N17" s="32"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="103"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="103"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3343,9 +3370,9 @@
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="103"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="103"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3363,9 +3390,9 @@
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="103"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="103"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3383,9 +3410,9 @@
       </c>
     </row>
     <row r="21" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="103"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3403,8 +3430,8 @@
       </c>
     </row>
     <row r="22" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="103"/>
-      <c r="E22" s="113" t="s">
+      <c r="D22" s="105"/>
+      <c r="E22" s="107" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="35"/>
@@ -3425,9 +3452,9 @@
       </c>
     </row>
     <row r="23" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="103"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="103" t="s">
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="105" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3447,9 +3474,9 @@
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="103"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="103"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3467,9 +3494,9 @@
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="103"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="103"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3487,9 +3514,9 @@
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="103"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="103"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
@@ -3507,9 +3534,9 @@
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="103"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="103"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3527,9 +3554,9 @@
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="103"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="103"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="105"/>
       <c r="G28" s="1" t="s">
         <v>48</v>
       </c>
@@ -3547,9 +3574,9 @@
       </c>
     </row>
     <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="104"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="104"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="15" t="s">
         <v>22</v>
       </c>
@@ -3568,13 +3595,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="D14:D29"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F23:F29"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="D4:E13"/>
@@ -3591,6 +3611,13 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D14:D29"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:K29">
     <cfRule type="colorScale" priority="1">
@@ -3613,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B202F2B-277F-994F-8FBA-31A55EB8F243}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3634,25 +3661,25 @@
     <row r="1" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="96" t="s">
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="2:11" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3670,174 +3697,174 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="105" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="102">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="119">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="110" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="100">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="119">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="110" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="104" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="100">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="119">
         <v>0.753</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="103"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="110" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="104" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="100">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="103"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="108">
+      <c r="H11" s="119">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
     </row>
     <row r="12" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="103"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="110" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="104" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="100">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="102">
         <v>0.99</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
     </row>
     <row r="14" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="104" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -3857,9 +3884,9 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3877,9 +3904,9 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3897,9 +3924,9 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3917,9 +3944,9 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,9 +3964,9 @@
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3960,9 +3987,9 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
@@ -3980,11 +4007,11 @@
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="103"/>
-      <c r="E21" s="103" t="s">
+      <c r="D21" s="105"/>
+      <c r="E21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="104" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4002,11 +4029,14 @@
       <c r="K21" s="14">
         <v>0.93100000000000005</v>
       </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
@@ -4024,9 +4054,9 @@
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
@@ -4044,9 +4074,9 @@
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4064,9 +4094,9 @@
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
@@ -4084,9 +4114,9 @@
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
@@ -4104,9 +4134,9 @@
       </c>
     </row>
     <row r="27" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
       <c r="G27" s="15" t="s">
         <v>22</v>
       </c>
@@ -4125,6 +4155,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="D14:D27"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="E21:E27"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="D4:E13"/>
@@ -4141,13 +4178,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="D14:D27"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="E21:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:K27">
     <cfRule type="colorScale" priority="1">
@@ -4168,10 +4198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4183,10 +4213,16 @@
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4194,130 +4230,215 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:8" ht="40" x14ac:dyDescent="0.2">
-      <c r="C2" s="118"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="119" t="s">
+    <row r="2" spans="2:15" ht="40" x14ac:dyDescent="0.2">
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="74" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="81" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="89" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="1">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="126"/>
+      <c r="H3" s="127"/>
+      <c r="K3" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="130">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="N3" s="131">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O3" s="133">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="81"/>
+    </row>
+    <row r="4" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="89"/>
       <c r="D4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="5">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="126"/>
+      <c r="H4" s="127"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="130">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="N4" s="131">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="O4" s="133">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="81" t="s">
+    </row>
+    <row r="5" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G5" s="121">
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
+      <c r="K5" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="130">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N5" s="131">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="O5" s="133">
         <v>0.877</v>
       </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="81"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="89"/>
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="5">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="130">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="N6" s="131">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O6" s="133">
         <v>0.98099999999999998</v>
       </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="81" t="s">
+    </row>
+    <row r="7" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="47">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="126"/>
+      <c r="H7" s="127"/>
+      <c r="K7" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="132">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="N7" s="131">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="O7" s="133">
         <v>0.86099999999999999</v>
       </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="124"/>
-      <c r="D8" s="128" t="s">
+    </row>
+    <row r="8" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="121"/>
+      <c r="D8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="75">
         <v>0.99</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="F8" s="15">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="75">
+        <v>0.99</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O8" s="134">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -4353,12 +4474,28 @@
       <c r="G20" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
+  <conditionalFormatting sqref="M3:O8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4385,13 +4522,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -4851,26 +4988,26 @@
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96" t="s">
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -4891,181 +5028,181 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="110" t="s">
+      <c r="E4" s="125"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="100">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="119">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="109"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="120"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="110" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="100">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="119">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="109"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="110" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="104" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="100">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="119">
         <v>0.753</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="109"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="103"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="110" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="104" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="100">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="103"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="108">
+      <c r="H11" s="119">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="109"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="103"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="110" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="104" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="100">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="102">
         <v>0.99</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="104" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -5090,9 +5227,9 @@
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103" t="s">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -5116,9 +5253,9 @@
       <c r="O15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -5140,9 +5277,9 @@
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5164,9 +5301,9 @@
       <c r="O17" s="32"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -5187,9 +5324,9 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5210,9 +5347,9 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -5233,9 +5370,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -5256,9 +5393,9 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="110" t="s">
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="104" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -5281,9 +5418,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -5304,9 +5441,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5327,9 +5464,9 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -5350,9 +5487,9 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -5373,9 +5510,9 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -5396,9 +5533,9 @@
       </c>
     </row>
     <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -5419,8 +5556,8 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="103"/>
-      <c r="E29" s="110" t="s">
+      <c r="D29" s="105"/>
+      <c r="E29" s="104" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -5444,9 +5581,9 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103" t="s">
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -5469,9 +5606,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5492,9 +5629,9 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -5515,9 +5652,9 @@
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5538,9 +5675,9 @@
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -5561,9 +5698,9 @@
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -5584,9 +5721,9 @@
       </c>
     </row>
     <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -5607,9 +5744,9 @@
       </c>
     </row>
     <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103" t="s">
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -5632,9 +5769,9 @@
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -5655,9 +5792,9 @@
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5678,9 +5815,9 @@
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5701,9 +5838,9 @@
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -5724,9 +5861,9 @@
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -5747,9 +5884,9 @@
       </c>
     </row>
     <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -5771,6 +5908,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D43"/>
+    <mergeCell ref="E14:E28"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F37:F43"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -5787,15 +5933,6 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L43">
     <cfRule type="colorScale" priority="1">

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707EB7A-B5D1-224D-9F39-C00916B2D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8483E09-4423-4F46-8AF5-1AB9ADBABCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -485,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,13 +705,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,83 +777,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -810,39 +855,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,33 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,7 +1266,7 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="88" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="84"/>
@@ -1290,7 +1275,7 @@
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
       <c r="L3" s="85"/>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="88" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="84"/>
@@ -1306,27 +1291,27 @@
       <c r="W3" s="84"/>
       <c r="X3" s="84"/>
       <c r="Y3" s="85"/>
-      <c r="Z3" s="99" t="s">
+      <c r="Z3" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="96" t="s">
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="96" t="s">
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="98"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="94"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1342,7 +1327,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="98" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1351,7 +1336,7 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="86"/>
       <c r="H4" s="86" t="s">
         <v>14</v>
@@ -1360,7 +1345,7 @@
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="87"/>
-      <c r="N4" s="88"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="86"/>
       <c r="P4" s="86" t="s">
         <v>14</v>
@@ -1418,15 +1403,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1443,8 +1428,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1541,14 +1526,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1570,7 +1555,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="82" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1672,14 +1657,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="81"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1699,7 +1684,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="81"/>
+      <c r="N7" s="82"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1780,14 +1765,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="82"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="81"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1807,7 +1792,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="81"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1888,7 +1873,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="98" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1897,7 +1882,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1917,7 +1902,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="81"/>
+      <c r="N9" s="82"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1998,14 +1983,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="82"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="82"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2106,14 +2091,14 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="88"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86" t="s">
         <v>5</v>
@@ -2131,15 +2116,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2160,14 +2145,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="82" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2190,7 +2175,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2199,7 +2184,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2223,14 +2208,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="81"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="81"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2253,14 +2238,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="81"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2282,14 +2267,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2316,22 +2301,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="95"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="103"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2340,8 +2325,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2365,7 +2350,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="96" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2389,7 +2374,7 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="78"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2410,7 +2395,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="78"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2432,7 +2417,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="78"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2455,7 +2440,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="79"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -2963,18 +2948,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2988,6 +2961,18 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D43 P33:AD33 H33:L35 AJ33:AN35 P34:AC35 H38:L38 H39:H42 K39:L42 H45:L49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3063,25 +3048,25 @@
     <row r="1" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="111" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3099,171 +3084,171 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="111"/>
+      <c r="F4" s="112" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="102">
+      <c r="H4" s="115">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="106"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="119">
+      <c r="H5" s="117">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="104" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="119" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="120">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="106"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="117">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="120"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="104" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="119" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="120">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <v>0.753</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="105"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="104" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="119" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="120">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="105"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="106"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="117">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="120"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="12" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="105"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="104" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="120">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="106"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="105"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="115">
         <v>0.99</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
     </row>
     <row r="14" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="122" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3285,9 +3270,9 @@
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="105"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="105" t="s">
+      <c r="D15" s="112"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="112" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3308,9 +3293,9 @@
       <c r="N15" s="32"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="105"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="105"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3329,9 +3314,9 @@
       <c r="N16" s="32"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="105"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="105"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3350,9 +3335,9 @@
       <c r="N17" s="32"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="105"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="105"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3370,9 +3355,9 @@
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="105"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="105"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3390,9 +3375,9 @@
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="105"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="105"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3410,9 +3395,9 @@
       </c>
     </row>
     <row r="21" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="105"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="106"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3430,8 +3415,8 @@
       </c>
     </row>
     <row r="22" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="105"/>
-      <c r="E22" s="107" t="s">
+      <c r="D22" s="112"/>
+      <c r="E22" s="122" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="35"/>
@@ -3452,9 +3437,9 @@
       </c>
     </row>
     <row r="23" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="105" t="s">
+      <c r="D23" s="112"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="112" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3474,9 +3459,9 @@
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3494,9 +3479,9 @@
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="105"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3514,9 +3499,9 @@
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="105"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
@@ -3534,9 +3519,9 @@
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="105"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="105"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,9 +3539,9 @@
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="105"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="105"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="1" t="s">
         <v>48</v>
       </c>
@@ -3574,9 +3559,9 @@
       </c>
     </row>
     <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="106"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="15" t="s">
         <v>22</v>
       </c>
@@ -3595,6 +3580,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D14:D29"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F23:F29"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="D4:E13"/>
@@ -3611,13 +3603,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="D14:D29"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:K29">
     <cfRule type="colorScale" priority="1">
@@ -3661,25 +3646,25 @@
     <row r="1" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="111" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="2:11" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -3697,174 +3682,174 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="111"/>
+      <c r="F4" s="112" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="102">
+      <c r="H4" s="115">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="106"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="119">
+      <c r="H5" s="117">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="104" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="119" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="120">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="106"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="117">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="120"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="104" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="119" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="120">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <v>0.753</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="105"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="104" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="119" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="120">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="105"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="106"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="117">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="120"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="12" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="105"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="104" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="120">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="106"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="105"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="115">
         <v>0.99</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
     </row>
     <row r="14" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="119" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -3884,9 +3869,9 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3904,9 +3889,9 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3924,9 +3909,9 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3944,9 +3929,9 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3964,9 +3949,9 @@
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3987,9 +3972,9 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
@@ -4007,11 +3992,11 @@
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="105"/>
-      <c r="E21" s="105" t="s">
+      <c r="D21" s="112"/>
+      <c r="E21" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="119" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4034,9 +4019,9 @@
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
@@ -4054,9 +4039,9 @@
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
@@ -4074,9 +4059,9 @@
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4094,9 +4079,9 @@
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
@@ -4114,9 +4099,9 @@
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
@@ -4134,9 +4119,9 @@
       </c>
     </row>
     <row r="27" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
       <c r="G27" s="15" t="s">
         <v>22</v>
       </c>
@@ -4155,13 +4140,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="D14:D27"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="E21:E27"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="D4:E13"/>
@@ -4178,6 +4156,13 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="D14:D27"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="E21:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:K27">
     <cfRule type="colorScale" priority="1">
@@ -4198,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4222,7 +4207,7 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4230,9 +4215,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:15" ht="40" x14ac:dyDescent="0.2">
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+    <row r="2" spans="2:18" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="73" t="s">
         <v>3</v>
       </c>
@@ -4245,8 +4230,8 @@
       <c r="H2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="123"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="73" t="s">
         <v>3</v>
       </c>
@@ -4257,188 +4242,266 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="89" t="s">
+    <row r="3" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="77">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="22">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127"/>
-      <c r="K3" s="89" t="s">
+      <c r="G3" s="22">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="K3" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="130">
+      <c r="M3" s="77">
         <v>0.65400000000000003</v>
       </c>
-      <c r="N3" s="131">
+      <c r="N3" s="22">
         <v>0.94499999999999995</v>
       </c>
-      <c r="O3" s="133">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="89"/>
-      <c r="D4" s="24" t="s">
+      <c r="O3" s="23">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>(N3-$M3)/$M3</f>
+        <v>0.44495412844036686</v>
+      </c>
+      <c r="R3" s="1">
+        <f>(O3-$M3)/$M3</f>
+        <v>0.46330275229357787</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="90"/>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="79">
         <v>0.94799999999999995</v>
       </c>
       <c r="F4" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="127"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="24" t="s">
+      <c r="G4" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="130">
+      <c r="M4" s="79">
         <v>0.94799999999999995</v>
       </c>
-      <c r="N4" s="131">
+      <c r="N4" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="O4" s="133">
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="89" t="s">
+      <c r="O4" s="24">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:R8" si="0">(N4-$M4)/$M4</f>
+        <v>1.8987341772151917E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7426160337552768E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="79">
         <v>0.73499999999999999</v>
       </c>
       <c r="F5" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="127"/>
-      <c r="K5" s="89" t="s">
+      <c r="G5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="K5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="130">
+      <c r="M5" s="79">
         <v>0.73499999999999999</v>
       </c>
-      <c r="N5" s="131">
+      <c r="N5" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="O5" s="133">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="89"/>
-      <c r="D6" s="24" t="s">
+      <c r="O5" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30204081632653057</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29251700680272102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="90"/>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="79">
         <v>0.98699999999999999</v>
       </c>
       <c r="F6" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="24" t="s">
+      <c r="G6" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="130">
+      <c r="M6" s="79">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N6" s="131">
+      <c r="N6" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="O6" s="133">
-        <v>0.98099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="89" t="s">
+      <c r="O6" s="24">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5460992907801449E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0131712259371843E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="80">
         <v>0.71499999999999997</v>
       </c>
       <c r="F7" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="127"/>
-      <c r="K7" s="89" t="s">
+      <c r="G7" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="K7" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="76" t="s">
+      <c r="L7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="132">
+      <c r="M7" s="80">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N7" s="131">
+      <c r="N7" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="O7" s="133">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="121"/>
-      <c r="D8" s="77" t="s">
+      <c r="O7" s="24">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34405594405594409</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32027972027972029</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="125"/>
+      <c r="D8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="81">
         <v>0.99</v>
       </c>
       <c r="F8" s="15">
         <v>0.95499999999999996</v>
       </c>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="77" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="76"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="75">
+      <c r="M8" s="81">
         <v>0.99</v>
       </c>
       <c r="N8" s="15">
         <v>0.95499999999999996</v>
       </c>
-      <c r="O8" s="134">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="69">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5353535353535387E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.010101010101011E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q11" s="1">
+        <f>AVERAGE(Q3,Q5,Q7)</f>
+        <v>0.36368362960761386</v>
+      </c>
+      <c r="R11" s="1">
+        <f>AVERAGE(R3,R5,R7)</f>
+        <v>0.3586998264586731</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1">
+        <f>AVERAGE(Q4,Q6,Q8)</f>
+        <v>-1.7275728829728308E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f>AVERAGE(R4,R6,R8)</f>
+        <v>9.1430768511296476E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -4522,7 +4585,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="88" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="84"/>
@@ -4988,26 +5051,26 @@
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -5028,181 +5091,181 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="119" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="120">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="106"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="119">
+      <c r="H5" s="117">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="120"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="104" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="119" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="120">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="106"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="117">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="104" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="119" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="120">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <v>0.753</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="105"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="104" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="119" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="120">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="105"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="106"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="117">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="105"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="104" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="120">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="106"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="105"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="115">
         <v>0.99</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="116"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="119" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -5227,9 +5290,9 @@
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105" t="s">
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -5253,9 +5316,9 @@
       <c r="O15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -5277,9 +5340,9 @@
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5301,9 +5364,9 @@
       <c r="O17" s="32"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -5324,9 +5387,9 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5347,9 +5410,9 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -5370,9 +5433,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -5393,9 +5456,9 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="104" t="s">
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="119" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -5418,9 +5481,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -5441,9 +5504,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5464,9 +5527,9 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -5487,9 +5550,9 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -5510,9 +5573,9 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -5533,9 +5596,9 @@
       </c>
     </row>
     <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -5556,8 +5619,8 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="105"/>
-      <c r="E29" s="104" t="s">
+      <c r="D29" s="112"/>
+      <c r="E29" s="119" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -5581,9 +5644,9 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105" t="s">
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -5606,9 +5669,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5629,9 +5692,9 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -5652,9 +5715,9 @@
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5675,9 +5738,9 @@
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -5698,9 +5761,9 @@
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -5721,9 +5784,9 @@
       </c>
     </row>
     <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="106"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -5744,9 +5807,9 @@
       </c>
     </row>
     <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105" t="s">
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -5769,9 +5832,9 @@
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -5792,9 +5855,9 @@
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5815,9 +5878,9 @@
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5838,9 +5901,9 @@
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -5861,9 +5924,9 @@
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -5884,9 +5947,9 @@
       </c>
     </row>
     <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
@@ -5908,15 +5971,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -5933,6 +5987,15 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D43"/>
+    <mergeCell ref="E14:E28"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L43">
     <cfRule type="colorScale" priority="1">

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8483E09-4423-4F46-8AF5-1AB9ADBABCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51EA2A5-44E2-B34B-BDA2-8C2F46A692B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="28800" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="58">
   <si>
     <t>4o-mini</t>
   </si>
@@ -214,6 +214,12 @@
   <si>
     <t>No Fine-Tuning</t>
   </si>
+  <si>
+    <t>mistral (7b)</t>
+  </si>
+  <si>
+    <t>llama3 (8b)</t>
+  </si>
 </sst>
 </file>
 
@@ -278,18 +284,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -705,16 +705,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -869,6 +860,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1266,52 +1266,52 @@
       <c r="D3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="85"/>
-      <c r="N3" s="88" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
+      <c r="N3" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="84" t="s">
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="95" t="s">
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="92" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="92" t="s">
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="91"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="22" t="s">
         <v>19</v>
@@ -1327,7 +1327,7 @@
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="95" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="22">
@@ -1336,52 +1336,52 @@
       <c r="D4" s="43">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="86" t="s">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="86" t="s">
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="86" t="s">
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="86" t="s">
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="87"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="84"/>
       <c r="AP4" s="30" t="s">
         <v>50</v>
       </c>
@@ -1403,15 +1403,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1428,8 +1428,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1526,14 +1526,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="79" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1555,7 +1555,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="79" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1657,14 +1657,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="82"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1765,14 +1765,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="28">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="82"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="82"/>
+      <c r="N8" s="79"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="95" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22">
@@ -1882,7 +1882,7 @@
       <c r="D9" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="82"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="82"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1983,14 +1983,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="26">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="83"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2091,22 +2091,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86" t="s">
+      <c r="F11" s="86"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="25"/>
       <c r="N11" s="44"/>
       <c r="P11" s="25"/>
@@ -2116,15 +2116,15 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="82"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="26">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2145,14 +2145,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="79" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2175,7 +2175,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="95" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22">
@@ -2184,7 +2184,7 @@
       <c r="D14" s="43">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="82"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2208,14 +2208,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="82"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="26">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2238,14 +2238,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="82"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="26">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2267,14 +2267,14 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="82"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="26">
         <v>0.753</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2301,22 +2301,22 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="28">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100" t="s">
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="103"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="100"/>
       <c r="N18" s="44"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -2325,8 +2325,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="93" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="46">
@@ -2374,7 +2374,7 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="96"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="46">
         <v>2</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="96"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="46">
         <v>3</v>
       </c>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D23" s="44"/>
-      <c r="F23" s="96"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="46">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="44"/>
-      <c r="F24" s="97"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="45">
         <v>5</v>
       </c>
@@ -3025,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D2524-B4A7-CE4F-AF64-880336732F93}">
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3039,216 +3039,231 @@
     <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="105" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
+    </row>
+    <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="K3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="109" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="115">
+      <c r="H4" s="112">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-    </row>
-    <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="113"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="114">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
-    </row>
-    <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
+    </row>
+    <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="119" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="117">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
-    </row>
-    <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="114">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
-    </row>
-    <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
+    </row>
+    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="119" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="117">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-    </row>
-    <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
+    </row>
+    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="113"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="114">
         <v>0.753</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
-    </row>
-    <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="112"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="119" t="s">
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
+    </row>
+    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="109"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="116" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="117">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="112"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="113"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+    </row>
+    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="109"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="114">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-    </row>
-    <row r="12" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="112"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="119" t="s">
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+    </row>
+    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="109"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="116" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="117">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-    </row>
-    <row r="13" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="112"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+    </row>
+    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="112">
         <v>0.99</v>
       </c>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="14" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="119" t="s">
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
+    </row>
+    <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="119" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -3258,21 +3273,22 @@
       <c r="H14" s="70">
         <v>0.52</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="57"/>
+      <c r="J14" s="57">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J14" s="57">
+      <c r="K14" s="57">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K14" s="58">
+      <c r="L14" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="112"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="112" t="s">
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="109"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="109" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3281,142 +3297,149 @@
       <c r="H15" s="71">
         <v>0.52</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>0.64500000000000002</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="14">
         <v>0.54600000000000004</v>
       </c>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="112"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="112"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="109"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="71">
         <v>0.51800000000000002</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>0.60899999999999999</v>
       </c>
-      <c r="K16" s="14">
+      <c r="L16" s="14">
         <v>0.39400000000000002</v>
       </c>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="112"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="112"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="109"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="71">
         <v>0.52800000000000002</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <v>0.59599999999999997</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K17" s="14">
+      <c r="L17" s="14">
         <v>0.54900000000000004</v>
       </c>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="112"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="112"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="109"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="71">
         <v>0.49299999999999999</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>0.67600000000000005</v>
       </c>
-      <c r="K18" s="14">
+      <c r="L18" s="14">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="112"/>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="109"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="71">
         <v>0.505</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <v>0.45800000000000002</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="K19" s="14">
+      <c r="L19" s="14">
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="112"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="112"/>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="109"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="109"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="71">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>0.63300000000000001</v>
       </c>
-      <c r="K20" s="14">
+      <c r="L20" s="14">
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="112"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="113"/>
+    <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="109"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="72">
         <v>0.55600000000000005</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16">
         <v>0.4</v>
       </c>
-      <c r="J21" s="16">
+      <c r="K21" s="16">
         <v>0.70499999999999996</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="22" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="112"/>
-      <c r="E22" s="122" t="s">
+    <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="109"/>
+      <c r="E22" s="119" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="35"/>
@@ -3426,20 +3449,21 @@
       <c r="H22" s="71">
         <v>0.495</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <v>0.495</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>0.63300000000000001</v>
       </c>
-      <c r="K22" s="14">
+      <c r="L22" s="14">
         <v>0.629</v>
       </c>
     </row>
-    <row r="23" spans="4:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="112"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="112" t="s">
+    <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="109"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="109" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3448,163 +3472,170 @@
       <c r="H23" s="71">
         <v>0.47199999999999998</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
         <v>0.58899999999999997</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>0.68200000000000005</v>
       </c>
-      <c r="K23" s="14">
+      <c r="L23" s="14">
         <v>0.628</v>
       </c>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="112"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="112"/>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="109"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="71">
         <v>0.52600000000000002</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>0.51200000000000001</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K24" s="14">
+      <c r="L24" s="14">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="112"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="112"/>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="109"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="71">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>0.60699999999999998</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>0.64400000000000002</v>
       </c>
-      <c r="K25" s="14">
+      <c r="L25" s="14">
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="112"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="112"/>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="109"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="71">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>0.66300000000000003</v>
       </c>
-      <c r="K26" s="14">
+      <c r="L26" s="14">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="112"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="112"/>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="109"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H27" s="71">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K27" s="14">
+      <c r="L27" s="14">
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="112"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="112"/>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="109"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="71">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
         <v>0.59</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>0.65400000000000003</v>
       </c>
-      <c r="K28" s="14">
+      <c r="L28" s="14">
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="4:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="113"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="113"/>
+    <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="110"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="72">
         <v>0.50800000000000001</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="16"/>
+      <c r="J29" s="16">
         <v>0.51400000000000001</v>
       </c>
-      <c r="J29" s="16">
+      <c r="K29" s="16">
         <v>0.65300000000000002</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>0.56499999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="D14:D29"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="E22:E29"/>
     <mergeCell ref="F23:F29"/>
     <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:K29">
+  <conditionalFormatting sqref="H4:L29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3623,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B202F2B-277F-994F-8FBA-31A55EB8F243}">
-  <dimension ref="B1:P27"/>
+  <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3637,219 +3668,234 @@
     <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="105" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="2:11" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
+    </row>
+    <row r="3" spans="2:12" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="K3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="109" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="115">
+      <c r="H4" s="112">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-    </row>
-    <row r="5" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="113"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="114">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
-    </row>
-    <row r="6" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
+    </row>
+    <row r="6" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="119" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="117">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
-    </row>
-    <row r="7" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="114">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
-    </row>
-    <row r="8" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
+    </row>
+    <row r="8" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="119" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="117">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-    </row>
-    <row r="9" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
+    </row>
+    <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="113"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="114">
         <v>0.753</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
-    </row>
-    <row r="10" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="112"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="119" t="s">
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
+    </row>
+    <row r="10" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="109"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="116" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="117">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="112"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="113"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+    </row>
+    <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="109"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="114">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-    </row>
-    <row r="12" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="112"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="119" t="s">
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+    </row>
+    <row r="12" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="109"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="116" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="117">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-    </row>
-    <row r="13" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="112"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+    </row>
+    <row r="13" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="112">
         <v>0.99</v>
       </c>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="14" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="112" t="s">
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
+    </row>
+    <row r="14" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -3858,145 +3904,152 @@
       <c r="H14" s="70">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="57"/>
+      <c r="J14" s="57">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J14" s="57">
+      <c r="K14" s="57">
         <v>0.94599999999999995</v>
       </c>
-      <c r="K14" s="58">
+      <c r="L14" s="58">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+    <row r="15" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="71">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="14">
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="71">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I16" s="6">
-        <v>0.60099999999999998</v>
-      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="6">
         <v>0.60099999999999998</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="6">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L16" s="14">
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="71">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <v>0.877</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.95</v>
       </c>
-      <c r="K17" s="14">
+      <c r="L17" s="14">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="71">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <v>0.66400000000000003</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K18" s="14">
+      <c r="L18" s="14">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="71">
         <v>0.55100000000000005</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>0.73299999999999998</v>
       </c>
-      <c r="K19" s="14">
+      <c r="L19" s="14">
         <v>0.52900000000000003</v>
       </c>
-      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="72">
         <v>0.56299999999999994</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J20" s="16">
+      <c r="K20" s="16">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="112"/>
-      <c r="E21" s="112" t="s">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D21" s="109"/>
+      <c r="E21" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4005,166 +4058,173 @@
       <c r="H21" s="71">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K21" s="14">
+      <c r="L21" s="14">
         <v>0.93100000000000005</v>
       </c>
-      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="71">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>0.84499999999999997</v>
       </c>
-      <c r="K22" s="14">
+      <c r="L22" s="14">
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="71">
         <v>0.505</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
         <v>0.76</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>0.68700000000000006</v>
       </c>
-      <c r="K23" s="14">
+      <c r="L23" s="14">
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="71">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>0.94099999999999995</v>
       </c>
-      <c r="K24" s="14">
+      <c r="L24" s="14">
         <v>0.94</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H25" s="71">
         <v>0.47899999999999998</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>0.96799999999999997</v>
       </c>
-      <c r="K25" s="14">
+      <c r="L25" s="14">
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="71">
         <v>0.49</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>0.94799999999999995</v>
       </c>
-      <c r="K26" s="14">
+      <c r="L26" s="14">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="27" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
+    <row r="27" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="72">
         <v>0.53900000000000003</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
         <v>0.872</v>
       </c>
-      <c r="J27" s="16">
+      <c r="K27" s="16">
         <v>0.98399999999999999</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>0.96699999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H4:L4"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="F21:F27"/>
     <mergeCell ref="D14:D27"/>
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="E21:E27"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:K27">
+  <conditionalFormatting sqref="H5:L27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4183,10 +4243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="B1:R20"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4198,16 +4258,10 @@
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4215,9 +4269,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:18" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
+    <row r="2" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="73" t="s">
         <v>3</v>
       </c>
@@ -4230,26 +4284,15 @@
       <c r="H2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="90" t="s">
+    </row>
+    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="87" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="75">
         <v>0.65400000000000003</v>
       </c>
       <c r="F3" s="22">
@@ -4258,37 +4301,14 @@
       <c r="G3" s="22">
         <v>0.95699999999999996</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="K3" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="77">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="N3" s="22">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="O3" s="23">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>(N3-$M3)/$M3</f>
-        <v>0.44495412844036686</v>
-      </c>
-      <c r="R3" s="1">
-        <f>(O3-$M3)/$M3</f>
-        <v>0.46330275229357787</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="90"/>
+      <c r="H3" s="127"/>
+    </row>
+    <row r="4" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="87"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="76">
         <v>0.94799999999999995</v>
       </c>
       <c r="F4" s="1">
@@ -4297,37 +4317,16 @@
       <c r="G4" s="1">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="79">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:R8" si="0">(N4-$M4)/$M4</f>
-        <v>1.8987341772151917E-2</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7426160337552768E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="90" t="s">
+      <c r="H4" s="128"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="87" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="76">
         <v>0.73499999999999999</v>
       </c>
       <c r="F5" s="1">
@@ -4336,37 +4335,14 @@
       <c r="G5" s="5">
         <v>0.95</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="K5" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="79">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30204081632653057</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29251700680272102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="90"/>
+      <c r="H5" s="128"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="87"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="76">
         <v>0.98699999999999999</v>
       </c>
       <c r="F6" s="1">
@@ -4375,37 +4351,16 @@
       <c r="G6" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="79">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.5460992907801449E-2</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0131712259371843E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="90" t="s">
+      <c r="H6" s="128"/>
+    </row>
+    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="87" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="77">
         <v>0.71499999999999997</v>
       </c>
       <c r="F7" s="1">
@@ -4414,94 +4369,32 @@
       <c r="G7" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="K7" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="80">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34405594405594409</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32027972027972029</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="125"/>
+      <c r="H7" s="128"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="122"/>
       <c r="D8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="78">
         <v>0.99</v>
       </c>
       <c r="F8" s="15">
         <v>0.95499999999999996</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="76"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="81">
-        <v>0.99</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="O8" s="69">
+      <c r="G8" s="15">
         <v>0.98899999999999999</v>
       </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.5353535353535387E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.010101010101011E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="Q11" s="1">
-        <f>AVERAGE(Q3,Q5,Q7)</f>
-        <v>0.36368362960761386</v>
-      </c>
-      <c r="R11" s="1">
-        <f>AVERAGE(R3,R5,R7)</f>
-        <v>0.3586998264586731</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="Q12" s="1">
-        <f>AVERAGE(Q4,Q6,Q8)</f>
-        <v>-1.7275728829728308E-2</v>
-      </c>
-      <c r="R12" s="1">
-        <f>AVERAGE(R4,R6,R8)</f>
-        <v>9.1430768511296476E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H8" s="129"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -4537,28 +4430,12 @@
       <c r="G20" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3:O8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4585,13 +4462,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -5029,7 +4906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
@@ -5051,26 +4928,26 @@
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="62" t="s">
         <v>49</v>
       </c>
@@ -5091,181 +4968,181 @@
       <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="119" t="s">
+      <c r="E4" s="126"/>
+      <c r="F4" s="116" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="117">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="113"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="114">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="119" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="117">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="114">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="119" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="117">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
     </row>
     <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="113"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="114">
         <v>0.753</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="112"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="119" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="116" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="117">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
     </row>
     <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="112"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="113"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="114">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="112"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="119" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="116" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="117">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
     </row>
     <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="112"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="112">
         <v>0.99</v>
       </c>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="116"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="116" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
@@ -5290,9 +5167,9 @@
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112" t="s">
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -5316,9 +5193,9 @@
       <c r="O15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
@@ -5340,9 +5217,9 @@
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5364,9 +5241,9 @@
       <c r="O17" s="32"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
@@ -5387,9 +5264,9 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5410,9 +5287,9 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
@@ -5433,9 +5310,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
@@ -5456,9 +5333,9 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="119" t="s">
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -5481,9 +5358,9 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -5504,9 +5381,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5527,9 +5404,9 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
@@ -5550,9 +5427,9 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
@@ -5573,9 +5450,9 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
@@ -5596,9 +5473,9 @@
       </c>
     </row>
     <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
@@ -5619,8 +5496,8 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="112"/>
-      <c r="E29" s="119" t="s">
+      <c r="D29" s="109"/>
+      <c r="E29" s="116" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="35"/>
@@ -5644,9 +5521,9 @@
       </c>
     </row>
     <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112" t="s">
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -5669,9 +5546,9 @@
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5692,9 +5569,9 @@
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="1" t="s">
         <v>23</v>
       </c>
@@ -5715,9 +5592,9 @@
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5738,9 +5615,9 @@
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
@@ -5761,9 +5638,9 @@
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
@@ -5784,9 +5661,9 @@
       </c>
     </row>
     <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
@@ -5807,9 +5684,9 @@
       </c>
     </row>
     <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112" t="s">
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -5832,9 +5709,9 @@
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
@@ -5855,9 +5732,9 @@
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5878,9 +5755,9 @@
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
       <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5901,9 +5778,9 @@
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
       <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
@@ -5924,9 +5801,9 @@
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
       <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
@@ -5947,9 +5824,9 @@
       </c>
     </row>
     <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>

--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51EA2A5-44E2-B34B-BDA2-8C2F46A692B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7371638-E11B-1042-A34A-37BEE11AEAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="6360" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="8160" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="llm (values)" sheetId="14" r:id="rId3"/>
     <sheet name="llm-correction" sheetId="9" r:id="rId4"/>
     <sheet name="weak-ft" sheetId="8" r:id="rId5"/>
-    <sheet name="llm (all)" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -188,9 +187,6 @@
   </si>
   <si>
     <t>comb (d, m)</t>
-  </si>
-  <si>
-    <t>llama3 (7b)</t>
   </si>
   <si>
     <t>single</t>
@@ -202,10 +198,6 @@
   <si>
     <t>4o-mini
 ($0.15/M)</t>
-  </si>
-  <si>
-    <t>qwen-max
-($1.6/M)</t>
   </si>
   <si>
     <t>4o
@@ -485,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,9 +633,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -717,12 +703,24 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,9 +733,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +742,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,29 +769,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,44 +823,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,21 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,161 +1228,161 @@
   <sheetData>
     <row r="2" spans="2:46" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:46" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="N3" s="85" t="s">
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="N3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="81" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="92" t="s">
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="89" t="s">
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="89" t="s">
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="91"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
       <c r="AP3" s="18"/>
-      <c r="AQ3" s="22" t="s">
+      <c r="AQ3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="22" t="s">
+      <c r="AR3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AS3" s="22" t="s">
+      <c r="AS3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="23" t="s">
+      <c r="AT3" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="42">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="84"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="83" t="s">
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="83" t="s">
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="83" t="s">
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="83" t="s">
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="84"/>
-      <c r="AP4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ4" s="25">
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="86"/>
+      <c r="AP4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="24">
         <f>MIN($D$14:$D$18)</f>
         <v>0.65400000000000003</v>
       </c>
-      <c r="AR4" s="25">
+      <c r="AR4" s="24">
         <f>MAX($D$4:$D$8)</f>
         <v>0.94799999999999995</v>
       </c>
-      <c r="AS4" s="25">
+      <c r="AS4" s="24">
         <f>AVERAGE($D$4:$D$18)</f>
         <v>0.8216</v>
       </c>
-      <c r="AT4" s="26">
+      <c r="AT4" s="25">
         <f>STDEV($D$4:$D$18)</f>
         <v>9.9674326827781684E-2</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="79"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1424,12 +1395,12 @@
       <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>5</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1442,7 +1413,7 @@
       <c r="S5" s="1">
         <v>4</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <v>5</v>
       </c>
       <c r="U5" s="1">
@@ -1457,7 +1428,7 @@
       <c r="X5" s="1">
         <v>4</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="23">
         <v>5</v>
       </c>
       <c r="Z5" s="1">
@@ -1472,7 +1443,7 @@
       <c r="AC5" s="1">
         <v>4</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="23">
         <v>5</v>
       </c>
       <c r="AE5" s="1">
@@ -1487,7 +1458,7 @@
       <c r="AH5" s="1">
         <v>4</v>
       </c>
-      <c r="AI5" s="24">
+      <c r="AI5" s="23">
         <v>5</v>
       </c>
       <c r="AJ5" s="1">
@@ -1502,629 +1473,629 @@
       <c r="AM5" s="1">
         <v>4</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5" s="23">
         <v>5</v>
       </c>
-      <c r="AP5" s="30" t="s">
+      <c r="AP5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="25">
+      <c r="AQ5" s="24">
         <f>MIN($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>0.73499999999999999</v>
       </c>
-      <c r="AR5" s="25">
+      <c r="AR5" s="24">
         <f>MAX($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AS5" s="25">
+      <c r="AS5" s="24">
         <f>AVERAGE($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>0.90839581820354054</v>
       </c>
-      <c r="AT5" s="26">
+      <c r="AT5" s="25">
         <f>STDEV($H$6:$L$10,$H$13:$L$17,$H$20:$L$24)</f>
         <v>6.1842067504213186E-2</v>
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="80" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>0.85923753665689095</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>0.85988921472792401</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>0.85858585858585801</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>0.85337243401759499</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>0.83740632127728898</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="79" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="80" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="24">
         <v>0.88400000000000001</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>0.88400000000000001</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="24">
         <v>0.88200000000000001</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="24">
         <v>0.88100000000000001</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="25">
         <v>0.86299999999999999</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="38">
         <v>0.88800000000000001</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="38">
         <v>0.88800000000000001</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="38">
         <v>0.88600000000000001</v>
       </c>
-      <c r="X6" s="39">
+      <c r="X6" s="38">
         <v>0.88500000000000001</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="39">
         <v>0.86699999999999999</v>
       </c>
-      <c r="Z6" s="49">
+      <c r="Z6" s="48">
         <v>0.88700000000000001</v>
       </c>
-      <c r="AA6" s="49">
+      <c r="AA6" s="48">
         <v>0.88700000000000001</v>
       </c>
-      <c r="AB6" s="49">
+      <c r="AB6" s="48">
         <v>0.88500000000000001</v>
       </c>
-      <c r="AC6" s="49">
+      <c r="AC6" s="48">
         <v>0.88400000000000001</v>
       </c>
-      <c r="AD6" s="50">
+      <c r="AD6" s="49">
         <v>0.86599999999999999</v>
       </c>
-      <c r="AE6" s="49">
+      <c r="AE6" s="48">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AF6" s="49">
+      <c r="AF6" s="48">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AG6" s="49">
+      <c r="AG6" s="48">
         <v>0.86</v>
       </c>
-      <c r="AH6" s="49">
+      <c r="AH6" s="48">
         <v>0.85899999999999999</v>
       </c>
-      <c r="AI6" s="50">
+      <c r="AI6" s="49">
         <v>0.84199999999999997</v>
       </c>
-      <c r="AJ6" s="49">
+      <c r="AJ6" s="48">
         <v>0.73299999999999998</v>
       </c>
-      <c r="AK6" s="49">
+      <c r="AK6" s="48">
         <v>0.73299999999999998</v>
       </c>
-      <c r="AL6" s="49">
+      <c r="AL6" s="48">
         <v>0.73099999999999998</v>
       </c>
-      <c r="AM6" s="49">
+      <c r="AM6" s="48">
         <v>0.73</v>
       </c>
-      <c r="AN6" s="50">
+      <c r="AN6" s="49">
         <v>0.71499999999999997</v>
       </c>
-      <c r="AP6" s="31" t="s">
+      <c r="AP6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AQ6" s="27">
+      <c r="AQ6" s="26">
         <f>MIN($P$6:$AN$10)</f>
         <v>0.71499999999999997</v>
       </c>
-      <c r="AR6" s="27">
+      <c r="AR6" s="26">
         <f>MAX($P$6:$AN$10)</f>
         <v>0.99</v>
       </c>
-      <c r="AS6" s="27">
+      <c r="AS6" s="26">
         <f>AVERAGE($P$6:$AN$10)</f>
         <v>0.90371999999999941</v>
       </c>
-      <c r="AT6" s="28">
+      <c r="AT6" s="27">
         <f>STDEV($P$6:$AN$10)</f>
         <v>8.0260020980198674E-2</v>
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>0.90648399999999996</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>0.90713600000000005</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>0.90550699999999995</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>0.89996699999999996</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>0.88302400000000003</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="79"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="38">
         <v>0.93200000000000005</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="38">
         <v>0.93200000000000005</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="38">
         <v>0.93</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <v>0.92900000000000005</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="39">
         <v>0.90700000000000003</v>
       </c>
-      <c r="U7" s="39">
+      <c r="U7" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="W7" s="39">
+      <c r="W7" s="38">
         <v>0.93500000000000005</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="38">
         <v>0.93400000000000005</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="39">
         <v>0.91200000000000003</v>
       </c>
-      <c r="Z7" s="49">
+      <c r="Z7" s="48">
         <v>0.93600000000000005</v>
       </c>
-      <c r="AA7" s="49">
+      <c r="AA7" s="48">
         <v>0.93600000000000005</v>
       </c>
-      <c r="AB7" s="49">
+      <c r="AB7" s="48">
         <v>0.93400000000000005</v>
       </c>
-      <c r="AC7" s="49">
+      <c r="AC7" s="48">
         <v>0.93300000000000005</v>
       </c>
-      <c r="AD7" s="50">
+      <c r="AD7" s="49">
         <v>0.91100000000000003</v>
       </c>
-      <c r="AE7" s="49">
+      <c r="AE7" s="48">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AF7" s="49">
+      <c r="AF7" s="48">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AG7" s="49">
+      <c r="AG7" s="48">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AH7" s="49">
+      <c r="AH7" s="48">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AI7" s="50">
+      <c r="AI7" s="49">
         <v>0.88</v>
       </c>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="48">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AK7" s="49">
+      <c r="AK7" s="48">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AL7" s="49">
+      <c r="AL7" s="48">
         <v>0.76100000000000001</v>
       </c>
-      <c r="AM7" s="49">
+      <c r="AM7" s="48">
         <v>0.76</v>
       </c>
-      <c r="AN7" s="50">
+      <c r="AN7" s="49">
         <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0.942326</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>0.94330400000000003</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>0.94167500000000004</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>0.93548399999999998</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>0.91756300000000002</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="79"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="80"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="38">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="38">
         <v>0.97199999999999998</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="38">
         <v>0.97</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="38">
         <v>0.96899999999999997</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="39">
         <v>0.94599999999999995</v>
       </c>
-      <c r="U8" s="39">
+      <c r="U8" s="38">
         <v>0.98</v>
       </c>
-      <c r="V8" s="39">
+      <c r="V8" s="38">
         <v>0.98</v>
       </c>
-      <c r="W8" s="39">
+      <c r="W8" s="38">
         <v>0.97799999999999998</v>
       </c>
-      <c r="X8" s="39">
+      <c r="X8" s="38">
         <v>0.97699999999999998</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="39">
         <v>0.95399999999999996</v>
       </c>
-      <c r="Z8" s="49">
+      <c r="Z8" s="48">
         <v>0.97799999999999998</v>
       </c>
-      <c r="AA8" s="49">
+      <c r="AA8" s="48">
         <v>0.97799999999999998</v>
       </c>
-      <c r="AB8" s="49">
+      <c r="AB8" s="48">
         <v>0.97599999999999998</v>
       </c>
-      <c r="AC8" s="49">
+      <c r="AC8" s="48">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD8" s="50">
+      <c r="AD8" s="49">
         <v>0.95199999999999996</v>
       </c>
-      <c r="AE8" s="49">
+      <c r="AE8" s="48">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AF8" s="49">
+      <c r="AF8" s="48">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AG8" s="49">
+      <c r="AG8" s="48">
         <v>0.94</v>
       </c>
-      <c r="AH8" s="49">
+      <c r="AH8" s="48">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AI8" s="50">
+      <c r="AI8" s="49">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AJ8" s="49">
+      <c r="AJ8" s="48">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AK8" s="49">
+      <c r="AK8" s="48">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AL8" s="49">
+      <c r="AL8" s="48">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AM8" s="49">
+      <c r="AM8" s="48">
         <v>0.77600000000000002</v>
       </c>
-      <c r="AN8" s="50">
+      <c r="AN8" s="49">
         <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="79"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0.95047199999999998</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>0.95145000000000002</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>0.94982100000000003</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>0.94362999999999997</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <v>0.92538299999999996</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="79"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="38">
         <v>0.97699999999999998</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="38">
         <v>0.97699999999999998</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="38">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="38">
         <v>0.97399999999999998</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="39">
         <v>0.95099999999999996</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="38">
         <v>0.98699999999999999</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="38">
         <v>0.98699999999999999</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="38">
         <v>0.98499999999999999</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="38">
         <v>0.98399999999999999</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="39">
         <v>0.96099999999999997</v>
       </c>
-      <c r="Z9" s="49">
+      <c r="Z9" s="48">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AA9" s="49">
+      <c r="AA9" s="48">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AB9" s="49">
+      <c r="AB9" s="48">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AC9" s="49">
+      <c r="AC9" s="48">
         <v>0.98399999999999999</v>
       </c>
-      <c r="AD9" s="50">
+      <c r="AD9" s="49">
         <v>0.96099999999999997</v>
       </c>
-      <c r="AE9" s="49">
+      <c r="AE9" s="48">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AF9" s="49">
+      <c r="AF9" s="48">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AG9" s="49">
+      <c r="AG9" s="48">
         <v>0.94899999999999995</v>
       </c>
-      <c r="AH9" s="49">
+      <c r="AH9" s="48">
         <v>0.94799999999999995</v>
       </c>
-      <c r="AI9" s="50">
+      <c r="AI9" s="49">
         <v>0.92600000000000005</v>
       </c>
-      <c r="AJ9" s="49">
+      <c r="AJ9" s="48">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AK9" s="49">
+      <c r="AK9" s="48">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AL9" s="49">
+      <c r="AL9" s="48">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AM9" s="49">
+      <c r="AM9" s="48">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AN9" s="50">
+      <c r="AN9" s="49">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>0.94525899999999996</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>0.94688799999999995</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>0.94525899999999996</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <v>0.93906800000000001</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
         <v>0.92049499999999995</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="80"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="81"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="40">
         <v>0.96899999999999997</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="40">
         <v>0.96899999999999997</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="40">
         <v>0.96699999999999997</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="40">
         <v>0.96599999999999997</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="41">
         <v>0.94299999999999995</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="40">
         <v>0.98499999999999999</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="40">
         <v>0.98499999999999999</v>
       </c>
-      <c r="W10" s="41">
+      <c r="W10" s="40">
         <v>0.98299999999999998</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="40">
         <v>0.98199999999999998</v>
       </c>
-      <c r="Y10" s="42">
+      <c r="Y10" s="41">
         <v>0.95899999999999996</v>
       </c>
-      <c r="Z10" s="51">
+      <c r="Z10" s="50">
         <v>0.99</v>
       </c>
-      <c r="AA10" s="51">
+      <c r="AA10" s="50">
         <v>0.99</v>
       </c>
-      <c r="AB10" s="51">
+      <c r="AB10" s="50">
         <v>0.98799999999999999</v>
       </c>
-      <c r="AC10" s="51">
+      <c r="AC10" s="50">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="51">
         <v>0.96399999999999997</v>
       </c>
-      <c r="AE10" s="51">
+      <c r="AE10" s="50">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AF10" s="51">
+      <c r="AF10" s="50">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AG10" s="51">
+      <c r="AG10" s="50">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AH10" s="51">
+      <c r="AH10" s="50">
         <v>0.95</v>
       </c>
-      <c r="AI10" s="52">
+      <c r="AI10" s="51">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AJ10" s="51">
+      <c r="AJ10" s="50">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AK10" s="51">
+      <c r="AK10" s="50">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AL10" s="51">
+      <c r="AL10" s="50">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AM10" s="51">
+      <c r="AM10" s="50">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AN10" s="52">
+      <c r="AN10" s="51">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="44"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="43"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="79"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2137,7 +2108,7 @@
       <c r="K12" s="1">
         <v>0.4</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <v>0.5</v>
       </c>
       <c r="M12" s="5"/>
@@ -2145,188 +2116,188 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="80" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="38">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <v>0.88900000000000001</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="38">
         <v>0.88800000000000001</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="38">
         <v>0.86399999999999999</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="39">
         <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>0.1</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="42">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="79"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>0.93</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="38">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="39">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="79"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <v>0.97</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>0.98099999999999998</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="38">
         <v>0.97899999999999998</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="38">
         <v>0.94399999999999995</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="39">
         <v>0.78100000000000003</v>
       </c>
-      <c r="M15" s="25"/>
+      <c r="M15" s="24"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="79"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>0.98699999999999999</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="38">
         <v>0.98699999999999999</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="38">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="39">
         <v>0.78200000000000003</v>
       </c>
-      <c r="M16" s="25"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>0.753</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>0.98099999999999998</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="40">
         <v>0.98599999999999999</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <v>0.95</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="41">
         <v>0.78100000000000003</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
+      <c r="N17" s="43"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97" t="s">
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="100"/>
-      <c r="N18" s="44"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="94"/>
+      <c r="N18" s="43"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2339,200 +2310,200 @@
       <c r="K19" s="1">
         <v>0.4</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <v>0.5</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
+      <c r="N19" s="43"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>1</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>0.89</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="38">
         <v>0.93</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="38">
         <v>0.95799999999999996</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <v>0.93799999999999994</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="39">
         <v>0.77500000000000002</v>
       </c>
-      <c r="P20" s="25"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="93"/>
-      <c r="G21" s="46">
+      <c r="F21" s="77"/>
+      <c r="G21" s="45">
         <v>2</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="46">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="46">
         <v>0.90700000000000003</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="46">
         <v>0.90600000000000003</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="46">
         <v>0.9</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="47">
         <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F22" s="93"/>
-      <c r="G22" s="46">
+      <c r="F22" s="77"/>
+      <c r="G22" s="45">
         <v>3</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="38">
         <v>0.94299999999999995</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="38">
         <v>0.97099999999999997</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="38">
         <v>0.94599999999999995</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="39">
         <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D23" s="44"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="46">
+      <c r="D23" s="43"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="45">
         <v>4</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="38">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="38">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="38">
         <v>0.97199999999999998</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="38">
         <v>0.94699999999999995</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="39">
         <v>0.77700000000000002</v>
       </c>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="44"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="45">
+      <c r="D24" s="43"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="44">
         <v>5</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="40">
         <v>0.88700000000000001</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="40">
         <v>0.92600000000000005</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="40">
         <v>0.95399999999999996</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="40">
         <v>0.92600000000000005</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="41">
         <v>0.75800000000000001</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D25" s="44"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="W25" s="44"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
+      <c r="D25" s="43"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="W25" s="43"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D26" s="44"/>
-      <c r="F26" s="25"/>
-      <c r="K26" s="44"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="W26" s="44"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
+      <c r="D26" s="43"/>
+      <c r="F26" s="24"/>
+      <c r="K26" s="43"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="W26" s="43"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D27" s="44"/>
-      <c r="F27" s="25"/>
-      <c r="K27" s="44"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="W27" s="44"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
+      <c r="D27" s="43"/>
+      <c r="F27" s="24"/>
+      <c r="K27" s="43"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="W27" s="43"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D28" s="44"/>
-      <c r="F28" s="25"/>
-      <c r="K28" s="44"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="W28" s="44"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
+      <c r="D28" s="43"/>
+      <c r="F28" s="24"/>
+      <c r="K28" s="43"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="W28" s="43"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="F30" s="10"/>
@@ -2554,25 +2525,25 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="58"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="58"/>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B31" s="59"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="57"/>
+      <c r="D31" s="24"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -2609,128 +2580,128 @@
       <c r="AN31" s="10"/>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B32" s="59"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="57"/>
+      <c r="D32" s="24"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="M32" s="25"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B33" s="59"/>
-      <c r="D33" s="25"/>
-      <c r="F33" s="59"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="59"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
+      <c r="B33" s="57"/>
+      <c r="D33" s="24"/>
+      <c r="F33" s="57"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="57"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B34" s="59"/>
-      <c r="D34" s="25"/>
-      <c r="F34" s="59"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="59"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
+      <c r="B34" s="57"/>
+      <c r="D34" s="24"/>
+      <c r="F34" s="57"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="57"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="48"/>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B35" s="59"/>
-      <c r="D35" s="25"/>
-      <c r="F35" s="59"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="59"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
+      <c r="B35" s="57"/>
+      <c r="D35" s="24"/>
+      <c r="F35" s="57"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="57"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B36" s="59"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="57"/>
+      <c r="D36" s="24"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2738,216 +2709,228 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="44"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="43"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B37" s="59"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="57"/>
+      <c r="D37" s="24"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="65"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B38" s="59"/>
-      <c r="D38" s="25"/>
-      <c r="F38" s="59"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="B38" s="57"/>
+      <c r="D38" s="24"/>
+      <c r="F38" s="57"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B39" s="59"/>
-      <c r="D39" s="25"/>
-      <c r="F39" s="59"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
+      <c r="B39" s="57"/>
+      <c r="D39" s="24"/>
+      <c r="F39" s="57"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B40" s="59"/>
-      <c r="D40" s="25"/>
-      <c r="F40" s="59"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="25"/>
+      <c r="B40" s="57"/>
+      <c r="D40" s="24"/>
+      <c r="F40" s="57"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="24"/>
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B41" s="59"/>
-      <c r="D41" s="25"/>
-      <c r="F41" s="59"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="25"/>
+      <c r="B41" s="57"/>
+      <c r="D41" s="24"/>
+      <c r="F41" s="57"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="24"/>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B42" s="59"/>
-      <c r="D42" s="25"/>
-      <c r="F42" s="59"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="N42" s="44"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
+      <c r="B42" s="57"/>
+      <c r="D42" s="24"/>
+      <c r="F42" s="57"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="N42" s="43"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B43" s="59"/>
-      <c r="D43" s="25"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="N43" s="44"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
+      <c r="B43" s="57"/>
+      <c r="D43" s="24"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="N43" s="43"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="N44" s="44"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="N44" s="43"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F45" s="61"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F46" s="61"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F47" s="61"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="D48" s="44"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
+      <c r="D48" s="43"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
       <c r="Q48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D49" s="44"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
+      <c r="D49" s="43"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
     </row>
     <row r="50" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D50" s="44"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="W50" s="44"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
+      <c r="D50" s="43"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="W50" s="43"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
     </row>
     <row r="51" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D51" s="44"/>
-      <c r="F51" s="25"/>
-      <c r="K51" s="44"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="W51" s="44"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
+      <c r="D51" s="43"/>
+      <c r="F51" s="24"/>
+      <c r="K51" s="43"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="W51" s="43"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2961,18 +2944,6 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:D43 P33:AD33 H33:L35 AJ33:AN35 P34:AC35 H38:L38 H39:H42 K39:L42 H45:L49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3028,7 +2999,7 @@
   <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3048,253 +3019,253 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="101" t="s">
+      <c r="B2" s="54"/>
+      <c r="D2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="101">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="67" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="118">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="116" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="99">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="67" t="s">
+      <c r="B7" s="53"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="114">
+      <c r="H7" s="118">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="116" t="s">
+      <c r="B8" s="54"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="99">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
     </row>
     <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="67" t="s">
+      <c r="B9" s="54"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="118">
         <v>0.753</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="109"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="116" t="s">
+      <c r="D10" s="104"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="99">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="109"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="69" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="118">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="109"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="116" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="99">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
     </row>
     <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="24" t="s">
+      <c r="D13" s="105"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="101">
         <v>0.99</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="119" t="s">
+      <c r="D14" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="68">
         <v>0.52</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57">
+      <c r="I14" s="55"/>
+      <c r="J14" s="55">
         <v>0.40500000000000003</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="55">
         <v>0.60299999999999998</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="56">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O14" s="32"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="109"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="109" t="s">
+      <c r="D15" s="104"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="104" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="69">
         <v>0.52</v>
       </c>
       <c r="I15" s="6"/>
@@ -3307,16 +3278,16 @@
       <c r="L15" s="14">
         <v>0.54600000000000004</v>
       </c>
-      <c r="O15" s="32"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="109"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="109"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="69">
         <v>0.51800000000000002</v>
       </c>
       <c r="I16" s="6"/>
@@ -3329,16 +3300,16 @@
       <c r="L16" s="14">
         <v>0.39400000000000002</v>
       </c>
-      <c r="O16" s="32"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="109"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="109"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="69">
         <v>0.52800000000000002</v>
       </c>
       <c r="I17" s="6"/>
@@ -3351,16 +3322,16 @@
       <c r="L17" s="14">
         <v>0.54900000000000004</v>
       </c>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="109"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="109"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="69">
         <v>0.49299999999999999</v>
       </c>
       <c r="I18" s="6"/>
@@ -3375,13 +3346,13 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="109"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="109"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="69">
         <v>0.505</v>
       </c>
       <c r="I19" s="6"/>
@@ -3396,13 +3367,13 @@
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="109"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="109"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="69">
         <v>0.53600000000000003</v>
       </c>
       <c r="I20" s="6"/>
@@ -3417,13 +3388,13 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="109"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="110"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="70">
         <v>0.55600000000000005</v>
       </c>
       <c r="I21" s="16"/>
@@ -3438,15 +3409,15 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="109"/>
-      <c r="E22" s="119" t="s">
+      <c r="D22" s="104"/>
+      <c r="E22" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="69">
         <v>0.495</v>
       </c>
       <c r="I22" s="6"/>
@@ -3461,15 +3432,15 @@
       </c>
     </row>
     <row r="23" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="109"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="109" t="s">
+      <c r="D23" s="104"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="104" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="69">
         <v>0.47199999999999998</v>
       </c>
       <c r="I23" s="6"/>
@@ -3484,13 +3455,13 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="109"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="109"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="69">
         <v>0.52600000000000002</v>
       </c>
       <c r="I24" s="6"/>
@@ -3505,13 +3476,13 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="109"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="109"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="69">
         <v>0.48599999999999999</v>
       </c>
       <c r="I25" s="6"/>
@@ -3526,13 +3497,13 @@
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="109"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="109"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="69">
         <v>0.51600000000000001</v>
       </c>
       <c r="I26" s="6"/>
@@ -3547,13 +3518,13 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="109"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="109"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="69">
         <v>0.45900000000000002</v>
       </c>
       <c r="I27" s="6"/>
@@ -3568,13 +3539,13 @@
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="109"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="109"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="69">
         <v>0.47399999999999998</v>
       </c>
       <c r="I28" s="6"/>
@@ -3589,13 +3560,13 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="110"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="110"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="70">
         <v>0.50800000000000001</v>
       </c>
       <c r="I29" s="16"/>
@@ -3611,13 +3582,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D29"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F23:F29"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -3634,6 +3598,13 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="D14:D29"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L29">
     <cfRule type="colorScale" priority="1">
@@ -3657,7 +3628,7 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3677,252 +3648,252 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="101" t="s">
+      <c r="B2" s="54"/>
+      <c r="D2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="2:12" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="4" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="101">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="67" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="118">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="116" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="99">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="67" t="s">
+      <c r="B7" s="53"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="114">
+      <c r="H7" s="118">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="116" t="s">
+      <c r="B8" s="54"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="99">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
     </row>
     <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="67" t="s">
+      <c r="B9" s="54"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="118">
         <v>0.753</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="109"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="116" t="s">
+      <c r="D10" s="104"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="99">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="109"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="69" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="118">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="109"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="116" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="99">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
     </row>
     <row r="13" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="24" t="s">
+      <c r="D13" s="105"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="101">
         <v>0.99</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="109" t="s">
+      <c r="D14" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="68">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57">
+      <c r="I14" s="55"/>
+      <c r="J14" s="55">
         <v>0.93799999999999994</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="55">
         <v>0.94599999999999995</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="56">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="69">
         <v>0.59599999999999997</v>
       </c>
       <c r="I15" s="6"/>
@@ -3937,13 +3908,13 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="69">
         <v>0.56999999999999995</v>
       </c>
       <c r="I16" s="6"/>
@@ -3958,13 +3929,13 @@
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="69">
         <v>0.52300000000000002</v>
       </c>
       <c r="I17" s="6"/>
@@ -3979,13 +3950,13 @@
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="69">
         <v>0.56100000000000005</v>
       </c>
       <c r="I18" s="6"/>
@@ -4000,13 +3971,13 @@
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="69">
         <v>0.55100000000000005</v>
       </c>
       <c r="I19" s="6"/>
@@ -4024,13 +3995,13 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="70">
         <v>0.56299999999999994</v>
       </c>
       <c r="I20" s="16"/>
@@ -4045,17 +4016,17 @@
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="109"/>
-      <c r="E21" s="109" t="s">
+      <c r="D21" s="104"/>
+      <c r="E21" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="116" t="s">
+      <c r="F21" s="103" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="69">
         <v>0.60599999999999998</v>
       </c>
       <c r="I21" s="6"/>
@@ -4073,13 +4044,13 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="69">
         <v>0.48499999999999999</v>
       </c>
       <c r="I22" s="6"/>
@@ -4094,13 +4065,13 @@
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="69">
         <v>0.505</v>
       </c>
       <c r="I23" s="6"/>
@@ -4115,13 +4086,13 @@
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="69">
         <v>0.51700000000000002</v>
       </c>
       <c r="I24" s="6"/>
@@ -4136,13 +4107,13 @@
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="69">
         <v>0.47899999999999998</v>
       </c>
       <c r="I25" s="6"/>
@@ -4157,13 +4128,13 @@
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="69">
         <v>0.49</v>
       </c>
       <c r="I26" s="6"/>
@@ -4178,13 +4149,13 @@
       </c>
     </row>
     <row r="27" spans="4:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="70">
         <v>0.53900000000000003</v>
       </c>
       <c r="I27" s="16"/>
@@ -4200,6 +4171,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="D14:D27"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="E21:E27"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E13"/>
@@ -4216,13 +4194,6 @@
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="D14:D27"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="E21:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:L27">
     <cfRule type="colorScale" priority="1">
@@ -4246,7 +4217,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4270,45 +4241,45 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="73" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="87" t="s">
-        <v>50</v>
+      <c r="C3" s="88" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="73">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0.95699999999999996</v>
       </c>
-      <c r="H3" s="127"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="87"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="74">
         <v>0.94799999999999995</v>
       </c>
       <c r="F4" s="1">
@@ -4317,16 +4288,16 @@
       <c r="G4" s="1">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H4" s="128"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="74">
         <v>0.73499999999999999</v>
       </c>
       <c r="F5" s="1">
@@ -4335,14 +4306,14 @@
       <c r="G5" s="5">
         <v>0.95</v>
       </c>
-      <c r="H5" s="128"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="87"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="74">
         <v>0.98699999999999999</v>
       </c>
       <c r="F6" s="1">
@@ -4351,16 +4322,16 @@
       <c r="G6" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H6" s="128"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="75">
         <v>0.71499999999999997</v>
       </c>
       <c r="F7" s="1">
@@ -4369,14 +4340,14 @@
       <c r="G7" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H7" s="128"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="122"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="76">
         <v>0.99</v>
       </c>
       <c r="F8" s="15">
@@ -4385,49 +4356,49 @@
       <c r="G8" s="15">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4436,6 +4407,18 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:H8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4462,29 +4445,29 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4508,24 +4491,24 @@
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>10</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0.94799999999999995</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>0.92</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -4534,7 +4517,7 @@
       <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -4546,7 +4529,7 @@
       <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -4555,7 +4538,7 @@
       <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -4602,28 +4585,28 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="4"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="2"/>
@@ -4900,993 +4883,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9A880-6D70-C94E-B7DB-ED09E5E192C4}">
-  <dimension ref="B1:O43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="D2" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
-    </row>
-    <row r="3" spans="2:15" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="117">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-    </row>
-    <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="114">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-    </row>
-    <row r="6" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="117">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-    </row>
-    <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="114">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
-    </row>
-    <row r="8" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="117">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
-    </row>
-    <row r="9" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="114">
-        <v>0.753</v>
-      </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
-    </row>
-    <row r="10" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="109"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="117">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-    </row>
-    <row r="11" spans="2:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="109"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="114">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-    </row>
-    <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="109"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="117">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
-    </row>
-    <row r="13" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="112">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
-    </row>
-    <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="57">
-        <v>0.52</v>
-      </c>
-      <c r="I14" s="57">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J14" s="57">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="K14" s="57">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="L14" s="58">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="L16" s="14">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="L18" s="14">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="L21" s="17">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="57">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I22" s="57">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="J22" s="57">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K22" s="57">
-        <v>0.95</v>
-      </c>
-      <c r="L22" s="58">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="L24" s="14">
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.877</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="L27" s="14">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="4:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="K28" s="16">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="109"/>
-      <c r="E29" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="I29" s="57">
-        <v>0.495</v>
-      </c>
-      <c r="J29" s="57">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="K29" s="57">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="L29" s="58">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="L31" s="14">
-        <v>0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="L32" s="14">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="L33" s="14">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="L34" s="14">
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="L35" s="14">
-        <v>0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="K36" s="16">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0.56499999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="L37" s="14">
-        <v>0.93100000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="L38" s="14">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="L39" s="14">
-        <v>0.72699999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="L40" s="14">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="L41" s="14">
-        <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="L42" s="14">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="4:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="16">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I43" s="16">
-        <v>0.872</v>
-      </c>
-      <c r="J43" s="16">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="K43" s="16">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="L43" s="17">
-        <v>0.96699999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D14:D43"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H4:L43">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/misc/join_results.xlsx
+++ b/misc/join_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7371638-E11B-1042-A34A-37BEE11AEAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66C8BA-ED8A-7747-A949-D4AD34F22B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="8160" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>4o-mini</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>noisy label</t>
-  </si>
-  <si>
-    <t>noisy finetuning results</t>
   </si>
   <si>
     <t>worst</t>
@@ -211,6 +208,10 @@
   </si>
   <si>
     <t>llama3 (8b)</t>
+  </si>
+  <si>
+    <t>claude
+($0.8/M)</t>
   </si>
 </sst>
 </file>
@@ -703,6 +704,48 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -712,83 +755,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -798,39 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,7 +1201,7 @@
   <dimension ref="B2:AT51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1232,73 +1233,73 @@
         <v>3</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84"/>
-      <c r="N3" s="82" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="N3" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="83" t="s">
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="98" t="s">
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="95" t="s">
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="97"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="89"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AS3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AS3" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="AT3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="93" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="21">
@@ -1307,54 +1308,54 @@
       <c r="D4" s="42">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="85" t="s">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="85" t="s">
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="85" t="s">
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="85" t="s">
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="86"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="82"/>
       <c r="AP4" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ4" s="24">
         <f>MIN($D$14:$D$18)</f>
@@ -1374,15 +1375,15 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="25">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -1399,8 +1400,8 @@
         <v>5</v>
       </c>
       <c r="M5" s="24"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1497,14 +1498,14 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="25">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="77" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -1526,7 +1527,7 @@
         <v>0.83740632127728898</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="77" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
@@ -1608,7 +1609,7 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="AP6" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ6" s="26">
         <f>MIN($P$6:$AN$10)</f>
@@ -1628,14 +1629,14 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="25">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>0.88302400000000003</v>
       </c>
       <c r="M7" s="24"/>
-      <c r="N7" s="80"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="1">
         <v>2</v>
       </c>
@@ -1736,14 +1737,14 @@
       </c>
     </row>
     <row r="8" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
       <c r="D8" s="27">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>0.91756300000000002</v>
       </c>
       <c r="M8" s="24"/>
-      <c r="N8" s="80"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
@@ -1844,7 +1845,7 @@
       </c>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="21">
@@ -1853,7 +1854,7 @@
       <c r="D9" s="42">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>0.92538299999999996</v>
       </c>
       <c r="M9" s="24"/>
-      <c r="N9" s="80"/>
+      <c r="N9" s="77"/>
       <c r="O9" s="1">
         <v>10</v>
       </c>
@@ -1954,14 +1955,14 @@
       </c>
     </row>
     <row r="10" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="15">
         <v>20</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>0.92049499999999995</v>
       </c>
       <c r="M10" s="24"/>
-      <c r="N10" s="81"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="15">
         <v>20</v>
       </c>
@@ -2062,22 +2063,22 @@
       </c>
     </row>
     <row r="11" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="25">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85" t="s">
+      <c r="F11" s="84"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="24"/>
       <c r="N11" s="43"/>
       <c r="P11" s="24"/>
@@ -2087,15 +2088,15 @@
       <c r="T11" s="24"/>
     </row>
     <row r="12" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="25">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
@@ -2116,14 +2117,14 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="27">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="77" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1">
@@ -2146,7 +2147,7 @@
       </c>
     </row>
     <row r="14" spans="2:46" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="93" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="21">
@@ -2155,7 +2156,7 @@
       <c r="D14" s="42">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -2179,14 +2180,14 @@
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="80"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="1">
         <v>0.2</v>
       </c>
       <c r="D15" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -2209,14 +2210,14 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="80"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="1">
         <v>0.3</v>
       </c>
       <c r="D16" s="25">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
@@ -2238,14 +2239,14 @@
       <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
       <c r="D17" s="25">
         <v>0.753</v>
       </c>
-      <c r="F17" s="81"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2272,22 +2273,22 @@
       <c r="T17" s="24"/>
     </row>
     <row r="18" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="27">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="94"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="98"/>
       <c r="N18" s="43"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
@@ -2296,8 +2297,8 @@
       <c r="T18" s="24"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
@@ -2321,7 +2322,7 @@
       <c r="T19" s="24"/>
     </row>
     <row r="20" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="91" t="s">
       